--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Dropbox/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55856279-6EDE-924E-9E5A-670EECE0CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F71A1-2F42-8E44-A788-0C2A541721AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="43900" windowHeight="24660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="2020" windowWidth="43900" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="231">
   <si>
     <t>Price</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>EV/2024E</t>
   </si>
   <si>
-    <t>YTD</t>
-  </si>
-  <si>
     <t>WS</t>
   </si>
   <si>
@@ -1076,9 +1073,6 @@
     <t>OM%</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>% Revenue</t>
   </si>
   <si>
@@ -1086,6 +1080,18 @@
   </si>
   <si>
     <t>EV/2025E</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1371,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1503,9 +1509,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1557,14 +1561,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>23284</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3744</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>26308</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6768</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>96762</xdr:rowOff>
     </xdr:to>
@@ -1581,8 +1585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11600418" y="0"/>
-          <a:ext cx="3024" cy="23909262"/>
+          <a:off x="12303206" y="0"/>
+          <a:ext cx="3024" cy="25516300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1612,14 +1616,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>15121</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>113393</xdr:rowOff>
     </xdr:to>
@@ -1636,8 +1640,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14732000" y="0"/>
-          <a:ext cx="15120" cy="10400393"/>
+          <a:off x="21355539" y="0"/>
+          <a:ext cx="15120" cy="13028316"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1977,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E2" zoomScale="277" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2016,13 +2020,8 @@
       <c r="C4" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="L4" s="61">
-        <f>+L8/89.7-1</f>
-        <v>0.64960981047937572</v>
-      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="61"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
@@ -2031,7 +2030,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -2045,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>147.97</v>
+        <v>150.22</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -2059,11 +2058,11 @@
         <v>1</v>
       </c>
       <c r="L9" s="3">
-        <f>5918+873+5725</f>
-        <v>12516</v>
+        <f>5893+869+5671</f>
+        <v>12433</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -2078,7 +2077,7 @@
       </c>
       <c r="L10" s="10">
         <f>+L8*L9</f>
-        <v>1851992.52</v>
+        <v>1867685.26</v>
       </c>
       <c r="M10" s="62"/>
     </row>
@@ -2093,12 +2092,11 @@
         <v>3</v>
       </c>
       <c r="L11" s="3">
-        <f>Model!Q49</f>
-        <v>119935</v>
+        <v>110916</v>
       </c>
       <c r="M11" s="2" t="str">
         <f>+M9</f>
-        <v>Q323</v>
+        <v>Q423</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -2112,12 +2110,11 @@
         <v>4</v>
       </c>
       <c r="L12" s="3">
-        <f>+Model!Q71</f>
-        <v>13781</v>
+        <v>13253</v>
       </c>
       <c r="M12" s="2" t="str">
         <f>+M11</f>
-        <v>Q323</v>
+        <v>Q423</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -2132,7 +2129,7 @@
       </c>
       <c r="L13" s="10">
         <f>+L10-L11+L12</f>
-        <v>1745838.52</v>
+        <v>1770022.26</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -3083,7 +3080,7 @@
       </c>
       <c r="C10" s="44">
         <f ca="1">+Bonds!L9</f>
-        <v>53.167123287671231</v>
+        <v>53.057534246575344</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -3202,7 +3199,7 @@
       </c>
       <c r="E1" s="30">
         <f ca="1">Bonds!L3</f>
-        <v>0.19178082191780821</v>
+        <v>8.2191780821917804E-2</v>
       </c>
     </row>
     <row r="2" spans="2:32" x14ac:dyDescent="0.2">
@@ -3226,7 +3223,7 @@
       </c>
       <c r="E3" s="30">
         <f ca="1">Bonds!L3</f>
-        <v>0.19178082191780821</v>
+        <v>8.2191780821917804E-2</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
@@ -3251,7 +3248,7 @@
       </c>
       <c r="E5" s="19">
         <f ca="1">E1*(1-1/(1+E2)^E3)/E2+E4/(1+E2)^E3</f>
-        <v>990.72234542579304</v>
+        <v>996.00445826476903</v>
       </c>
       <c r="I5" s="19">
         <f>13*2</f>
@@ -4349,13 +4346,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4817FBF3-C687-F243-A6D8-C19B4C818BA0}">
-  <dimension ref="B2:EQ116"/>
+  <dimension ref="B2:EW116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN30" sqref="AN30"/>
+      <selection pane="bottomRight" activeCell="AS49" sqref="AS49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4371,19 +4368,21 @@
     <col min="16" max="16" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.83203125" style="3" customWidth="1"/>
     <col min="18" max="18" width="8.5" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="3"/>
-    <col min="20" max="20" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="35" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="38" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="147" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="148" max="16384" width="10.83203125" style="3"/>
+    <col min="19" max="22" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.5" style="3" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="3"/>
+    <col min="26" max="26" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="41" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="153" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="154" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:43" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="15" t="s">
         <v>6</v>
@@ -4433,75 +4432,91 @@
       <c r="R2" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="15">
+      <c r="S2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="15">
         <v>2016</v>
       </c>
-      <c r="U2" s="15">
-        <f>+T2+1</f>
+      <c r="AA2" s="15">
+        <f>+Z2+1</f>
         <v>2017</v>
       </c>
-      <c r="V2" s="15">
-        <f t="shared" ref="V2:AJ2" si="0">+U2+1</f>
+      <c r="AB2" s="15">
+        <f t="shared" ref="AB2:AQ2" si="0">+AA2+1</f>
         <v>2018</v>
       </c>
-      <c r="W2" s="15">
+      <c r="AC2" s="15">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="X2" s="15">
+      <c r="AD2" s="15">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="AE2" s="15">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="AF2" s="15">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AG2" s="15">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AH2" s="15">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AI2" s="15">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AJ2" s="15">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AK2" s="15">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AL2" s="15">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AG2" s="15">
+      <c r="AM2" s="15">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AH2" s="15">
+      <c r="AN2" s="15">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AO2" s="15">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AP2" s="15">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-    </row>
-    <row r="3" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ2" s="15">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="3" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
@@ -4515,7 +4530,7 @@
         <v>26338</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F24" si="1">+X3-SUM(C3:E3)</f>
+        <f t="shared" ref="F3:F24" si="1">+AD3-SUM(C3:E3)</f>
         <v>31903</v>
       </c>
       <c r="G3" s="4">
@@ -4528,7 +4543,7 @@
         <v>37926</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J24" si="2">+Y3-SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J24" si="2">+AE3-SUM(G3:I3)</f>
         <v>43301</v>
       </c>
       <c r="K3" s="4">
@@ -4541,7 +4556,7 @@
         <v>39539</v>
       </c>
       <c r="N3" s="4">
-        <f>+Z3-SUM(K3:M3)</f>
+        <f>+AF3-SUM(K3:M3)</f>
         <v>42604</v>
       </c>
       <c r="O3" s="4">
@@ -4554,70 +4569,72 @@
         <v>44026</v>
       </c>
       <c r="R3" s="4">
-        <f>+N3*1.05</f>
-        <v>44734.200000000004</v>
-      </c>
-      <c r="S3" s="63"/>
-      <c r="U3" s="4">
+        <v>48020</v>
+      </c>
+      <c r="Y3" s="63"/>
+      <c r="AA3" s="4">
         <v>69811</v>
       </c>
-      <c r="V3" s="4">
+      <c r="AB3" s="4">
         <v>82296</v>
       </c>
-      <c r="W3" s="4">
+      <c r="AC3" s="4">
         <v>98115</v>
       </c>
-      <c r="X3" s="4">
+      <c r="AD3" s="4">
         <v>104062</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AE3" s="4">
         <v>148951</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AF3" s="4">
         <v>162450</v>
       </c>
-      <c r="AA3" s="4">
-        <f>SUM(O3:R3)</f>
-        <v>171747.20000000001</v>
-      </c>
-      <c r="AB3" s="4">
-        <f>+AA3*1.05</f>
-        <v>180334.56000000003</v>
-      </c>
-      <c r="AC3" s="4">
-        <f t="shared" ref="AC3:AJ3" si="3">+AB3*1.05</f>
-        <v>189351.28800000003</v>
-      </c>
-      <c r="AD3" s="4">
-        <f t="shared" si="3"/>
-        <v>198818.85240000003</v>
-      </c>
-      <c r="AE3" s="4">
-        <f t="shared" si="3"/>
-        <v>208759.79502000005</v>
-      </c>
-      <c r="AF3" s="4">
-        <f t="shared" si="3"/>
-        <v>219197.78477100006</v>
-      </c>
       <c r="AG3" s="4">
-        <f t="shared" si="3"/>
-        <v>230157.67400955007</v>
+        <v>175033</v>
       </c>
       <c r="AH3" s="4">
-        <f t="shared" si="3"/>
-        <v>241665.55771002758</v>
+        <f>+AG3*1.05</f>
+        <v>183784.65</v>
       </c>
       <c r="AI3" s="4">
-        <f t="shared" si="3"/>
-        <v>253748.83559552897</v>
+        <f t="shared" ref="AI3:AQ3" si="3">+AH3*1.05</f>
+        <v>192973.88250000001</v>
       </c>
       <c r="AJ3" s="4">
         <f t="shared" si="3"/>
-        <v>266436.27737530542</v>
-      </c>
-    </row>
-    <row r="4" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>202622.57662500002</v>
+      </c>
+      <c r="AK3" s="4">
+        <f t="shared" si="3"/>
+        <v>212753.70545625003</v>
+      </c>
+      <c r="AL3" s="4">
+        <f t="shared" si="3"/>
+        <v>223391.39072906255</v>
+      </c>
+      <c r="AM3" s="4">
+        <f t="shared" si="3"/>
+        <v>234560.96026551569</v>
+      </c>
+      <c r="AN3" s="4">
+        <f t="shared" si="3"/>
+        <v>246289.0082787915</v>
+      </c>
+      <c r="AO3" s="4">
+        <f t="shared" si="3"/>
+        <v>258603.45869273107</v>
+      </c>
+      <c r="AP3" s="4">
+        <f t="shared" si="3"/>
+        <v>271533.63162736763</v>
+      </c>
+      <c r="AQ3" s="4">
+        <f t="shared" si="3"/>
+        <v>285110.31320873601</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>198</v>
       </c>
@@ -4657,7 +4674,7 @@
         <v>7071</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N24" si="4">+Z4-SUM(K4:M4)</f>
+        <f t="shared" ref="N4:N24" si="4">+AF4-SUM(K4:M4)</f>
         <v>7963</v>
       </c>
       <c r="O4" s="4">
@@ -4670,69 +4687,71 @@
         <v>7952</v>
       </c>
       <c r="R4" s="4">
-        <f>+N4*1.05</f>
-        <v>8361.15</v>
-      </c>
-      <c r="U4" s="4">
+        <v>9200</v>
+      </c>
+      <c r="AA4" s="4">
         <v>8150</v>
       </c>
-      <c r="V4" s="4">
+      <c r="AB4" s="4">
         <v>11155</v>
       </c>
-      <c r="W4" s="4">
+      <c r="AC4" s="4">
         <v>15149</v>
       </c>
-      <c r="X4" s="4">
+      <c r="AD4" s="4">
         <v>19772</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AE4" s="4">
         <v>28845</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AF4" s="4">
         <v>29243</v>
       </c>
-      <c r="AA4" s="4">
-        <f t="shared" ref="AA4:AA11" si="5">SUM(O4:R4)</f>
-        <v>30671.15</v>
-      </c>
-      <c r="AB4" s="4">
-        <f>+AA4*1.05</f>
-        <v>32204.707500000004</v>
-      </c>
-      <c r="AC4" s="4">
-        <f t="shared" ref="AC4:AJ4" si="6">+AB4*1.05</f>
-        <v>33814.942875000008</v>
-      </c>
-      <c r="AD4" s="4">
-        <f t="shared" si="6"/>
-        <v>35505.690018750007</v>
-      </c>
-      <c r="AE4" s="4">
-        <f t="shared" si="6"/>
-        <v>37280.974519687508</v>
-      </c>
-      <c r="AF4" s="4">
-        <f t="shared" si="6"/>
-        <v>39145.023245671888</v>
-      </c>
       <c r="AG4" s="4">
-        <f t="shared" si="6"/>
-        <v>41102.274407955483</v>
+        <v>31510</v>
       </c>
       <c r="AH4" s="4">
-        <f t="shared" si="6"/>
-        <v>43157.388128353261</v>
+        <f>+AG4*1.05</f>
+        <v>33085.5</v>
       </c>
       <c r="AI4" s="4">
-        <f t="shared" si="6"/>
-        <v>45315.257534770928</v>
+        <f t="shared" ref="AI4:AQ4" si="5">+AH4*1.05</f>
+        <v>34739.775000000001</v>
       </c>
       <c r="AJ4" s="4">
-        <f t="shared" si="6"/>
-        <v>47581.020411509475</v>
-      </c>
-    </row>
-    <row r="5" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>36476.763750000006</v>
+      </c>
+      <c r="AK4" s="4">
+        <f t="shared" si="5"/>
+        <v>38300.601937500011</v>
+      </c>
+      <c r="AL4" s="4">
+        <f t="shared" si="5"/>
+        <v>40215.632034375012</v>
+      </c>
+      <c r="AM4" s="4">
+        <f t="shared" si="5"/>
+        <v>42226.413636093763</v>
+      </c>
+      <c r="AN4" s="4">
+        <f t="shared" si="5"/>
+        <v>44337.734317898452</v>
+      </c>
+      <c r="AO4" s="4">
+        <f t="shared" si="5"/>
+        <v>46554.621033793373</v>
+      </c>
+      <c r="AP4" s="4">
+        <f t="shared" si="5"/>
+        <v>48882.352085483042</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f t="shared" si="5"/>
+        <v>51326.469689757199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
@@ -4785,69 +4804,71 @@
         <v>7669</v>
       </c>
       <c r="R5" s="4">
-        <f>+N5*1.01</f>
-        <v>8559.75</v>
-      </c>
-      <c r="U5" s="4">
+        <v>8297</v>
+      </c>
+      <c r="AA5" s="4">
         <v>17616</v>
       </c>
-      <c r="V5" s="4">
+      <c r="AB5" s="4">
         <v>20010</v>
       </c>
-      <c r="W5" s="4">
+      <c r="AC5" s="4">
         <v>21547</v>
       </c>
-      <c r="X5" s="4">
+      <c r="AD5" s="4">
         <v>23090</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="AE5" s="4">
         <v>31701</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AF5" s="4">
         <v>32780</v>
       </c>
-      <c r="AA5" s="4">
-        <f t="shared" si="5"/>
-        <v>31574.75</v>
-      </c>
-      <c r="AB5" s="4">
-        <f>+AA5*1.01</f>
-        <v>31890.497500000001</v>
-      </c>
-      <c r="AC5" s="4">
-        <f t="shared" ref="AC5:AJ5" si="7">+AB5*1.01</f>
-        <v>32209.402475000003</v>
-      </c>
-      <c r="AD5" s="4">
-        <f t="shared" si="7"/>
-        <v>32531.496499750003</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" si="7"/>
-        <v>32856.811464747501</v>
-      </c>
-      <c r="AF5" s="4">
-        <f t="shared" si="7"/>
-        <v>33185.379579394976</v>
-      </c>
       <c r="AG5" s="4">
-        <f t="shared" si="7"/>
-        <v>33517.233375188924</v>
+        <v>31312</v>
       </c>
       <c r="AH5" s="4">
-        <f t="shared" si="7"/>
-        <v>33852.405708940816</v>
+        <f>+AG5*1.01</f>
+        <v>31625.119999999999</v>
       </c>
       <c r="AI5" s="4">
-        <f t="shared" si="7"/>
-        <v>34190.929766030225</v>
+        <f t="shared" ref="AI5:AQ5" si="6">+AH5*1.01</f>
+        <v>31941.371199999998</v>
       </c>
       <c r="AJ5" s="4">
-        <f t="shared" si="7"/>
-        <v>34532.839063690531</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>32260.784911999999</v>
+      </c>
+      <c r="AK5" s="4">
+        <f t="shared" si="6"/>
+        <v>32583.392761119998</v>
+      </c>
+      <c r="AL5" s="4">
+        <f t="shared" si="6"/>
+        <v>32909.2266887312</v>
+      </c>
+      <c r="AM5" s="4">
+        <f t="shared" si="6"/>
+        <v>33238.31895561851</v>
+      </c>
+      <c r="AN5" s="4">
+        <f t="shared" si="6"/>
+        <v>33570.702145174699</v>
+      </c>
+      <c r="AO5" s="4">
+        <f t="shared" si="6"/>
+        <v>33906.409166626443</v>
+      </c>
+      <c r="AP5" s="4">
+        <f t="shared" si="6"/>
+        <v>34245.47325829271</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f t="shared" si="6"/>
+        <v>34587.927990875636</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>208</v>
       </c>
@@ -4856,131 +4877,135 @@
         <v>33763</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" ref="D6:R6" si="8">+SUM(D3:D5)</f>
+        <f t="shared" ref="D6:R6" si="7">+SUM(D3:D5)</f>
         <v>29867</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>37095</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>46199</v>
       </c>
       <c r="G6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44684</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>50444</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>53130</v>
       </c>
       <c r="J6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>61239</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54661</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>56288</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54482</v>
       </c>
       <c r="N6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59042</v>
       </c>
       <c r="O6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>54548</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>58143</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>59647</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="8"/>
-        <v>61655.100000000006</v>
-      </c>
-      <c r="U6" s="9">
-        <f t="shared" ref="U6" si="9">+SUM(U3:U5)</f>
+        <f t="shared" si="7"/>
+        <v>65517</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" ref="AA6" si="8">+SUM(AA3:AA5)</f>
         <v>95577</v>
       </c>
-      <c r="V6" s="9">
-        <f t="shared" ref="V6" si="10">+SUM(V3:V5)</f>
+      <c r="AB6" s="9">
+        <f t="shared" ref="AB6" si="9">+SUM(AB3:AB5)</f>
         <v>113461</v>
       </c>
-      <c r="W6" s="9">
-        <f t="shared" ref="W6" si="11">+SUM(W3:W5)</f>
+      <c r="AC6" s="9">
+        <f t="shared" ref="AC6" si="10">+SUM(AC3:AC5)</f>
         <v>134811</v>
       </c>
-      <c r="X6" s="9">
-        <f t="shared" ref="X6" si="12">+SUM(X3:X5)</f>
+      <c r="AD6" s="9">
+        <f t="shared" ref="AD6" si="11">+SUM(AD3:AD5)</f>
         <v>146924</v>
       </c>
-      <c r="Y6" s="9">
-        <f t="shared" ref="Y6" si="13">+SUM(Y3:Y5)</f>
+      <c r="AE6" s="9">
+        <f t="shared" ref="AE6" si="12">+SUM(AE3:AE5)</f>
         <v>209497</v>
       </c>
-      <c r="Z6" s="9">
-        <f t="shared" ref="Z6" si="14">+SUM(Z3:Z5)</f>
+      <c r="AF6" s="9">
+        <f t="shared" ref="AF6" si="13">+SUM(AF3:AF5)</f>
         <v>224473</v>
       </c>
-      <c r="AA6" s="9">
-        <f t="shared" ref="AA6" si="15">+SUM(AA3:AA5)</f>
-        <v>233993.1</v>
-      </c>
-      <c r="AB6" s="9">
-        <f t="shared" ref="AB6" si="16">+SUM(AB3:AB5)</f>
-        <v>244429.76500000001</v>
-      </c>
-      <c r="AC6" s="9">
-        <f t="shared" ref="AC6" si="17">+SUM(AC3:AC5)</f>
-        <v>255375.63335000005</v>
-      </c>
-      <c r="AD6" s="9">
-        <f t="shared" ref="AD6" si="18">+SUM(AD3:AD5)</f>
-        <v>266856.03891850001</v>
-      </c>
-      <c r="AE6" s="9">
-        <f t="shared" ref="AE6" si="19">+SUM(AE3:AE5)</f>
-        <v>278897.58100443508</v>
-      </c>
-      <c r="AF6" s="9">
-        <f t="shared" ref="AF6" si="20">+SUM(AF3:AF5)</f>
-        <v>291528.18759606691</v>
-      </c>
       <c r="AG6" s="9">
-        <f t="shared" ref="AG6" si="21">+SUM(AG3:AG5)</f>
-        <v>304777.18179269449</v>
+        <f t="shared" ref="AG6" si="14">+SUM(AG3:AG5)</f>
+        <v>237855</v>
       </c>
       <c r="AH6" s="9">
-        <f t="shared" ref="AH6" si="22">+SUM(AH3:AH5)</f>
-        <v>318675.35154732165</v>
+        <f t="shared" ref="AH6" si="15">+SUM(AH3:AH5)</f>
+        <v>248495.27</v>
       </c>
       <c r="AI6" s="9">
-        <f t="shared" ref="AI6" si="23">+SUM(AI3:AI5)</f>
-        <v>333255.02289633011</v>
+        <f t="shared" ref="AI6" si="16">+SUM(AI3:AI5)</f>
+        <v>259655.0287</v>
       </c>
       <c r="AJ6" s="9">
-        <f t="shared" ref="AJ6" si="24">+SUM(AJ3:AJ5)</f>
-        <v>348550.13685050543</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AJ6" si="17">+SUM(AJ3:AJ5)</f>
+        <v>271360.12528700003</v>
+      </c>
+      <c r="AK6" s="9">
+        <f t="shared" ref="AK6" si="18">+SUM(AK3:AK5)</f>
+        <v>283637.70015487005</v>
+      </c>
+      <c r="AL6" s="9">
+        <f t="shared" ref="AL6" si="19">+SUM(AL3:AL5)</f>
+        <v>296516.24945216882</v>
+      </c>
+      <c r="AM6" s="9">
+        <f t="shared" ref="AM6" si="20">+SUM(AM3:AM5)</f>
+        <v>310025.69285722799</v>
+      </c>
+      <c r="AN6" s="9">
+        <f t="shared" ref="AN6" si="21">+SUM(AN3:AN5)</f>
+        <v>324197.44474186469</v>
+      </c>
+      <c r="AO6" s="9">
+        <f t="shared" ref="AO6" si="22">+SUM(AO3:AO5)</f>
+        <v>339064.48889315088</v>
+      </c>
+      <c r="AP6" s="9">
+        <f t="shared" ref="AP6:AQ6" si="23">+SUM(AP3:AP5)</f>
+        <v>354661.45697114337</v>
+      </c>
+      <c r="AQ6" s="9">
+        <f t="shared" si="23"/>
+        <v>371024.71088936884</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
@@ -5033,69 +5058,71 @@
         <v>8339</v>
       </c>
       <c r="R7" s="4">
-        <f>+N7*1.1</f>
-        <v>9675.6</v>
-      </c>
-      <c r="U7" s="4">
+        <v>10794</v>
+      </c>
+      <c r="AA7" s="4">
         <v>4056</v>
       </c>
-      <c r="V7" s="4">
+      <c r="AB7" s="4">
         <v>5838</v>
       </c>
-      <c r="W7" s="4">
+      <c r="AC7" s="4">
         <v>17014</v>
       </c>
-      <c r="X7" s="4">
+      <c r="AD7" s="4">
         <v>21711</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="AE7" s="4">
         <v>28032</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AF7" s="4">
         <v>29055</v>
       </c>
-      <c r="AA7" s="4">
-        <f t="shared" si="5"/>
-        <v>33569.599999999999</v>
-      </c>
-      <c r="AB7" s="4">
-        <f>+AA7*1.01</f>
-        <v>33905.296000000002</v>
-      </c>
-      <c r="AC7" s="4">
-        <f t="shared" ref="AC7:AJ7" si="25">+AB7*1.01</f>
-        <v>34244.348960000003</v>
-      </c>
-      <c r="AD7" s="4">
-        <f t="shared" si="25"/>
-        <v>34586.792449600005</v>
-      </c>
-      <c r="AE7" s="4">
-        <f t="shared" si="25"/>
-        <v>34932.660374096005</v>
-      </c>
-      <c r="AF7" s="4">
-        <f t="shared" si="25"/>
-        <v>35281.986977836968</v>
-      </c>
       <c r="AG7" s="4">
-        <f t="shared" si="25"/>
-        <v>35634.806847615335</v>
+        <v>34688</v>
       </c>
       <c r="AH7" s="4">
-        <f t="shared" si="25"/>
-        <v>35991.154916091487</v>
+        <f>+AG7*1.01</f>
+        <v>35034.879999999997</v>
       </c>
       <c r="AI7" s="4">
-        <f t="shared" si="25"/>
-        <v>36351.066465252399</v>
+        <f t="shared" ref="AI7:AQ7" si="24">+AH7*1.01</f>
+        <v>35385.228799999997</v>
       </c>
       <c r="AJ7" s="4">
-        <f t="shared" si="25"/>
-        <v>36714.577129904923</v>
-      </c>
-    </row>
-    <row r="8" spans="2:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="24"/>
+        <v>35739.081087999999</v>
+      </c>
+      <c r="AK7" s="4">
+        <f t="shared" si="24"/>
+        <v>36096.471898880001</v>
+      </c>
+      <c r="AL7" s="4">
+        <f t="shared" si="24"/>
+        <v>36457.4366178688</v>
+      </c>
+      <c r="AM7" s="4">
+        <f t="shared" si="24"/>
+        <v>36822.010984047491</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="24"/>
+        <v>37190.231093887967</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="24"/>
+        <v>37562.133404826847</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="24"/>
+        <v>37937.754738875119</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f t="shared" si="24"/>
+        <v>38317.13228626387</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>207</v>
       </c>
@@ -5104,131 +5131,135 @@
         <v>38198</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" ref="D8:R8" si="26">+SUM(D6:D7)</f>
+        <f t="shared" ref="D8:R8" si="25">+SUM(D6:D7)</f>
         <v>34991</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>42573</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>52873</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>51178</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>57067</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>59884</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>69400</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>61472</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>62841</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>61377</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>67838</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>61961</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>66285</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>67986</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="26"/>
-        <v>71330.700000000012</v>
-      </c>
-      <c r="U8" s="9">
-        <f t="shared" ref="U8" si="27">+SUM(U6:U7)</f>
+        <f t="shared" si="25"/>
+        <v>76311</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" ref="AA8" si="26">+SUM(AA6:AA7)</f>
         <v>99633</v>
       </c>
-      <c r="V8" s="9">
-        <f t="shared" ref="V8" si="28">+SUM(V6:V7)</f>
+      <c r="AB8" s="9">
+        <f t="shared" ref="AB8" si="27">+SUM(AB6:AB7)</f>
         <v>119299</v>
       </c>
-      <c r="W8" s="9">
-        <f t="shared" ref="W8" si="29">+SUM(W6:W7)</f>
+      <c r="AC8" s="9">
+        <f t="shared" ref="AC8" si="28">+SUM(AC6:AC7)</f>
         <v>151825</v>
       </c>
-      <c r="X8" s="9">
-        <f t="shared" ref="X8" si="30">+SUM(X6:X7)</f>
+      <c r="AD8" s="9">
+        <f t="shared" ref="AD8" si="29">+SUM(AD6:AD7)</f>
         <v>168635</v>
       </c>
-      <c r="Y8" s="9">
-        <f t="shared" ref="Y8" si="31">+SUM(Y6:Y7)</f>
+      <c r="AE8" s="9">
+        <f t="shared" ref="AE8" si="30">+SUM(AE6:AE7)</f>
         <v>237529</v>
       </c>
-      <c r="Z8" s="9">
-        <f t="shared" ref="Z8" si="32">+SUM(Z6:Z7)</f>
+      <c r="AF8" s="9">
+        <f t="shared" ref="AF8" si="31">+SUM(AF6:AF7)</f>
         <v>253528</v>
       </c>
-      <c r="AA8" s="9">
-        <f t="shared" ref="AA8" si="33">+SUM(AA6:AA7)</f>
-        <v>267562.7</v>
-      </c>
-      <c r="AB8" s="9">
-        <f t="shared" ref="AB8" si="34">+SUM(AB6:AB7)</f>
-        <v>278335.06099999999</v>
-      </c>
-      <c r="AC8" s="9">
-        <f t="shared" ref="AC8" si="35">+SUM(AC6:AC7)</f>
-        <v>289619.98231000005</v>
-      </c>
-      <c r="AD8" s="9">
-        <f t="shared" ref="AD8" si="36">+SUM(AD6:AD7)</f>
-        <v>301442.83136810001</v>
-      </c>
-      <c r="AE8" s="9">
-        <f t="shared" ref="AE8" si="37">+SUM(AE6:AE7)</f>
-        <v>313830.24137853109</v>
-      </c>
-      <c r="AF8" s="9">
-        <f t="shared" ref="AF8" si="38">+SUM(AF6:AF7)</f>
-        <v>326810.1745739039</v>
-      </c>
       <c r="AG8" s="9">
-        <f t="shared" ref="AG8" si="39">+SUM(AG6:AG7)</f>
-        <v>340411.98864030984</v>
+        <f t="shared" ref="AG8" si="32">+SUM(AG6:AG7)</f>
+        <v>272543</v>
       </c>
       <c r="AH8" s="9">
-        <f t="shared" ref="AH8" si="40">+SUM(AH6:AH7)</f>
-        <v>354666.50646341313</v>
+        <f t="shared" ref="AH8" si="33">+SUM(AH6:AH7)</f>
+        <v>283530.14999999997</v>
       </c>
       <c r="AI8" s="9">
-        <f t="shared" ref="AI8" si="41">+SUM(AI6:AI7)</f>
-        <v>369606.08936158253</v>
+        <f t="shared" ref="AI8" si="34">+SUM(AI6:AI7)</f>
+        <v>295040.25750000001</v>
       </c>
       <c r="AJ8" s="9">
-        <f t="shared" ref="AJ8" si="42">+SUM(AJ6:AJ7)</f>
-        <v>385264.71398041036</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AJ8" si="35">+SUM(AJ6:AJ7)</f>
+        <v>307099.20637500001</v>
+      </c>
+      <c r="AK8" s="9">
+        <f t="shared" ref="AK8" si="36">+SUM(AK6:AK7)</f>
+        <v>319734.17205375002</v>
+      </c>
+      <c r="AL8" s="9">
+        <f t="shared" ref="AL8" si="37">+SUM(AL6:AL7)</f>
+        <v>332973.6860700376</v>
+      </c>
+      <c r="AM8" s="9">
+        <f t="shared" ref="AM8" si="38">+SUM(AM6:AM7)</f>
+        <v>346847.70384127548</v>
+      </c>
+      <c r="AN8" s="9">
+        <f t="shared" ref="AN8" si="39">+SUM(AN6:AN7)</f>
+        <v>361387.67583575263</v>
+      </c>
+      <c r="AO8" s="9">
+        <f t="shared" ref="AO8" si="40">+SUM(AO6:AO7)</f>
+        <v>376626.62229797774</v>
+      </c>
+      <c r="AP8" s="9">
+        <f t="shared" ref="AP8:AQ8" si="41">+SUM(AP6:AP7)</f>
+        <v>392599.21171001851</v>
+      </c>
+      <c r="AQ8" s="9">
+        <f t="shared" si="41"/>
+        <v>409341.8431756327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>35</v>
       </c>
@@ -5281,69 +5312,71 @@
         <v>8411</v>
       </c>
       <c r="R9" s="4">
-        <f>+N9*(1+AVERAGE(N32:Q32))</f>
-        <v>9335.7625895430701</v>
-      </c>
-      <c r="U9" s="4">
+        <v>9192</v>
+      </c>
+      <c r="AA9" s="4">
         <v>10914</v>
       </c>
-      <c r="V9" s="4">
+      <c r="AB9" s="4">
         <v>14063</v>
       </c>
-      <c r="W9" s="4">
+      <c r="AC9" s="4">
         <v>8918</v>
       </c>
-      <c r="X9" s="4">
+      <c r="AD9" s="4">
         <v>13059</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="AE9" s="4">
         <v>19206</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AF9" s="4">
         <v>26280</v>
       </c>
-      <c r="AA9" s="4">
-        <f t="shared" si="5"/>
-        <v>33231.762589543068</v>
-      </c>
-      <c r="AB9" s="4">
-        <f>+AA9*1.28</f>
-        <v>42536.656114615129</v>
-      </c>
-      <c r="AC9" s="4">
-        <f>+AB9*1.25</f>
-        <v>53170.820143268909</v>
-      </c>
-      <c r="AD9" s="4">
-        <f>+AC9*1.2</f>
-        <v>63804.98417192269</v>
-      </c>
-      <c r="AE9" s="4">
-        <f>+AD9*1.15</f>
-        <v>73375.731797711094</v>
-      </c>
-      <c r="AF9" s="4">
-        <f t="shared" ref="AF9:AJ9" si="43">+AE9*1.15</f>
-        <v>84382.091567367752</v>
-      </c>
       <c r="AG9" s="4">
-        <f>+AF9*1.15</f>
-        <v>97039.405302472907</v>
+        <v>33088</v>
       </c>
       <c r="AH9" s="4">
-        <f>+AG9*1.15</f>
-        <v>111595.31609784384</v>
+        <f>+AG9*1.28</f>
+        <v>42352.639999999999</v>
       </c>
       <c r="AI9" s="4">
-        <f t="shared" si="43"/>
-        <v>128334.6135125204</v>
+        <f>+AH9*1.25</f>
+        <v>52940.800000000003</v>
       </c>
       <c r="AJ9" s="4">
-        <f t="shared" si="43"/>
-        <v>147584.80553939845</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AI9*1.2</f>
+        <v>63528.959999999999</v>
+      </c>
+      <c r="AK9" s="4">
+        <f>+AJ9*1.15</f>
+        <v>73058.303999999989</v>
+      </c>
+      <c r="AL9" s="4">
+        <f t="shared" ref="AL9:AQ9" si="42">+AK9*1.15</f>
+        <v>84017.049599999984</v>
+      </c>
+      <c r="AM9" s="4">
+        <f>+AL9*1.15</f>
+        <v>96619.607039999973</v>
+      </c>
+      <c r="AN9" s="4">
+        <f>+AM9*1.15</f>
+        <v>111112.54809599995</v>
+      </c>
+      <c r="AO9" s="4">
+        <f t="shared" si="42"/>
+        <v>127779.43031039994</v>
+      </c>
+      <c r="AP9" s="4">
+        <f t="shared" si="42"/>
+        <v>146946.34485695991</v>
+      </c>
+      <c r="AQ9" s="4">
+        <f t="shared" si="42"/>
+        <v>168988.29658550388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>36</v>
       </c>
@@ -5396,69 +5429,71 @@
         <v>297</v>
       </c>
       <c r="R10" s="4">
-        <f>+N10*1.1</f>
-        <v>248.60000000000002</v>
-      </c>
-      <c r="U10" s="4">
+        <v>657</v>
+      </c>
+      <c r="AA10" s="4">
         <v>477</v>
       </c>
-      <c r="V10" s="4">
+      <c r="AB10" s="4">
         <v>595</v>
       </c>
-      <c r="W10" s="4">
+      <c r="AC10" s="4">
         <v>659</v>
       </c>
-      <c r="X10" s="4">
+      <c r="AD10" s="4">
         <v>657</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="AE10" s="4">
         <v>753</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AF10" s="4">
         <v>1068</v>
       </c>
-      <c r="AA10" s="4">
-        <f t="shared" si="5"/>
-        <v>1118.5999999999999</v>
-      </c>
-      <c r="AB10" s="4">
-        <f>+AA10*1.01</f>
-        <v>1129.7859999999998</v>
-      </c>
-      <c r="AC10" s="4">
-        <f t="shared" ref="AC10:AJ10" si="44">+AB10*1.01</f>
-        <v>1141.0838599999997</v>
-      </c>
-      <c r="AD10" s="4">
-        <f t="shared" si="44"/>
-        <v>1152.4946985999998</v>
-      </c>
-      <c r="AE10" s="4">
-        <f t="shared" si="44"/>
-        <v>1164.0196455859998</v>
-      </c>
-      <c r="AF10" s="4">
-        <f t="shared" si="44"/>
-        <v>1175.6598420418597</v>
-      </c>
       <c r="AG10" s="4">
-        <f t="shared" si="44"/>
-        <v>1187.4164404622784</v>
+        <v>1527</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="44"/>
-        <v>1199.2906048669013</v>
+        <f>+AG10*1.01</f>
+        <v>1542.27</v>
       </c>
       <c r="AI10" s="4">
-        <f t="shared" si="44"/>
-        <v>1211.2835109155703</v>
+        <f t="shared" ref="AI10:AQ10" si="43">+AH10*1.01</f>
+        <v>1557.6927000000001</v>
       </c>
       <c r="AJ10" s="4">
-        <f t="shared" si="44"/>
-        <v>1223.396346024726</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>1573.2696270000001</v>
+      </c>
+      <c r="AK10" s="4">
+        <f t="shared" si="43"/>
+        <v>1589.00232327</v>
+      </c>
+      <c r="AL10" s="4">
+        <f t="shared" si="43"/>
+        <v>1604.8923465027001</v>
+      </c>
+      <c r="AM10" s="4">
+        <f t="shared" si="43"/>
+        <v>1620.9412699677271</v>
+      </c>
+      <c r="AN10" s="4">
+        <f t="shared" si="43"/>
+        <v>1637.1506826674045</v>
+      </c>
+      <c r="AO10" s="4">
+        <f t="shared" si="43"/>
+        <v>1653.5221894940785</v>
+      </c>
+      <c r="AP10" s="4">
+        <f t="shared" si="43"/>
+        <v>1670.0574113890193</v>
+      </c>
+      <c r="AQ10" s="4">
+        <f t="shared" si="43"/>
+        <v>1686.7579855029096</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
@@ -5511,33 +5546,31 @@
         <v>-1</v>
       </c>
       <c r="R11" s="4">
-        <f>+N11</f>
-        <v>669</v>
-      </c>
-      <c r="U11" s="4">
+        <v>150</v>
+      </c>
+      <c r="AA11" s="4">
         <v>-169</v>
       </c>
-      <c r="V11" s="4">
+      <c r="AB11" s="4">
         <v>-138</v>
       </c>
-      <c r="W11" s="4">
+      <c r="AC11" s="4">
         <v>455</v>
       </c>
-      <c r="X11" s="4">
+      <c r="AD11" s="4">
         <v>176</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="AE11" s="4">
         <v>149</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AF11" s="4">
         <v>1960</v>
       </c>
-      <c r="AA11" s="4">
-        <f t="shared" si="5"/>
-        <v>755</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AG11" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -5546,131 +5579,141 @@
         <v>41159</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" ref="D12:O12" si="45">+SUM(D8:D11)</f>
+        <f t="shared" ref="D12:O12" si="44">+SUM(D8:D11)</f>
         <v>38297</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>46173</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>56898</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>55314</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>61880</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>65118</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>75325</v>
       </c>
       <c r="K12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>68011</v>
       </c>
       <c r="L12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>69685</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>69092</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>76048</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>69787</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" ref="P12" si="46">+SUM(P8:P11)</f>
+        <f t="shared" ref="P12" si="45">+SUM(P8:P11)</f>
         <v>74604</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" ref="Q12" si="47">+SUM(Q8:Q11)</f>
+        <f t="shared" ref="Q12" si="46">+SUM(Q8:Q11)</f>
         <v>76693</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" ref="R12" si="48">+SUM(R8:R11)</f>
-        <v>81584.062589543086</v>
-      </c>
-      <c r="U12" s="9">
-        <f t="shared" ref="U12" si="49">+SUM(U8:U11)</f>
+        <f t="shared" ref="R12" si="47">+SUM(R8:R11)</f>
+        <v>86310</v>
+      </c>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="AA12" s="9">
+        <f t="shared" ref="AA12" si="48">+SUM(AA8:AA11)</f>
         <v>110855</v>
       </c>
-      <c r="V12" s="9">
-        <f t="shared" ref="V12" si="50">+SUM(V8:V11)</f>
+      <c r="AB12" s="9">
+        <f t="shared" ref="AB12" si="49">+SUM(AB8:AB11)</f>
         <v>133819</v>
       </c>
-      <c r="W12" s="9">
-        <f t="shared" ref="W12" si="51">+SUM(W8:W11)</f>
+      <c r="AC12" s="9">
+        <f t="shared" ref="AC12" si="50">+SUM(AC8:AC11)</f>
         <v>161857</v>
       </c>
-      <c r="X12" s="9">
-        <f t="shared" ref="X12" si="52">+SUM(X8:X11)</f>
+      <c r="AD12" s="9">
+        <f t="shared" ref="AD12" si="51">+SUM(AD8:AD11)</f>
         <v>182527</v>
       </c>
-      <c r="Y12" s="9">
-        <f t="shared" ref="Y12" si="53">+SUM(Y8:Y11)</f>
+      <c r="AE12" s="9">
+        <f t="shared" ref="AE12" si="52">+SUM(AE8:AE11)</f>
         <v>257637</v>
       </c>
-      <c r="Z12" s="9">
-        <f t="shared" ref="Z12:AA12" si="54">+SUM(Z8:Z11)</f>
+      <c r="AF12" s="9">
+        <f t="shared" ref="AF12:AG12" si="53">+SUM(AF8:AF11)</f>
         <v>282836</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AG12" s="9">
+        <f t="shared" si="53"/>
+        <v>307394</v>
+      </c>
+      <c r="AH12" s="9">
+        <f>+SUM(AH8:AH11)</f>
+        <v>327425.06</v>
+      </c>
+      <c r="AI12" s="9">
+        <f>+SUM(AI8:AI11)</f>
+        <v>349538.75020000001</v>
+      </c>
+      <c r="AJ12" s="9">
+        <f t="shared" ref="AJ12:AP12" si="54">+SUM(AJ8:AJ11)</f>
+        <v>372201.436002</v>
+      </c>
+      <c r="AK12" s="9">
         <f t="shared" si="54"/>
-        <v>302668.06258954306</v>
-      </c>
-      <c r="AB12" s="9">
-        <f>+SUM(AB8:AB11)</f>
-        <v>322001.50311461516</v>
-      </c>
-      <c r="AC12" s="9">
-        <f>+SUM(AC8:AC11)</f>
-        <v>343931.88631326897</v>
-      </c>
-      <c r="AD12" s="9">
-        <f t="shared" ref="AC12:AJ12" si="55">+SUM(AD8:AD11)</f>
-        <v>366400.31023862271</v>
-      </c>
-      <c r="AE12" s="9">
-        <f t="shared" si="55"/>
-        <v>388369.99282182823</v>
-      </c>
-      <c r="AF12" s="9">
-        <f t="shared" si="55"/>
-        <v>412367.92598331353</v>
-      </c>
-      <c r="AG12" s="9">
-        <f t="shared" si="55"/>
-        <v>438638.81038324506</v>
-      </c>
-      <c r="AH12" s="9">
-        <f t="shared" si="55"/>
-        <v>467461.11316612386</v>
-      </c>
-      <c r="AI12" s="9">
-        <f t="shared" si="55"/>
-        <v>499151.98638501851</v>
-      </c>
-      <c r="AJ12" s="9">
-        <f t="shared" si="55"/>
-        <v>534072.91586583352</v>
-      </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
+        <v>394381.47837702004</v>
+      </c>
+      <c r="AL12" s="9">
+        <f t="shared" si="54"/>
+        <v>418595.62801654026</v>
+      </c>
+      <c r="AM12" s="9">
+        <f t="shared" si="54"/>
+        <v>445088.25215124316</v>
+      </c>
+      <c r="AN12" s="9">
+        <f t="shared" si="54"/>
+        <v>474137.37461442</v>
+      </c>
+      <c r="AO12" s="9">
+        <f t="shared" si="54"/>
+        <v>506059.57479787176</v>
+      </c>
+      <c r="AP12" s="9">
+        <f t="shared" si="54"/>
+        <v>541215.61397836753</v>
+      </c>
+      <c r="AQ12" s="9">
+        <f t="shared" ref="AQ12" si="55">+SUM(AQ8:AQ11)</f>
+        <v>580016.89774663956</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
@@ -5723,63 +5766,72 @@
         <v>33229</v>
       </c>
       <c r="R13" s="4">
-        <f>+R12*(Q13/Q12)</f>
-        <v>35348.164966658333</v>
-      </c>
-      <c r="W13" s="3">
+        <v>37575</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="AC13" s="3">
         <v>71896</v>
       </c>
-      <c r="X13" s="3">
+      <c r="AD13" s="3">
         <v>84732</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="AE13" s="3">
         <v>110939</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="AF13" s="4">
         <v>126203</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AG13" s="3">
         <f>SUM(O13:R13)</f>
-        <v>131105.16496665834</v>
-      </c>
-      <c r="AB13" s="3">
-        <f>+AB$12*(AA13/AA$12)</f>
-        <v>139479.73177006125</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" ref="AC13:AJ13" si="56">+AC$12*(AB13/AB$12)</f>
-        <v>148979.2028488472</v>
-      </c>
-      <c r="AD13" s="3">
-        <f t="shared" si="56"/>
-        <v>158711.73425659304</v>
-      </c>
-      <c r="AE13" s="3">
-        <f t="shared" si="56"/>
-        <v>168228.22844726816</v>
-      </c>
-      <c r="AF13" s="3">
-        <f t="shared" si="56"/>
-        <v>178623.28948898136</v>
-      </c>
-      <c r="AG13" s="3">
-        <f t="shared" si="56"/>
-        <v>190002.91310570858</v>
+        <v>133332</v>
       </c>
       <c r="AH13" s="3">
-        <f t="shared" si="56"/>
-        <v>202487.72147543993</v>
+        <f>+AH$12*(AG13/AG$12)</f>
+        <v>142020.46266329204</v>
       </c>
       <c r="AI13" s="3">
-        <f t="shared" si="56"/>
-        <v>216215.09371865916</v>
+        <f t="shared" ref="AI13:AQ13" si="56">+AI$12*(AH13/AH$12)</f>
+        <v>151612.26517650438</v>
       </c>
       <c r="AJ13" s="3">
         <f t="shared" si="56"/>
-        <v>231341.61278776915</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
+        <v>161442.19426865407</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="56"/>
+        <v>171062.77700594292</v>
+      </c>
+      <c r="AL13" s="3">
+        <f t="shared" si="56"/>
+        <v>181565.65279316227</v>
+      </c>
+      <c r="AM13" s="3">
+        <f t="shared" si="56"/>
+        <v>193056.81579936345</v>
+      </c>
+      <c r="AN13" s="3">
+        <f t="shared" si="56"/>
+        <v>205656.85872882951</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="56"/>
+        <v>219503.09774084663</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="56"/>
+        <v>234752.01286610562</v>
+      </c>
+      <c r="AQ13" s="3">
+        <f t="shared" si="56"/>
+        <v>251582.05108217764</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -5832,64 +5884,73 @@
         <v>11258</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" ref="R14:R16" si="57">+R$12*(N14/N$12)</f>
-        <v>11014.406304003247</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="W14" s="3">
+        <v>12113</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="6"/>
+      <c r="AC14" s="3">
         <v>26018</v>
       </c>
-      <c r="X14" s="3">
+      <c r="AD14" s="3">
         <v>27573</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AE14" s="3">
         <v>31562</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AF14" s="4">
         <v>39500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AG14" s="3">
         <f>SUM(O14:R14)</f>
-        <v>44328.406304003249</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" ref="AB14:AJ16" si="58">+AB$12*(AA14/AA$12)</f>
-        <v>47159.959126317073</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="58"/>
-        <v>50371.857099677938</v>
-      </c>
-      <c r="AD14" s="3">
-        <f t="shared" si="58"/>
-        <v>53662.555881215252</v>
-      </c>
-      <c r="AE14" s="3">
-        <f t="shared" si="58"/>
-        <v>56880.20959593515</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" si="58"/>
-        <v>60394.918490349519</v>
-      </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="58"/>
-        <v>64242.521133595503</v>
+        <v>45427</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="58"/>
-        <v>68463.801494150452</v>
+        <f t="shared" ref="AH14:AQ16" si="57">+AH$12*(AG14/AG$12)</f>
+        <v>48387.210552645789</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="58"/>
-        <v>73105.209286425234</v>
+        <f t="shared" si="57"/>
+        <v>51655.194328241283</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="58"/>
-        <v>78219.68729674074</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>55004.309235908491</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="57"/>
+        <v>58282.09860385333</v>
+      </c>
+      <c r="AL14" s="3">
+        <f t="shared" si="57"/>
+        <v>61860.490425666649</v>
+      </c>
+      <c r="AM14" s="3">
+        <f t="shared" si="57"/>
+        <v>65775.597540858056</v>
+      </c>
+      <c r="AN14" s="3">
+        <f t="shared" si="57"/>
+        <v>70068.506596125022</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="57"/>
+        <v>74786.002018070998</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="57"/>
+        <v>79981.397477489139</v>
+      </c>
+      <c r="AQ14" s="3">
+        <f t="shared" si="57"/>
+        <v>85715.490913734786</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
@@ -5942,63 +6003,72 @@
         <v>6884</v>
       </c>
       <c r="R15" s="4">
+        <v>7719</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="AC15" s="3">
+        <v>18464</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>17946</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>22912</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>26567</v>
+      </c>
+      <c r="AG15" s="3">
+        <f>SUM(O15:R15)</f>
+        <v>27917</v>
+      </c>
+      <c r="AH15" s="3">
         <f t="shared" si="57"/>
-        <v>7705.9005046903012</v>
-      </c>
-      <c r="W15" s="3">
-        <v>18464</v>
-      </c>
-      <c r="X15" s="3">
-        <v>17946</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>22912</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>26567</v>
-      </c>
-      <c r="AA15" s="3">
-        <f>SUM(O15:R15)</f>
-        <v>27903.9005046903</v>
-      </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="58"/>
-        <v>29686.309907946576</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="58"/>
-        <v>31708.13945140535</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="58"/>
-        <v>33779.572625907502</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" si="58"/>
-        <v>35805.025300617868</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" si="58"/>
-        <v>38017.468640450541</v>
-      </c>
-      <c r="AG15" s="3">
-        <f t="shared" si="58"/>
-        <v>40439.462352618422</v>
-      </c>
-      <c r="AH15" s="3">
-        <f t="shared" si="58"/>
-        <v>43096.679180481035</v>
+        <v>29736.186783151268</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="58"/>
-        <v>46018.358348216723</v>
+        <f t="shared" si="57"/>
+        <v>31744.514497138527</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="58"/>
-        <v>49237.826347010574</v>
-      </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>33802.701057495702</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="57"/>
+        <v>35817.054763109452</v>
+      </c>
+      <c r="AL15" s="3">
+        <f t="shared" si="57"/>
+        <v>38016.14262912664</v>
+      </c>
+      <c r="AM15" s="3">
+        <f t="shared" si="57"/>
+        <v>40422.157671607958</v>
+      </c>
+      <c r="AN15" s="3">
+        <f t="shared" si="57"/>
+        <v>43060.349541990945</v>
+      </c>
+      <c r="AO15" s="3">
+        <f t="shared" si="57"/>
+        <v>45959.469441928559</v>
+      </c>
+      <c r="AP15" s="3">
+        <f t="shared" si="57"/>
+        <v>49152.281096684019</v>
+      </c>
+      <c r="AQ15" s="3">
+        <f t="shared" si="57"/>
+        <v>52676.147661935291</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
@@ -6051,63 +6121,72 @@
         <v>3979</v>
       </c>
       <c r="R16" s="4">
+        <v>5206</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="AC16" s="3">
+        <v>9551</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>11052</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>13510</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>15724</v>
+      </c>
+      <c r="AG16" s="3">
+        <f>SUM(O16:R16)</f>
+        <v>16425</v>
+      </c>
+      <c r="AH16" s="3">
         <f t="shared" si="57"/>
-        <v>5466.9732663095883</v>
-      </c>
-      <c r="W16" s="3">
-        <v>9551</v>
-      </c>
-      <c r="X16" s="3">
-        <v>11052</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>13510</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>15724</v>
-      </c>
-      <c r="AA16" s="3">
-        <f>SUM(O16:R16)</f>
-        <v>16685.973266309589</v>
-      </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="58"/>
-        <v>17751.818367332431</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="58"/>
-        <v>18960.831913862152</v>
-      </c>
-      <c r="AD16" s="3">
-        <f t="shared" si="58"/>
-        <v>20199.507437625576</v>
-      </c>
-      <c r="AE16" s="3">
-        <f t="shared" si="58"/>
-        <v>21410.687544030829</v>
-      </c>
-      <c r="AF16" s="3">
-        <f t="shared" si="58"/>
-        <v>22733.68432060934</v>
-      </c>
-      <c r="AG16" s="3">
-        <f t="shared" si="58"/>
-        <v>24181.988020144476</v>
-      </c>
-      <c r="AH16" s="3">
-        <f t="shared" si="58"/>
-        <v>25770.950428645425</v>
+        <v>17495.320697541265</v>
       </c>
       <c r="AI16" s="3">
-        <f t="shared" si="58"/>
-        <v>27518.056016173483</v>
+        <f t="shared" si="57"/>
+        <v>18676.922685657497</v>
       </c>
       <c r="AJ16" s="3">
-        <f t="shared" si="58"/>
-        <v>29443.233356545086</v>
-      </c>
-    </row>
-    <row r="17" spans="2:147" x14ac:dyDescent="0.2">
+        <f t="shared" si="57"/>
+        <v>19887.859185061683</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="57"/>
+        <v>21073.006572485327</v>
+      </c>
+      <c r="AL16" s="3">
+        <f t="shared" si="57"/>
+        <v>22366.842521882903</v>
+      </c>
+      <c r="AM16" s="3">
+        <f t="shared" si="57"/>
+        <v>23782.424320527298</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" si="57"/>
+        <v>25334.607630734001</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="57"/>
+        <v>27040.308256033113</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" si="57"/>
+        <v>28918.802772971125</v>
+      </c>
+      <c r="AQ16" s="3">
+        <f t="shared" si="57"/>
+        <v>30992.073838424152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:153" x14ac:dyDescent="0.2">
       <c r="F17" s="13"/>
       <c r="J17" s="4"/>
       <c r="N17" s="4"/>
@@ -6115,9 +6194,15 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="2:147" x14ac:dyDescent="0.2">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
@@ -6178,71 +6263,75 @@
         <v>52766</v>
       </c>
       <c r="Q18" s="3">
-        <f t="shared" ref="Q18:R18" si="59">+SUM(Q13:Q16)</f>
+        <f t="shared" ref="Q18:R18" si="58">+SUM(Q13:Q16)</f>
         <v>55350</v>
       </c>
       <c r="R18" s="3">
+        <f t="shared" si="58"/>
+        <v>62613</v>
+      </c>
+      <c r="AC18" s="3">
+        <f>+SUM(AC13:AC17)</f>
+        <v>125929</v>
+      </c>
+      <c r="AD18" s="3">
+        <f>+SUM(AD13:AD17)</f>
+        <v>141303</v>
+      </c>
+      <c r="AE18" s="3">
+        <f>+SUM(AE13:AE17)</f>
+        <v>178923</v>
+      </c>
+      <c r="AF18" s="3">
+        <f>+SUM(AF13:AF17)</f>
+        <v>207994</v>
+      </c>
+      <c r="AG18" s="3">
+        <f>+SUM(AG13:AG17)</f>
+        <v>223101</v>
+      </c>
+      <c r="AH18" s="3">
+        <f t="shared" ref="AH18:AO18" si="59">+SUM(AH13:AH17)</f>
+        <v>237639.18069663036</v>
+      </c>
+      <c r="AI18" s="3">
         <f t="shared" si="59"/>
-        <v>59535.445041661471</v>
-      </c>
-      <c r="W18" s="3">
-        <f>+SUM(W13:W17)</f>
-        <v>125929</v>
-      </c>
-      <c r="X18" s="3">
-        <f>+SUM(X13:X17)</f>
-        <v>141303</v>
-      </c>
-      <c r="Y18" s="3">
-        <f>+SUM(Y13:Y17)</f>
-        <v>178923</v>
-      </c>
-      <c r="Z18" s="3">
-        <f>+SUM(Z13:Z17)</f>
-        <v>207994</v>
-      </c>
-      <c r="AA18" s="3">
-        <f>+SUM(AA13:AA17)</f>
-        <v>220023.4450416615</v>
-      </c>
-      <c r="AB18" s="3">
-        <f t="shared" ref="AB18:AI18" si="60">+SUM(AB13:AB17)</f>
-        <v>234077.81917165729</v>
-      </c>
-      <c r="AC18" s="3">
+        <v>253688.89668754168</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f t="shared" si="59"/>
+        <v>270137.06374711997</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="59"/>
+        <v>286234.936945391</v>
+      </c>
+      <c r="AL18" s="3">
+        <f t="shared" si="59"/>
+        <v>303809.12836983847</v>
+      </c>
+      <c r="AM18" s="3">
+        <f t="shared" si="59"/>
+        <v>323036.99533235678</v>
+      </c>
+      <c r="AN18" s="3">
+        <f t="shared" si="59"/>
+        <v>344120.32249767944</v>
+      </c>
+      <c r="AO18" s="3">
+        <f t="shared" si="59"/>
+        <v>367288.8774568793</v>
+      </c>
+      <c r="AP18" s="3">
+        <f t="shared" ref="AP18:AQ18" si="60">+SUM(AP13:AP17)</f>
+        <v>392804.49421324988</v>
+      </c>
+      <c r="AQ18" s="3">
         <f t="shared" si="60"/>
-        <v>250020.03131379263</v>
-      </c>
-      <c r="AD18" s="3">
-        <f t="shared" si="60"/>
-        <v>266353.37020134134</v>
-      </c>
-      <c r="AE18" s="3">
-        <f t="shared" si="60"/>
-        <v>282324.15088785201</v>
-      </c>
-      <c r="AF18" s="3">
-        <f t="shared" si="60"/>
-        <v>299769.36094039073</v>
-      </c>
-      <c r="AG18" s="3">
-        <f t="shared" si="60"/>
-        <v>318866.88461206696</v>
-      </c>
-      <c r="AH18" s="3">
-        <f t="shared" si="60"/>
-        <v>339819.15257871681</v>
-      </c>
-      <c r="AI18" s="3">
-        <f t="shared" si="60"/>
-        <v>362856.71736947465</v>
-      </c>
-      <c r="AJ18" s="3">
-        <f t="shared" ref="AJ18" si="61">+SUM(AJ13:AJ17)</f>
-        <v>388242.35978806554</v>
-      </c>
-    </row>
-    <row r="19" spans="2:147" x14ac:dyDescent="0.2">
+        <v>420965.76349627192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
@@ -6303,71 +6392,75 @@
         <v>21838</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" ref="Q19:R19" si="62">+Q12-Q18</f>
+        <f t="shared" ref="Q19:R19" si="61">+Q12-Q18</f>
         <v>21343</v>
       </c>
       <c r="R19" s="3">
+        <f t="shared" si="61"/>
+        <v>23697</v>
+      </c>
+      <c r="AC19" s="3">
+        <f>+AC12-AC18</f>
+        <v>35928</v>
+      </c>
+      <c r="AD19" s="3">
+        <f>+AD12-AD18</f>
+        <v>41224</v>
+      </c>
+      <c r="AE19" s="3">
+        <f>+AE12-AE18</f>
+        <v>78714</v>
+      </c>
+      <c r="AF19" s="3">
+        <f>+AF12-AF18</f>
+        <v>74842</v>
+      </c>
+      <c r="AG19" s="3">
+        <f>+AG12-AG18</f>
+        <v>84293</v>
+      </c>
+      <c r="AH19" s="3">
+        <f t="shared" ref="AH19:AO19" si="62">+AH12-AH18</f>
+        <v>89785.879303369642</v>
+      </c>
+      <c r="AI19" s="3">
         <f t="shared" si="62"/>
-        <v>22048.617547881615</v>
-      </c>
-      <c r="W19" s="3">
-        <f>+W12-W18</f>
-        <v>35928</v>
-      </c>
-      <c r="X19" s="3">
-        <f>+X12-X18</f>
-        <v>41224</v>
-      </c>
-      <c r="Y19" s="3">
-        <f>+Y12-Y18</f>
-        <v>78714</v>
-      </c>
-      <c r="Z19" s="3">
-        <f>+Z12-Z18</f>
-        <v>74842</v>
-      </c>
-      <c r="AA19" s="3">
-        <f>+AA12-AA18</f>
-        <v>82644.617547881557</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" ref="AB19:AI19" si="63">+AB12-AB18</f>
-        <v>87923.683942957869</v>
-      </c>
-      <c r="AC19" s="3">
+        <v>95849.853512458329</v>
+      </c>
+      <c r="AJ19" s="3">
+        <f t="shared" si="62"/>
+        <v>102064.37225488003</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="62"/>
+        <v>108146.54143162904</v>
+      </c>
+      <c r="AL19" s="3">
+        <f t="shared" si="62"/>
+        <v>114786.49964670179</v>
+      </c>
+      <c r="AM19" s="3">
+        <f t="shared" si="62"/>
+        <v>122051.25681888638</v>
+      </c>
+      <c r="AN19" s="3">
+        <f t="shared" si="62"/>
+        <v>130017.05211674055</v>
+      </c>
+      <c r="AO19" s="3">
+        <f t="shared" si="62"/>
+        <v>138770.69734099245</v>
+      </c>
+      <c r="AP19" s="3">
+        <f t="shared" ref="AP19:AQ19" si="63">+AP12-AP18</f>
+        <v>148411.11976511765</v>
+      </c>
+      <c r="AQ19" s="3">
         <f t="shared" si="63"/>
-        <v>93911.854999476345</v>
-      </c>
-      <c r="AD19" s="3">
-        <f t="shared" si="63"/>
-        <v>100046.94003728137</v>
-      </c>
-      <c r="AE19" s="3">
-        <f t="shared" si="63"/>
-        <v>106045.84193397622</v>
-      </c>
-      <c r="AF19" s="3">
-        <f t="shared" si="63"/>
-        <v>112598.5650429228</v>
-      </c>
-      <c r="AG19" s="3">
-        <f t="shared" si="63"/>
-        <v>119771.9257711781</v>
-      </c>
-      <c r="AH19" s="3">
-        <f t="shared" si="63"/>
-        <v>127641.96058740705</v>
-      </c>
-      <c r="AI19" s="3">
-        <f t="shared" si="63"/>
-        <v>136295.26901554386</v>
-      </c>
-      <c r="AJ19" s="3">
-        <f t="shared" ref="AJ19" si="64">+AJ12-AJ18</f>
-        <v>145830.55607776798</v>
-      </c>
-    </row>
-    <row r="20" spans="2:147" x14ac:dyDescent="0.2">
+        <v>159051.13425036764</v>
+      </c>
+    </row>
+    <row r="20" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
@@ -6420,63 +6513,72 @@
         <v>-146</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" ref="R20" si="65">+Q20</f>
-        <v>-146</v>
-      </c>
-      <c r="W20" s="3">
+        <v>715</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="AC20" s="3">
         <v>5394</v>
       </c>
-      <c r="X20" s="3">
+      <c r="AD20" s="3">
         <v>6858</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AE20" s="3">
         <v>12020</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AF20" s="4">
         <v>-3514</v>
       </c>
-      <c r="AA20" s="3">
-        <f>+Z49*$AN$26</f>
-        <v>2805.5883680711809</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" ref="AB20:AJ20" si="66">+AA49*$AN$26</f>
-        <v>4319.4885035037842</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="66"/>
-        <v>5906.0710695829248</v>
-      </c>
-      <c r="AD20" s="3">
-        <f t="shared" si="66"/>
-        <v>7622.9393979707429</v>
-      </c>
-      <c r="AE20" s="3">
-        <f t="shared" si="66"/>
-        <v>9474.8613242570791</v>
-      </c>
-      <c r="AF20" s="3">
-        <f t="shared" si="66"/>
-        <v>11461.817420298692</v>
-      </c>
       <c r="AG20" s="3">
-        <f t="shared" si="66"/>
-        <v>13595.655998666103</v>
+        <f>+AF49*$AT$26</f>
+        <v>2218.3200000000002</v>
       </c>
       <c r="AH20" s="3">
-        <f t="shared" si="66"/>
-        <v>15889.578405107422</v>
+        <f t="shared" ref="AH20:AQ20" si="64">+AG49*$AT$26</f>
+        <v>3710.1064000000001</v>
       </c>
       <c r="AI20" s="3">
-        <f t="shared" si="66"/>
-        <v>18358.320875778671</v>
+        <f t="shared" si="64"/>
+        <v>5318.2373540979579</v>
       </c>
       <c r="AJ20" s="3">
-        <f t="shared" si="66"/>
-        <v>21018.362621909419</v>
-      </c>
-    </row>
-    <row r="21" spans="2:147" x14ac:dyDescent="0.2">
+        <f t="shared" si="64"/>
+        <v>7058.3285170027266</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="64"/>
+        <v>8935.2389702791097</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="64"/>
+        <v>10949.04559319193</v>
+      </c>
+      <c r="AM20" s="3">
+        <f t="shared" si="64"/>
+        <v>13111.696971318102</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" si="64"/>
+        <v>15436.49977650962</v>
+      </c>
+      <c r="AO20" s="3">
+        <f t="shared" si="64"/>
+        <v>17938.300869073522</v>
+      </c>
+      <c r="AP20" s="3">
+        <f t="shared" si="64"/>
+        <v>20633.695638286656</v>
+      </c>
+      <c r="AQ20" s="3">
+        <f t="shared" si="64"/>
+        <v>23541.266463225209</v>
+      </c>
+    </row>
+    <row r="21" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>26</v>
       </c>
@@ -6537,71 +6639,75 @@
         <v>21903</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" ref="Q21:R21" si="67">+Q19+Q20</f>
+        <f t="shared" ref="Q21:R21" si="65">+Q19+Q20</f>
         <v>21197</v>
       </c>
       <c r="R21" s="3">
+        <f t="shared" si="65"/>
+        <v>24412</v>
+      </c>
+      <c r="AC21" s="3">
+        <f>+AC19+AC20</f>
+        <v>41322</v>
+      </c>
+      <c r="AD21" s="3">
+        <f>+AD19+AD20</f>
+        <v>48082</v>
+      </c>
+      <c r="AE21" s="3">
+        <f>+AE19+AE20</f>
+        <v>90734</v>
+      </c>
+      <c r="AF21" s="3">
+        <f>+AF19+AF20</f>
+        <v>71328</v>
+      </c>
+      <c r="AG21" s="3">
+        <f>+AG19+AG20</f>
+        <v>86511.32</v>
+      </c>
+      <c r="AH21" s="3">
+        <f t="shared" ref="AH21:AO21" si="66">+AH19+AH20</f>
+        <v>93495.985703369646</v>
+      </c>
+      <c r="AI21" s="3">
+        <f t="shared" si="66"/>
+        <v>101168.09086655629</v>
+      </c>
+      <c r="AJ21" s="3">
+        <f t="shared" si="66"/>
+        <v>109122.70077188275</v>
+      </c>
+      <c r="AK21" s="3">
+        <f t="shared" si="66"/>
+        <v>117081.78040190815</v>
+      </c>
+      <c r="AL21" s="3">
+        <f t="shared" si="66"/>
+        <v>125735.54523989372</v>
+      </c>
+      <c r="AM21" s="3">
+        <f t="shared" si="66"/>
+        <v>135162.95379020448</v>
+      </c>
+      <c r="AN21" s="3">
+        <f t="shared" si="66"/>
+        <v>145453.55189325017</v>
+      </c>
+      <c r="AO21" s="3">
+        <f t="shared" si="66"/>
+        <v>156708.99821006597</v>
+      </c>
+      <c r="AP21" s="3">
+        <f t="shared" ref="AP21:AQ21" si="67">+AP19+AP20</f>
+        <v>169044.8154034043</v>
+      </c>
+      <c r="AQ21" s="3">
         <f t="shared" si="67"/>
-        <v>21902.617547881615</v>
-      </c>
-      <c r="W21" s="3">
-        <f>+W19+W20</f>
-        <v>41322</v>
-      </c>
-      <c r="X21" s="3">
-        <f>+X19+X20</f>
-        <v>48082</v>
-      </c>
-      <c r="Y21" s="3">
-        <f>+Y19+Y20</f>
-        <v>90734</v>
-      </c>
-      <c r="Z21" s="3">
-        <f>+Z19+Z20</f>
-        <v>71328</v>
-      </c>
-      <c r="AA21" s="3">
-        <f>+AA19+AA20</f>
-        <v>85450.205915952742</v>
-      </c>
-      <c r="AB21" s="3">
-        <f t="shared" ref="AB21:AI21" si="68">+AB19+AB20</f>
-        <v>92243.172446461656</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="68"/>
-        <v>99817.926069059264</v>
-      </c>
-      <c r="AD21" s="3">
-        <f t="shared" si="68"/>
-        <v>107669.87943525211</v>
-      </c>
-      <c r="AE21" s="3">
-        <f t="shared" si="68"/>
-        <v>115520.70325823329</v>
-      </c>
-      <c r="AF21" s="3">
-        <f t="shared" si="68"/>
-        <v>124060.3824632215</v>
-      </c>
-      <c r="AG21" s="3">
-        <f t="shared" si="68"/>
-        <v>133367.5817698442</v>
-      </c>
-      <c r="AH21" s="3">
-        <f t="shared" si="68"/>
-        <v>143531.53899251448</v>
-      </c>
-      <c r="AI21" s="3">
-        <f t="shared" si="68"/>
-        <v>154653.58989132254</v>
-      </c>
-      <c r="AJ21" s="3">
-        <f t="shared" ref="AJ21" si="69">+AJ19+AJ20</f>
-        <v>166848.91869967739</v>
-      </c>
-    </row>
-    <row r="22" spans="2:147" x14ac:dyDescent="0.2">
+        <v>182592.40071359286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>27</v>
       </c>
@@ -6654,63 +6760,72 @@
         <v>1508</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" ref="R22" si="70">+R21*(Q22/Q21)</f>
-        <v>1558.1991443225679</v>
-      </c>
-      <c r="W22" s="3">
+        <v>3725</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="AC22" s="3">
         <v>5282</v>
       </c>
-      <c r="X22" s="3">
+      <c r="AD22" s="3">
         <v>7813</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AE22" s="3">
         <v>14701</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AF22" s="4">
         <v>11356</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AG22" s="3">
         <f>SUM(O22:R22)</f>
-        <v>9755.199144322567</v>
-      </c>
-      <c r="AB22" s="3">
-        <f>+AB21*0.14</f>
-        <v>12914.044142504634</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" ref="AC22:AJ22" si="71">+AC21*0.14</f>
-        <v>13974.509649668298</v>
-      </c>
-      <c r="AD22" s="3">
-        <f t="shared" si="71"/>
-        <v>15073.783120935297</v>
-      </c>
-      <c r="AE22" s="3">
-        <f t="shared" si="71"/>
-        <v>16172.898456152661</v>
-      </c>
-      <c r="AF22" s="3">
-        <f t="shared" si="71"/>
-        <v>17368.453544851011</v>
-      </c>
-      <c r="AG22" s="3">
-        <f t="shared" si="71"/>
-        <v>18671.461447778191</v>
+        <v>11922</v>
       </c>
       <c r="AH22" s="3">
-        <f t="shared" si="71"/>
-        <v>20094.415458952029</v>
+        <f>+AH21*0.14</f>
+        <v>13089.437998471753</v>
       </c>
       <c r="AI22" s="3">
-        <f t="shared" si="71"/>
-        <v>21651.502584785158</v>
+        <f t="shared" ref="AI22:AP22" si="68">+AI21*0.14</f>
+        <v>14163.532721317883</v>
       </c>
       <c r="AJ22" s="3">
-        <f t="shared" si="71"/>
-        <v>23358.848617954838</v>
-      </c>
-    </row>
-    <row r="23" spans="2:147" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="68"/>
+        <v>15277.178108063586</v>
+      </c>
+      <c r="AK22" s="3">
+        <f t="shared" si="68"/>
+        <v>16391.449256267144</v>
+      </c>
+      <c r="AL22" s="3">
+        <f t="shared" si="68"/>
+        <v>17602.976333585124</v>
+      </c>
+      <c r="AM22" s="3">
+        <f t="shared" si="68"/>
+        <v>18922.813530628628</v>
+      </c>
+      <c r="AN22" s="3">
+        <f t="shared" si="68"/>
+        <v>20363.497265055026</v>
+      </c>
+      <c r="AO22" s="3">
+        <f t="shared" si="68"/>
+        <v>21939.259749409237</v>
+      </c>
+      <c r="AP22" s="3">
+        <f t="shared" si="68"/>
+        <v>23666.274156476604</v>
+      </c>
+      <c r="AQ22" s="3">
+        <f t="shared" ref="AQ22" si="69">+AQ21*0.14</f>
+        <v>25562.936099903003</v>
+      </c>
+    </row>
+    <row r="23" spans="2:153" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
@@ -6771,515 +6886,515 @@
         <v>18368</v>
       </c>
       <c r="Q23" s="10">
-        <f t="shared" ref="Q23:R23" si="72">+Q21-Q22</f>
+        <f t="shared" ref="Q23:R23" si="70">+Q21-Q22</f>
         <v>19689</v>
       </c>
       <c r="R23" s="10">
+        <f t="shared" si="70"/>
+        <v>20687</v>
+      </c>
+      <c r="AC23" s="10">
+        <f>+AC21-AC22</f>
+        <v>36040</v>
+      </c>
+      <c r="AD23" s="10">
+        <f>+AD21-AD22</f>
+        <v>40269</v>
+      </c>
+      <c r="AE23" s="10">
+        <f>+AE21-AE22</f>
+        <v>76033</v>
+      </c>
+      <c r="AF23" s="10">
+        <f>+AF21-AF22</f>
+        <v>59972</v>
+      </c>
+      <c r="AG23" s="10">
+        <f>+AG21-AG22</f>
+        <v>74589.320000000007</v>
+      </c>
+      <c r="AH23" s="10">
+        <f t="shared" ref="AH23:AO23" si="71">+AH21-AH22</f>
+        <v>80406.547704897894</v>
+      </c>
+      <c r="AI23" s="10">
+        <f t="shared" si="71"/>
+        <v>87004.558145238407</v>
+      </c>
+      <c r="AJ23" s="10">
+        <f t="shared" si="71"/>
+        <v>93845.522663819167</v>
+      </c>
+      <c r="AK23" s="10">
+        <f t="shared" si="71"/>
+        <v>100690.33114564102</v>
+      </c>
+      <c r="AL23" s="10">
+        <f t="shared" si="71"/>
+        <v>108132.56890630859</v>
+      </c>
+      <c r="AM23" s="10">
+        <f t="shared" si="71"/>
+        <v>116240.14025957586</v>
+      </c>
+      <c r="AN23" s="10">
+        <f t="shared" si="71"/>
+        <v>125090.05462819515</v>
+      </c>
+      <c r="AO23" s="10">
+        <f t="shared" si="71"/>
+        <v>134769.73846065672</v>
+      </c>
+      <c r="AP23" s="10">
+        <f t="shared" ref="AP23:AQ23" si="72">+AP21-AP22</f>
+        <v>145378.54124692769</v>
+      </c>
+      <c r="AQ23" s="10">
         <f t="shared" si="72"/>
-        <v>20344.418403559048</v>
-      </c>
-      <c r="W23" s="10">
-        <f>+W21-W22</f>
-        <v>36040</v>
-      </c>
-      <c r="X23" s="10">
-        <f>+X21-X22</f>
-        <v>40269</v>
-      </c>
-      <c r="Y23" s="10">
-        <f>+Y21-Y22</f>
-        <v>76033</v>
-      </c>
-      <c r="Z23" s="10">
-        <f>+Z21-Z22</f>
-        <v>59972</v>
-      </c>
-      <c r="AA23" s="10">
-        <f>+AA21-AA22</f>
-        <v>75695.006771630171</v>
-      </c>
-      <c r="AB23" s="10">
-        <f t="shared" ref="AB23:AI23" si="73">+AB21-AB22</f>
-        <v>79329.128303957026</v>
-      </c>
-      <c r="AC23" s="10">
+        <v>157029.46461368987</v>
+      </c>
+      <c r="AR23" s="10">
+        <f t="shared" ref="AQ23:DB23" si="73">+AQ23*(1+$AT$27)</f>
+        <v>158599.75925982677</v>
+      </c>
+      <c r="AS23" s="10">
         <f t="shared" si="73"/>
-        <v>85843.416419390967</v>
-      </c>
-      <c r="AD23" s="10">
+        <v>160185.75685242502</v>
+      </c>
+      <c r="AT23" s="10">
         <f t="shared" si="73"/>
-        <v>92596.096314316805</v>
-      </c>
-      <c r="AE23" s="10">
+        <v>161787.61442094928</v>
+      </c>
+      <c r="AU23" s="10">
         <f t="shared" si="73"/>
-        <v>99347.804802080631</v>
-      </c>
-      <c r="AF23" s="10">
+        <v>163405.49056515878</v>
+      </c>
+      <c r="AV23" s="10">
         <f t="shared" si="73"/>
-        <v>106691.92891837048</v>
-      </c>
-      <c r="AG23" s="10">
+        <v>165039.54547081038</v>
+      </c>
+      <c r="AW23" s="10">
         <f t="shared" si="73"/>
-        <v>114696.12032206601</v>
-      </c>
-      <c r="AH23" s="10">
+        <v>166689.94092551849</v>
+      </c>
+      <c r="AX23" s="10">
         <f t="shared" si="73"/>
-        <v>123437.12353356245</v>
-      </c>
-      <c r="AI23" s="10">
+        <v>168356.84033477367</v>
+      </c>
+      <c r="AY23" s="10">
         <f t="shared" si="73"/>
-        <v>133002.08730653737</v>
-      </c>
-      <c r="AJ23" s="10">
-        <f t="shared" ref="AJ23" si="74">+AJ21-AJ22</f>
-        <v>143490.07008172254</v>
-      </c>
-      <c r="AK23" s="10">
-        <f t="shared" ref="AK23:CV23" si="75">+AJ23*(1+$AN$27)</f>
-        <v>144924.97078253978</v>
-      </c>
-      <c r="AL23" s="10">
-        <f t="shared" si="75"/>
-        <v>146374.22049036517</v>
-      </c>
-      <c r="AM23" s="10">
-        <f t="shared" si="75"/>
-        <v>147837.96269526883</v>
-      </c>
-      <c r="AN23" s="10">
-        <f t="shared" si="75"/>
-        <v>149316.34232222152</v>
-      </c>
-      <c r="AO23" s="10">
-        <f t="shared" si="75"/>
-        <v>150809.50574544375</v>
-      </c>
-      <c r="AP23" s="10">
-        <f t="shared" si="75"/>
-        <v>152317.60080289817</v>
-      </c>
-      <c r="AQ23" s="10">
-        <f t="shared" si="75"/>
-        <v>153840.77681092717</v>
-      </c>
-      <c r="AR23" s="10">
-        <f t="shared" si="75"/>
-        <v>155379.18457903643</v>
-      </c>
-      <c r="AS23" s="10">
-        <f t="shared" si="75"/>
-        <v>156932.9764248268</v>
-      </c>
-      <c r="AT23" s="10">
-        <f t="shared" si="75"/>
-        <v>158502.30618907508</v>
-      </c>
-      <c r="AU23" s="10">
-        <f t="shared" si="75"/>
-        <v>160087.32925096585</v>
-      </c>
-      <c r="AV23" s="10">
-        <f t="shared" si="75"/>
-        <v>161688.20254347552</v>
-      </c>
-      <c r="AW23" s="10">
-        <f t="shared" si="75"/>
-        <v>163305.08456891027</v>
-      </c>
-      <c r="AX23" s="10">
-        <f t="shared" si="75"/>
-        <v>164938.13541459938</v>
-      </c>
-      <c r="AY23" s="10">
-        <f t="shared" si="75"/>
-        <v>166587.51676874538</v>
+        <v>170040.40873812142</v>
       </c>
       <c r="AZ23" s="10">
-        <f t="shared" si="75"/>
-        <v>168253.39193643283</v>
+        <f t="shared" si="73"/>
+        <v>171740.81282550262</v>
       </c>
       <c r="BA23" s="10">
-        <f t="shared" si="75"/>
-        <v>169935.92585579716</v>
+        <f t="shared" si="73"/>
+        <v>173458.22095375764</v>
       </c>
       <c r="BB23" s="10">
-        <f t="shared" si="75"/>
-        <v>171635.28511435512</v>
+        <f t="shared" si="73"/>
+        <v>175192.80316329523</v>
       </c>
       <c r="BC23" s="10">
-        <f t="shared" si="75"/>
-        <v>173351.63796549867</v>
+        <f t="shared" si="73"/>
+        <v>176944.7311949282</v>
       </c>
       <c r="BD23" s="10">
-        <f t="shared" si="75"/>
-        <v>175085.15434515366</v>
+        <f t="shared" si="73"/>
+        <v>178714.17850687748</v>
       </c>
       <c r="BE23" s="10">
-        <f t="shared" si="75"/>
-        <v>176836.0058886052</v>
+        <f t="shared" si="73"/>
+        <v>180501.32029194626</v>
       </c>
       <c r="BF23" s="10">
-        <f t="shared" si="75"/>
-        <v>178604.36594749126</v>
+        <f t="shared" si="73"/>
+        <v>182306.33349486571</v>
       </c>
       <c r="BG23" s="10">
-        <f t="shared" si="75"/>
-        <v>180390.40960696616</v>
+        <f t="shared" si="73"/>
+        <v>184129.39682981436</v>
       </c>
       <c r="BH23" s="10">
-        <f t="shared" si="75"/>
-        <v>182194.31370303582</v>
+        <f t="shared" si="73"/>
+        <v>185970.69079811251</v>
       </c>
       <c r="BI23" s="10">
-        <f t="shared" si="75"/>
-        <v>184016.25684006617</v>
+        <f t="shared" si="73"/>
+        <v>187830.39770609364</v>
       </c>
       <c r="BJ23" s="10">
-        <f t="shared" si="75"/>
-        <v>185856.41940846684</v>
+        <f t="shared" si="73"/>
+        <v>189708.70168315459</v>
       </c>
       <c r="BK23" s="10">
-        <f t="shared" si="75"/>
-        <v>187714.98360255151</v>
+        <f t="shared" si="73"/>
+        <v>191605.78869998615</v>
       </c>
       <c r="BL23" s="10">
-        <f t="shared" si="75"/>
-        <v>189592.13343857703</v>
+        <f t="shared" si="73"/>
+        <v>193521.84658698601</v>
       </c>
       <c r="BM23" s="10">
-        <f t="shared" si="75"/>
-        <v>191488.05477296282</v>
+        <f t="shared" si="73"/>
+        <v>195457.06505285588</v>
       </c>
       <c r="BN23" s="10">
-        <f t="shared" si="75"/>
-        <v>193402.93532069246</v>
+        <f t="shared" si="73"/>
+        <v>197411.63570338444</v>
       </c>
       <c r="BO23" s="10">
-        <f t="shared" si="75"/>
-        <v>195336.96467389938</v>
+        <f t="shared" si="73"/>
+        <v>199385.75206041828</v>
       </c>
       <c r="BP23" s="10">
-        <f t="shared" si="75"/>
-        <v>197290.33432063836</v>
+        <f t="shared" si="73"/>
+        <v>201379.60958102247</v>
       </c>
       <c r="BQ23" s="10">
-        <f t="shared" si="75"/>
-        <v>199263.23766384475</v>
+        <f t="shared" si="73"/>
+        <v>203393.40567683268</v>
       </c>
       <c r="BR23" s="10">
-        <f t="shared" si="75"/>
-        <v>201255.87004048319</v>
+        <f t="shared" si="73"/>
+        <v>205427.33973360102</v>
       </c>
       <c r="BS23" s="10">
-        <f t="shared" si="75"/>
-        <v>203268.42874088802</v>
+        <f t="shared" si="73"/>
+        <v>207481.61313093704</v>
       </c>
       <c r="BT23" s="10">
-        <f t="shared" si="75"/>
-        <v>205301.11302829691</v>
+        <f t="shared" si="73"/>
+        <v>209556.42926224641</v>
       </c>
       <c r="BU23" s="10">
-        <f t="shared" si="75"/>
-        <v>207354.12415857989</v>
+        <f t="shared" si="73"/>
+        <v>211651.99355486888</v>
       </c>
       <c r="BV23" s="10">
-        <f t="shared" si="75"/>
-        <v>209427.66540016569</v>
+        <f t="shared" si="73"/>
+        <v>213768.51349041756</v>
       </c>
       <c r="BW23" s="10">
-        <f t="shared" si="75"/>
-        <v>211521.94205416733</v>
+        <f t="shared" si="73"/>
+        <v>215906.19862532173</v>
       </c>
       <c r="BX23" s="10">
-        <f t="shared" si="75"/>
-        <v>213637.16147470902</v>
+        <f t="shared" si="73"/>
+        <v>218065.26061157495</v>
       </c>
       <c r="BY23" s="10">
-        <f t="shared" si="75"/>
-        <v>215773.53308945612</v>
+        <f t="shared" si="73"/>
+        <v>220245.91321769072</v>
       </c>
       <c r="BZ23" s="10">
-        <f t="shared" si="75"/>
-        <v>217931.26842035068</v>
+        <f t="shared" si="73"/>
+        <v>222448.37234986763</v>
       </c>
       <c r="CA23" s="10">
-        <f t="shared" si="75"/>
-        <v>220110.58110455418</v>
+        <f t="shared" si="73"/>
+        <v>224672.8560733663</v>
       </c>
       <c r="CB23" s="10">
-        <f t="shared" si="75"/>
-        <v>222311.68691559971</v>
+        <f t="shared" si="73"/>
+        <v>226919.58463409997</v>
       </c>
       <c r="CC23" s="10">
-        <f t="shared" si="75"/>
-        <v>224534.8037847557</v>
+        <f t="shared" si="73"/>
+        <v>229188.78048044097</v>
       </c>
       <c r="CD23" s="10">
-        <f t="shared" si="75"/>
-        <v>226780.15182260325</v>
+        <f t="shared" si="73"/>
+        <v>231480.66828524537</v>
       </c>
       <c r="CE23" s="10">
-        <f t="shared" si="75"/>
-        <v>229047.95334082929</v>
+        <f t="shared" si="73"/>
+        <v>233795.47496809781</v>
       </c>
       <c r="CF23" s="10">
-        <f t="shared" si="75"/>
-        <v>231338.43287423759</v>
+        <f t="shared" si="73"/>
+        <v>236133.42971777878</v>
       </c>
       <c r="CG23" s="10">
-        <f t="shared" si="75"/>
-        <v>233651.81720297996</v>
+        <f t="shared" si="73"/>
+        <v>238494.76401495657</v>
       </c>
       <c r="CH23" s="10">
-        <f t="shared" si="75"/>
-        <v>235988.33537500977</v>
+        <f t="shared" si="73"/>
+        <v>240879.71165510613</v>
       </c>
       <c r="CI23" s="10">
-        <f t="shared" si="75"/>
-        <v>238348.21872875988</v>
+        <f t="shared" si="73"/>
+        <v>243288.50877165719</v>
       </c>
       <c r="CJ23" s="10">
-        <f t="shared" si="75"/>
-        <v>240731.70091604747</v>
+        <f t="shared" si="73"/>
+        <v>245721.39385937375</v>
       </c>
       <c r="CK23" s="10">
-        <f t="shared" si="75"/>
-        <v>243139.01792520794</v>
+        <f t="shared" si="73"/>
+        <v>248178.6077979675</v>
       </c>
       <c r="CL23" s="10">
-        <f t="shared" si="75"/>
-        <v>245570.40810446002</v>
+        <f t="shared" si="73"/>
+        <v>250660.39387594719</v>
       </c>
       <c r="CM23" s="10">
-        <f t="shared" si="75"/>
-        <v>248026.11218550461</v>
+        <f t="shared" si="73"/>
+        <v>253166.99781470667</v>
       </c>
       <c r="CN23" s="10">
-        <f t="shared" si="75"/>
-        <v>250506.37330735967</v>
+        <f t="shared" si="73"/>
+        <v>255698.66779285375</v>
       </c>
       <c r="CO23" s="10">
-        <f t="shared" si="75"/>
-        <v>253011.43704043326</v>
+        <f t="shared" si="73"/>
+        <v>258255.65447078229</v>
       </c>
       <c r="CP23" s="10">
-        <f t="shared" si="75"/>
-        <v>255541.55141083759</v>
+        <f t="shared" si="73"/>
+        <v>260838.21101549012</v>
       </c>
       <c r="CQ23" s="10">
-        <f t="shared" si="75"/>
-        <v>258096.96692494597</v>
+        <f t="shared" si="73"/>
+        <v>263446.59312564501</v>
       </c>
       <c r="CR23" s="10">
-        <f t="shared" si="75"/>
-        <v>260677.93659419543</v>
+        <f t="shared" si="73"/>
+        <v>266081.05905690149</v>
       </c>
       <c r="CS23" s="10">
-        <f t="shared" si="75"/>
-        <v>263284.71596013737</v>
+        <f t="shared" si="73"/>
+        <v>268741.86964747054</v>
       </c>
       <c r="CT23" s="10">
-        <f t="shared" si="75"/>
-        <v>265917.56311973877</v>
+        <f t="shared" si="73"/>
+        <v>271429.28834394523</v>
       </c>
       <c r="CU23" s="10">
-        <f t="shared" si="75"/>
-        <v>268576.73875093617</v>
+        <f t="shared" si="73"/>
+        <v>274143.58122738468</v>
       </c>
       <c r="CV23" s="10">
-        <f t="shared" si="75"/>
-        <v>271262.50613844552</v>
+        <f t="shared" si="73"/>
+        <v>276885.01703965856</v>
       </c>
       <c r="CW23" s="10">
-        <f t="shared" ref="CW23:EQ23" si="76">+CV23*(1+$AN$27)</f>
-        <v>273975.13119982998</v>
+        <f t="shared" si="73"/>
+        <v>279653.86721005512</v>
       </c>
       <c r="CX23" s="10">
-        <f t="shared" si="76"/>
-        <v>276714.88251182827</v>
+        <f t="shared" si="73"/>
+        <v>282450.4058821557</v>
       </c>
       <c r="CY23" s="10">
-        <f t="shared" si="76"/>
-        <v>279482.03133694653</v>
+        <f t="shared" si="73"/>
+        <v>285274.90994097723</v>
       </c>
       <c r="CZ23" s="10">
-        <f t="shared" si="76"/>
-        <v>282276.85165031598</v>
+        <f t="shared" si="73"/>
+        <v>288127.65904038702</v>
       </c>
       <c r="DA23" s="10">
-        <f t="shared" si="76"/>
-        <v>285099.62016681914</v>
+        <f t="shared" si="73"/>
+        <v>291008.93563079089</v>
       </c>
       <c r="DB23" s="10">
-        <f t="shared" si="76"/>
-        <v>287950.6163684873</v>
+        <f t="shared" si="73"/>
+        <v>293919.02498709882</v>
       </c>
       <c r="DC23" s="10">
-        <f t="shared" si="76"/>
-        <v>290830.12253217219</v>
+        <f t="shared" ref="DC23:EW23" si="74">+DB23*(1+$AT$27)</f>
+        <v>296858.21523696982</v>
       </c>
       <c r="DD23" s="10">
-        <f t="shared" si="76"/>
-        <v>293738.4237574939</v>
+        <f t="shared" si="74"/>
+        <v>299826.79738933954</v>
       </c>
       <c r="DE23" s="10">
-        <f t="shared" si="76"/>
-        <v>296675.80799506884</v>
+        <f t="shared" si="74"/>
+        <v>302825.06536323292</v>
       </c>
       <c r="DF23" s="10">
-        <f t="shared" si="76"/>
-        <v>299642.56607501954</v>
+        <f t="shared" si="74"/>
+        <v>305853.31601686525</v>
       </c>
       <c r="DG23" s="10">
-        <f t="shared" si="76"/>
-        <v>302638.99173576973</v>
+        <f t="shared" si="74"/>
+        <v>308911.84917703393</v>
       </c>
       <c r="DH23" s="10">
-        <f t="shared" si="76"/>
-        <v>305665.38165312744</v>
+        <f t="shared" si="74"/>
+        <v>312000.96766880428</v>
       </c>
       <c r="DI23" s="10">
-        <f t="shared" si="76"/>
-        <v>308722.03546965873</v>
+        <f t="shared" si="74"/>
+        <v>315120.97734549234</v>
       </c>
       <c r="DJ23" s="10">
-        <f t="shared" si="76"/>
-        <v>311809.25582435529</v>
+        <f t="shared" si="74"/>
+        <v>318272.18711894727</v>
       </c>
       <c r="DK23" s="10">
-        <f t="shared" si="76"/>
-        <v>314927.34838259884</v>
+        <f t="shared" si="74"/>
+        <v>321454.90899013676</v>
       </c>
       <c r="DL23" s="10">
-        <f t="shared" si="76"/>
-        <v>318076.6218664248</v>
+        <f t="shared" si="74"/>
+        <v>324669.45808003814</v>
       </c>
       <c r="DM23" s="10">
-        <f t="shared" si="76"/>
-        <v>321257.38808508904</v>
+        <f t="shared" si="74"/>
+        <v>327916.1526608385</v>
       </c>
       <c r="DN23" s="10">
-        <f t="shared" si="76"/>
-        <v>324469.96196593996</v>
+        <f t="shared" si="74"/>
+        <v>331195.3141874469</v>
       </c>
       <c r="DO23" s="10">
-        <f t="shared" si="76"/>
-        <v>327714.66158559936</v>
+        <f t="shared" si="74"/>
+        <v>334507.26732932136</v>
       </c>
       <c r="DP23" s="10">
-        <f t="shared" si="76"/>
-        <v>330991.80820145534</v>
+        <f t="shared" si="74"/>
+        <v>337852.3400026146</v>
       </c>
       <c r="DQ23" s="10">
-        <f t="shared" si="76"/>
-        <v>334301.72628346988</v>
+        <f t="shared" si="74"/>
+        <v>341230.86340264074</v>
       </c>
       <c r="DR23" s="10">
-        <f t="shared" si="76"/>
-        <v>337644.74354630458</v>
+        <f t="shared" si="74"/>
+        <v>344643.17203666712</v>
       </c>
       <c r="DS23" s="10">
-        <f t="shared" si="76"/>
-        <v>341021.19098176761</v>
+        <f t="shared" si="74"/>
+        <v>348089.60375703382</v>
       </c>
       <c r="DT23" s="10">
-        <f t="shared" si="76"/>
-        <v>344431.40289158531</v>
+        <f t="shared" si="74"/>
+        <v>351570.49979460414</v>
       </c>
       <c r="DU23" s="10">
-        <f t="shared" si="76"/>
-        <v>347875.71692050115</v>
+        <f t="shared" si="74"/>
+        <v>355086.20479255018</v>
       </c>
       <c r="DV23" s="10">
-        <f t="shared" si="76"/>
-        <v>351354.47408970614</v>
+        <f t="shared" si="74"/>
+        <v>358637.06684047572</v>
       </c>
       <c r="DW23" s="10">
-        <f t="shared" si="76"/>
-        <v>354868.01883060322</v>
+        <f t="shared" si="74"/>
+        <v>362223.43750888045</v>
       </c>
       <c r="DX23" s="10">
-        <f t="shared" si="76"/>
-        <v>358416.69901890925</v>
+        <f t="shared" si="74"/>
+        <v>365845.67188396928</v>
       </c>
       <c r="DY23" s="10">
-        <f t="shared" si="76"/>
-        <v>362000.86600909836</v>
+        <f t="shared" si="74"/>
+        <v>369504.12860280898</v>
       </c>
       <c r="DZ23" s="10">
-        <f t="shared" si="76"/>
-        <v>365620.87466918933</v>
+        <f t="shared" si="74"/>
+        <v>373199.16988883709</v>
       </c>
       <c r="EA23" s="10">
-        <f t="shared" si="76"/>
-        <v>369277.08341588121</v>
+        <f t="shared" si="74"/>
+        <v>376931.16158772545</v>
       </c>
       <c r="EB23" s="10">
-        <f t="shared" si="76"/>
-        <v>372969.85425004002</v>
+        <f t="shared" si="74"/>
+        <v>380700.47320360271</v>
       </c>
       <c r="EC23" s="10">
-        <f t="shared" si="76"/>
-        <v>376699.5527925404</v>
+        <f t="shared" si="74"/>
+        <v>384507.47793563874</v>
       </c>
       <c r="ED23" s="10">
-        <f t="shared" si="76"/>
-        <v>380466.54832046584</v>
+        <f t="shared" si="74"/>
+        <v>388352.55271499511</v>
       </c>
       <c r="EE23" s="10">
-        <f t="shared" si="76"/>
-        <v>384271.21380367049</v>
+        <f t="shared" si="74"/>
+        <v>392236.07824214507</v>
       </c>
       <c r="EF23" s="10">
-        <f t="shared" si="76"/>
-        <v>388113.92594170722</v>
+        <f t="shared" si="74"/>
+        <v>396158.4390245665</v>
       </c>
       <c r="EG23" s="10">
-        <f t="shared" si="76"/>
-        <v>391995.06520112429</v>
+        <f t="shared" si="74"/>
+        <v>400120.02341481217</v>
       </c>
       <c r="EH23" s="10">
-        <f t="shared" si="76"/>
-        <v>395915.01585313556</v>
+        <f t="shared" si="74"/>
+        <v>404121.22364896029</v>
       </c>
       <c r="EI23" s="10">
-        <f t="shared" si="76"/>
-        <v>399874.16601166694</v>
+        <f t="shared" si="74"/>
+        <v>408162.43588544993</v>
       </c>
       <c r="EJ23" s="10">
-        <f t="shared" si="76"/>
-        <v>403872.90767178359</v>
+        <f t="shared" si="74"/>
+        <v>412244.06024430442</v>
       </c>
       <c r="EK23" s="10">
-        <f t="shared" si="76"/>
-        <v>407911.63674850145</v>
+        <f t="shared" si="74"/>
+        <v>416366.50084674748</v>
       </c>
       <c r="EL23" s="10">
-        <f t="shared" si="76"/>
-        <v>411990.75311598647</v>
+        <f t="shared" si="74"/>
+        <v>420530.16585521499</v>
       </c>
       <c r="EM23" s="10">
-        <f t="shared" si="76"/>
-        <v>416110.66064714635</v>
+        <f t="shared" si="74"/>
+        <v>424735.46751376713</v>
       </c>
       <c r="EN23" s="10">
-        <f t="shared" si="76"/>
-        <v>420271.76725361781</v>
+        <f t="shared" si="74"/>
+        <v>428982.8221889048</v>
       </c>
       <c r="EO23" s="10">
-        <f t="shared" si="76"/>
-        <v>424474.48492615402</v>
+        <f t="shared" si="74"/>
+        <v>433272.65041079384</v>
       </c>
       <c r="EP23" s="10">
-        <f t="shared" si="76"/>
-        <v>428719.22977541556</v>
+        <f t="shared" si="74"/>
+        <v>437605.37691490178</v>
       </c>
       <c r="EQ23" s="10">
-        <f t="shared" si="76"/>
-        <v>433006.42207316973</v>
-      </c>
-    </row>
-    <row r="24" spans="2:147" s="53" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="74"/>
+        <v>441981.43068405078</v>
+      </c>
+      <c r="ER23" s="10">
+        <f t="shared" si="74"/>
+        <v>446401.24499089131</v>
+      </c>
+      <c r="ES23" s="10">
+        <f t="shared" si="74"/>
+        <v>450865.25744080025</v>
+      </c>
+      <c r="ET23" s="10">
+        <f t="shared" si="74"/>
+        <v>455373.91001520824</v>
+      </c>
+      <c r="EU23" s="10">
+        <f t="shared" si="74"/>
+        <v>459927.64911536034</v>
+      </c>
+      <c r="EV23" s="10">
+        <f t="shared" si="74"/>
+        <v>464526.92560651398</v>
+      </c>
+      <c r="EW23" s="10">
+        <f t="shared" si="74"/>
+        <v>469172.19486257911</v>
+      </c>
+    </row>
+    <row r="24" spans="2:153" s="53" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="52" t="s">
         <v>29</v>
       </c>
@@ -7334,104 +7449,113 @@
         <v>1.06</v>
       </c>
       <c r="R24" s="55">
-        <f t="shared" ref="R24" si="77">+R23/R25</f>
-        <v>1.0952858706776674</v>
-      </c>
-      <c r="W24" s="53">
+        <v>1.64</v>
+      </c>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="AC24" s="53">
         <v>49.16</v>
       </c>
-      <c r="X24" s="53">
+      <c r="AD24" s="53">
         <v>2.93</v>
       </c>
-      <c r="Y24" s="53">
+      <c r="AE24" s="53">
         <v>5.61</v>
       </c>
-      <c r="Z24" s="55">
+      <c r="AF24" s="55">
         <v>4.5599999999999996</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AG24" s="5">
         <f>SUM(O24:R24)</f>
-        <v>4.7690361631209335</v>
-      </c>
-      <c r="AB24" s="53">
-        <f t="shared" ref="AB24:AI24" si="78">+AB23/AB25</f>
-        <v>4.997997857531387</v>
-      </c>
-      <c r="AC24" s="53">
-        <f t="shared" si="78"/>
-        <v>5.4084195871075709</v>
-      </c>
-      <c r="AD24" s="53">
-        <f t="shared" si="78"/>
-        <v>5.8338607884544302</v>
-      </c>
-      <c r="AE24" s="53">
-        <f t="shared" si="78"/>
-        <v>6.2592407879323373</v>
-      </c>
-      <c r="AF24" s="53">
-        <f t="shared" si="78"/>
-        <v>6.7219449343590965</v>
-      </c>
-      <c r="AG24" s="53">
-        <f t="shared" si="78"/>
-        <v>7.2262355063373835</v>
+        <v>5.3137502924432658</v>
       </c>
       <c r="AH24" s="53">
-        <f t="shared" si="78"/>
-        <v>7.7769476628650756</v>
+        <f t="shared" ref="AH24:AO24" si="75">+AH23/AH25</f>
+        <v>5.7281701506496443</v>
       </c>
       <c r="AI24" s="53">
-        <f t="shared" si="78"/>
-        <v>8.3795720641004205</v>
+        <f t="shared" si="75"/>
+        <v>6.1982130456231221</v>
       </c>
       <c r="AJ24" s="53">
-        <f t="shared" ref="AJ24" si="79">+AJ23/AJ25</f>
-        <v>9.0403497199364153</v>
-      </c>
-    </row>
-    <row r="25" spans="2:147" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="75"/>
+        <v>6.6855640123728195</v>
+      </c>
+      <c r="AK24" s="53">
+        <f t="shared" si="75"/>
+        <v>7.1731888234315475</v>
+      </c>
+      <c r="AL24" s="53">
+        <f t="shared" si="75"/>
+        <v>7.7033745534687643</v>
+      </c>
+      <c r="AM24" s="53">
+        <f t="shared" si="75"/>
+        <v>8.2809587122924224</v>
+      </c>
+      <c r="AN24" s="53">
+        <f t="shared" si="75"/>
+        <v>8.9114274585465587</v>
+      </c>
+      <c r="AO24" s="53">
+        <f t="shared" si="75"/>
+        <v>9.6010090607853389</v>
+      </c>
+      <c r="AP24" s="53">
+        <f t="shared" ref="AP24:AQ24" si="76">+AP23/AP25</f>
+        <v>10.356781186178361</v>
+      </c>
+      <c r="AQ24" s="53">
+        <f t="shared" si="76"/>
+        <v>11.186794081420825</v>
+      </c>
+    </row>
+    <row r="25" spans="2:153" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" ref="C25:L25" si="80">+C23/C24</f>
+        <f t="shared" ref="C25:L25" si="77">+C23/C24</f>
         <v>692.60385005065859</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>686.9693978282329</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>685.79268292682934</v>
       </c>
       <c r="F25" s="13">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>-454.94472662085451</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>682.0083682008368</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>13621.323529411764</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>676.52733118971059</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>-412.59244453328</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>667.58732737611695</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="77"/>
         <v>13224.793388429753</v>
       </c>
       <c r="M25" s="3">
@@ -7450,692 +7574,746 @@
         <v>18574.528301886792</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" ref="R25" si="81">+Q25</f>
-        <v>18574.528301886792</v>
-      </c>
-      <c r="W25" s="3">
-        <f>+W23/W24</f>
+        <f>+R23/R24</f>
+        <v>12614.024390243903</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="AC25" s="3">
+        <f>+AC23/AC24</f>
         <v>733.11635475996752</v>
       </c>
-      <c r="X25" s="3">
-        <f>+X23/X24</f>
+      <c r="AD25" s="3">
+        <f>+AD23/AD24</f>
         <v>13743.686006825938</v>
       </c>
-      <c r="Y25" s="3">
-        <f>+Y23/Y24</f>
+      <c r="AE25" s="3">
+        <f>+AE23/AE24</f>
         <v>13553.119429590017</v>
       </c>
-      <c r="Z25" s="3">
-        <f>+Z23/Z24</f>
+      <c r="AF25" s="3">
+        <f>+AF23/AF24</f>
         <v>13151.754385964914</v>
       </c>
-      <c r="AA25" s="3">
-        <f>+AA23/AA24</f>
-        <v>15872.181334455252</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" ref="AB25:AJ25" si="82">+AA25</f>
-        <v>15872.181334455252</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
-      </c>
-      <c r="AD25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
-      </c>
-      <c r="AE25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
-      </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
-      </c>
       <c r="AG25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
+        <f>+AG23/AG24</f>
+        <v>14037.03898282051</v>
       </c>
       <c r="AH25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
+        <f t="shared" ref="AH25:AQ25" si="78">+AG25</f>
+        <v>14037.03898282051</v>
       </c>
       <c r="AI25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
       </c>
       <c r="AJ25" s="3">
-        <f t="shared" si="82"/>
-        <v>15872.181334455252</v>
-      </c>
-    </row>
-    <row r="26" spans="2:147" x14ac:dyDescent="0.2">
-      <c r="AM26" s="77" t="s">
-        <v>227</v>
-      </c>
-      <c r="AN26" s="78">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AK25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AL25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AM25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AN25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AO25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AP25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f t="shared" si="78"/>
+        <v>14037.03898282051</v>
+      </c>
+    </row>
+    <row r="26" spans="2:153" x14ac:dyDescent="0.2">
+      <c r="AS26" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT26" s="76">
         <v>0.02</v>
       </c>
-      <c r="AQ26" s="3" t="s">
+      <c r="AW26" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:147" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:153" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" ref="G27:H27" si="83">+G12/C12-1</f>
+        <f t="shared" ref="G27:H27" si="79">+G12/C12-1</f>
         <v>0.34391020189994892</v>
       </c>
       <c r="H27" s="12">
+        <f t="shared" si="79"/>
+        <v>0.61579235971486024</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" ref="I27:R27" si="80">+I12/E12-1</f>
+        <v>0.41030472353973102</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="80"/>
+        <v>0.32386024113325607</v>
+      </c>
+      <c r="K27" s="12">
+        <f t="shared" si="80"/>
+        <v>0.22954405756228069</v>
+      </c>
+      <c r="L27" s="12">
+        <f t="shared" si="80"/>
+        <v>0.12613122171945701</v>
+      </c>
+      <c r="M27" s="12">
+        <f t="shared" si="80"/>
+        <v>6.1027672840074931E-2</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="80"/>
+        <v>9.5984069034185104E-3</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="80"/>
+        <v>2.6113422828660138E-2</v>
+      </c>
+      <c r="P27" s="12">
+        <f t="shared" si="80"/>
+        <v>7.0589079428858392E-2</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="80"/>
+        <v>0.11001273664100042</v>
+      </c>
+      <c r="R27" s="12">
+        <f t="shared" si="80"/>
+        <v>0.13494108983799702</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" ref="AB27:AC27" si="81">+AB12/AA12-1</f>
+        <v>0.20715348879166484</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" si="81"/>
+        <v>0.20952181678237025</v>
+      </c>
+      <c r="AD27" s="12">
+        <f>+AD12/AC12-1</f>
+        <v>0.12770532012826141</v>
+      </c>
+      <c r="AE27" s="12">
+        <f t="shared" ref="AE27:AQ27" si="82">+AE12/AD12-1</f>
+        <v>0.41150076427049154</v>
+      </c>
+      <c r="AF27" s="12">
+        <f t="shared" si="82"/>
+        <v>9.7808156437157789E-2</v>
+      </c>
+      <c r="AG27" s="74">
+        <f>+AG12/AF12-1</f>
+        <v>8.6827702272695095E-2</v>
+      </c>
+      <c r="AH27" s="74">
+        <f>+AH12/AG12-1</f>
+        <v>6.5164121615906678E-2</v>
+      </c>
+      <c r="AI27" s="74">
+        <f>+AI12/AH12-1</f>
+        <v>6.7538172551606213E-2</v>
+      </c>
+      <c r="AJ27" s="74">
+        <f>+AJ12/AI12-1</f>
+        <v>6.4835975379075483E-2</v>
+      </c>
+      <c r="AK27" s="74">
+        <f t="shared" ref="AK27:AN27" si="83">+AK12/AJ12-1</f>
+        <v>5.9591501347407094E-2</v>
+      </c>
+      <c r="AL27" s="74">
         <f t="shared" si="83"/>
-        <v>0.61579235971486024</v>
-      </c>
-      <c r="I27" s="12">
-        <f t="shared" ref="I27:R27" si="84">+I12/E12-1</f>
-        <v>0.41030472353973102</v>
-      </c>
-      <c r="J27" s="12">
-        <f t="shared" si="84"/>
-        <v>0.32386024113325607</v>
-      </c>
-      <c r="K27" s="12">
-        <f t="shared" si="84"/>
-        <v>0.22954405756228069</v>
-      </c>
-      <c r="L27" s="12">
-        <f t="shared" si="84"/>
-        <v>0.12613122171945701</v>
-      </c>
-      <c r="M27" s="12">
-        <f t="shared" si="84"/>
-        <v>6.1027672840074931E-2</v>
-      </c>
-      <c r="N27" s="12">
-        <f t="shared" si="84"/>
-        <v>9.5984069034185104E-3</v>
-      </c>
-      <c r="O27" s="12">
-        <f t="shared" si="84"/>
-        <v>2.6113422828660138E-2</v>
-      </c>
-      <c r="P27" s="12">
-        <f t="shared" si="84"/>
-        <v>7.0589079428858392E-2</v>
-      </c>
-      <c r="Q27" s="12">
-        <f t="shared" si="84"/>
-        <v>0.11001273664100042</v>
-      </c>
-      <c r="R27" s="12">
-        <f t="shared" si="84"/>
-        <v>7.279695178759571E-2</v>
-      </c>
-      <c r="V27" s="12">
-        <f t="shared" ref="V27:W27" si="85">+V12/U12-1</f>
-        <v>0.20715348879166484</v>
-      </c>
-      <c r="W27" s="12">
-        <f t="shared" si="85"/>
-        <v>0.20952181678237025</v>
-      </c>
-      <c r="X27" s="12">
-        <f>+X12/W12-1</f>
-        <v>0.12770532012826141</v>
-      </c>
-      <c r="Y27" s="12">
-        <f t="shared" ref="Y27:AJ27" si="86">+Y12/X12-1</f>
-        <v>0.41150076427049154</v>
-      </c>
-      <c r="Z27" s="12">
-        <f t="shared" si="86"/>
-        <v>9.7808156437157789E-2</v>
-      </c>
-      <c r="AA27" s="76">
-        <f>+AA12/Z12-1</f>
-        <v>7.0118593777111382E-2</v>
-      </c>
-      <c r="AB27" s="76">
-        <f>+AB12/AA12-1</f>
-        <v>6.3876711535603148E-2</v>
-      </c>
-      <c r="AC27" s="76">
-        <f>+AC12/AB12-1</f>
-        <v>6.8106462195140161E-2</v>
-      </c>
-      <c r="AD27" s="76">
-        <f>+AD12/AC12-1</f>
-        <v>6.5328121117820492E-2</v>
-      </c>
-      <c r="AE27" s="76">
-        <f t="shared" ref="AE27:AH27" si="87">+AE12/AD12-1</f>
-        <v>5.9960873310662466E-2</v>
-      </c>
-      <c r="AF27" s="76">
-        <f t="shared" si="87"/>
-        <v>6.179141953558398E-2</v>
-      </c>
-      <c r="AG27" s="76">
-        <f t="shared" si="87"/>
-        <v>6.3707390280869136E-2</v>
-      </c>
-      <c r="AH27" s="76">
-        <f t="shared" si="87"/>
-        <v>6.5708510283657651E-2</v>
-      </c>
-      <c r="AI27" s="76">
-        <f t="shared" si="86"/>
-        <v>6.7793603203166297E-2</v>
-      </c>
-      <c r="AJ27" s="76">
-        <f t="shared" si="86"/>
-        <v>6.9960513898223553E-2</v>
-      </c>
-      <c r="AM27" s="79" t="s">
+        <v>6.1397786070399585E-2</v>
+      </c>
+      <c r="AM27" s="74">
+        <f t="shared" si="83"/>
+        <v>6.3289299652351083E-2</v>
+      </c>
+      <c r="AN27" s="74">
+        <f t="shared" si="83"/>
+        <v>6.5265983370205394E-2</v>
+      </c>
+      <c r="AO27" s="74">
+        <f t="shared" si="82"/>
+        <v>6.7326901215943202E-2</v>
+      </c>
+      <c r="AP27" s="74">
+        <f t="shared" si="82"/>
+        <v>6.947015911029375E-2</v>
+      </c>
+      <c r="AQ27" s="74">
+        <f t="shared" si="82"/>
+        <v>7.1692838798665726E-2</v>
+      </c>
+      <c r="AS27" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AN27" s="80">
+      <c r="AT27" s="78">
         <v>0.01</v>
       </c>
-      <c r="AP27" s="12" t="s">
+      <c r="AV27" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="AQ27" s="60">
-        <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="AR27" s="60">
-        <f>+AN28-AQ27</f>
-        <v>1.5900000000000004E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:147" x14ac:dyDescent="0.2">
+      <c r="AW27" s="60">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="AX27" s="60">
+        <f>+AT28-AW27</f>
+        <v>1.6100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ref="G28:H30" si="88">+G3/C3-1</f>
+        <f t="shared" ref="G28:H30" si="84">+G3/C3-1</f>
         <v>0.30107746306423966</v>
       </c>
       <c r="H28" s="6">
+        <f t="shared" si="84"/>
+        <v>0.68136404146535945</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28:N28" si="85">+I3/E3-1</f>
+        <v>0.43997266307236682</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="85"/>
+        <v>0.35727047613077145</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="85"/>
+        <v>0.24276169265033398</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="85"/>
+        <v>0.13513739712651684</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="85"/>
+        <v>4.2530190370722032E-2</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="85"/>
+        <v>-1.6096625943973542E-2</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" ref="O28:R30" si="86">+O3/K3-1</f>
+        <v>1.8703619566863505E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="86"/>
+        <v>4.7654157143208309E-2</v>
+      </c>
+      <c r="Q28" s="6">
+        <f t="shared" si="86"/>
+        <v>0.11348289031083225</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="86"/>
+        <v>0.12712421368885551</v>
+      </c>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="AB28" s="6">
+        <f t="shared" ref="AB28:AC28" si="87">+AB3/AA3-1</f>
+        <v>0.17884001088653645</v>
+      </c>
+      <c r="AC28" s="6">
+        <f t="shared" si="87"/>
+        <v>0.19222076407115773</v>
+      </c>
+      <c r="AD28" s="6">
+        <f>+AD3/AC3-1</f>
+        <v>6.0612546501554343E-2</v>
+      </c>
+      <c r="AE28" s="6">
+        <f t="shared" ref="AE28:AQ28" si="88">+AE3/AD3-1</f>
+        <v>0.43136783840402826</v>
+      </c>
+      <c r="AF28" s="6">
         <f t="shared" si="88"/>
-        <v>0.68136404146535945</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" ref="I28:N28" si="89">+I3/E3-1</f>
-        <v>0.43997266307236682</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="89"/>
-        <v>0.35727047613077145</v>
-      </c>
-      <c r="K28" s="6">
-        <f t="shared" si="89"/>
-        <v>0.24276169265033398</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="89"/>
-        <v>0.13513739712651684</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" si="89"/>
-        <v>4.2530190370722032E-2</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="89"/>
-        <v>-1.6096625943973542E-2</v>
-      </c>
-      <c r="O28" s="6">
-        <f t="shared" ref="O28:R30" si="90">+O3/K3-1</f>
-        <v>1.8703619566863505E-2</v>
-      </c>
-      <c r="P28" s="6">
-        <f t="shared" si="90"/>
-        <v>4.7654157143208309E-2</v>
-      </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="90"/>
-        <v>0.11348289031083225</v>
-      </c>
-      <c r="R28" s="6">
-        <f t="shared" si="90"/>
+        <v>9.0627118985438182E-2</v>
+      </c>
+      <c r="AG28" s="6">
+        <f t="shared" si="88"/>
+        <v>7.7457679285934056E-2</v>
+      </c>
+      <c r="AH28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V28" s="6">
-        <f t="shared" ref="V28:W28" si="91">+V3/U3-1</f>
-        <v>0.17884001088653645</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="91"/>
-        <v>0.19222076407115773</v>
-      </c>
-      <c r="X28" s="6">
-        <f>+X3/W3-1</f>
-        <v>6.0612546501554343E-2</v>
-      </c>
-      <c r="Y28" s="6">
-        <f t="shared" ref="Y28:AJ28" si="92">+Y3/X3-1</f>
-        <v>0.43136783840402826</v>
-      </c>
-      <c r="Z28" s="6">
-        <f t="shared" si="92"/>
-        <v>9.0627118985438182E-2</v>
-      </c>
-      <c r="AA28" s="6">
-        <f t="shared" si="92"/>
-        <v>5.7231148045552516E-2</v>
-      </c>
-      <c r="AB28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AI28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AJ28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AD28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AK28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AE28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AL28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AF28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AM28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AG28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AN28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AH28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AO28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AI28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AP28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ28" s="6">
-        <f t="shared" si="92"/>
+      <c r="AQ28" s="6">
+        <f t="shared" si="88"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AM28" s="81" t="s">
+      <c r="AS28" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="AN28" s="82">
+      <c r="AT28" s="80">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AP28" s="3" t="s">
+      <c r="AV28" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="AQ28" s="61">
-        <v>5.4199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:147" x14ac:dyDescent="0.2">
+      <c r="AW28" s="61">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>0.48712233779098568</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>0.83683105981112282</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" ref="I29:N30" si="93">+I4/E4-1</f>
+        <f t="shared" ref="I29:N30" si="89">+I4/E4-1</f>
         <v>0.4304149295215407</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>0.25388525780682647</v>
       </c>
       <c r="K29" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>0.143880099916736</v>
       </c>
       <c r="L29" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>4.8271922307911996E-2</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>-1.8598195697432374E-2</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="89"/>
         <v>-7.7609174099386058E-2</v>
       </c>
       <c r="O29" s="6">
+        <f t="shared" si="86"/>
+        <v>-2.5622361333527466E-2</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="86"/>
+        <v>4.4277929155313256E-2</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="86"/>
+        <v>0.12459340970159816</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="86"/>
+        <v>0.15534346351877426</v>
+      </c>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="AB29" s="6">
+        <f t="shared" ref="AB29:AC29" si="90">+AB4/AA4-1</f>
+        <v>0.36871165644171788</v>
+      </c>
+      <c r="AC29" s="6">
         <f t="shared" si="90"/>
-        <v>-2.5622361333527466E-2</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" si="90"/>
-        <v>4.4277929155313256E-2</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" si="90"/>
-        <v>0.12459340970159816</v>
-      </c>
-      <c r="R29" s="6">
-        <f t="shared" si="90"/>
+        <v>0.35804571940833707</v>
+      </c>
+      <c r="AD29" s="6">
+        <f>+AD4/AC4-1</f>
+        <v>0.30516865799722748</v>
+      </c>
+      <c r="AE29" s="6">
+        <f t="shared" ref="AE29:AQ29" si="91">+AE4/AD4-1</f>
+        <v>0.45888124620675708</v>
+      </c>
+      <c r="AF29" s="6">
+        <f t="shared" si="91"/>
+        <v>1.3797885248743258E-2</v>
+      </c>
+      <c r="AG29" s="6">
+        <f t="shared" si="91"/>
+        <v>7.7522825975447018E-2</v>
+      </c>
+      <c r="AH29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V29" s="6">
-        <f t="shared" ref="V29:W29" si="94">+V4/U4-1</f>
-        <v>0.36871165644171788</v>
-      </c>
-      <c r="W29" s="6">
-        <f t="shared" si="94"/>
-        <v>0.35804571940833707</v>
-      </c>
-      <c r="X29" s="6">
-        <f>+X4/W4-1</f>
-        <v>0.30516865799722748</v>
-      </c>
-      <c r="Y29" s="6">
-        <f t="shared" ref="Y29:AJ29" si="95">+Y4/X4-1</f>
-        <v>0.45888124620675708</v>
-      </c>
-      <c r="Z29" s="6">
-        <f t="shared" si="95"/>
-        <v>1.3797885248743258E-2</v>
-      </c>
-      <c r="AA29" s="6">
-        <f t="shared" si="95"/>
-        <v>4.883732859145784E-2</v>
-      </c>
-      <c r="AB29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AI29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AC29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AJ29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AD29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AK29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AE29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AL29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AF29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AM29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AG29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AN29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AH29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AO29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AI29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AP29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AJ29" s="6">
-        <f t="shared" si="95"/>
+      <c r="AQ29" s="6">
+        <f t="shared" si="91"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AM29" s="81" t="s">
+      <c r="AS29" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="AN29" s="83">
-        <f>NPV(AN28,AA23:EQ23)+P49-P71</f>
-        <v>2041703.2643667166</v>
-      </c>
-    </row>
-    <row r="30" spans="2:147" x14ac:dyDescent="0.2">
+      <c r="AT29" s="81">
+        <f>NPV(AT28,AG23:EW23)+P49-P71</f>
+        <v>2151659.9354065098</v>
+      </c>
+    </row>
+    <row r="30" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>0.30193375454719518</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="84"/>
         <v>0.60409628378378377</v>
       </c>
       <c r="I30" s="6">
+        <f t="shared" si="89"/>
+        <v>0.3984265734265735</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="89"/>
+        <v>0.25556605046552416</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="89"/>
+        <v>0.20205882352941185</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="89"/>
+        <v>8.7139660392260065E-2</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="89"/>
+        <v>-1.587698462307785E-2</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="89"/>
+        <v>-8.9199355185384244E-2</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="86"/>
+        <v>-8.294592610716911E-2</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="86"/>
+        <v>-4.9521733866085493E-2</v>
+      </c>
+      <c r="Q30" s="6">
+        <f t="shared" si="86"/>
+        <v>-2.5787601626016232E-2</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="86"/>
+        <v>-2.1002949852507391E-2</v>
+      </c>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="AB30" s="6">
+        <f t="shared" ref="AB30:AC30" si="92">+AB5/AA5-1</f>
+        <v>0.13589918256130784</v>
+      </c>
+      <c r="AC30" s="6">
+        <f t="shared" si="92"/>
+        <v>7.6811594202898625E-2</v>
+      </c>
+      <c r="AD30" s="6">
+        <f>+AD5/AC5-1</f>
+        <v>7.161089710864621E-2</v>
+      </c>
+      <c r="AE30" s="6">
+        <f t="shared" ref="AE30:AQ30" si="93">+AE5/AD5-1</f>
+        <v>0.37293200519705505</v>
+      </c>
+      <c r="AF30" s="6">
         <f t="shared" si="93"/>
-        <v>0.3984265734265735</v>
-      </c>
-      <c r="J30" s="6">
+        <v>3.4036781174095365E-2</v>
+      </c>
+      <c r="AG30" s="6">
         <f t="shared" si="93"/>
-        <v>0.25556605046552416</v>
-      </c>
-      <c r="K30" s="6">
+        <v>-4.4783404514948111E-2</v>
+      </c>
+      <c r="AH30" s="6">
         <f t="shared" si="93"/>
-        <v>0.20205882352941185</v>
-      </c>
-      <c r="L30" s="6">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AI30" s="6">
         <f t="shared" si="93"/>
-        <v>8.7139660392260065E-2</v>
-      </c>
-      <c r="M30" s="6">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AJ30" s="6">
         <f t="shared" si="93"/>
-        <v>-1.587698462307785E-2</v>
-      </c>
-      <c r="N30" s="6">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AK30" s="6">
         <f t="shared" si="93"/>
-        <v>-8.9199355185384244E-2</v>
-      </c>
-      <c r="O30" s="6">
-        <f t="shared" si="90"/>
-        <v>-8.294592610716911E-2</v>
-      </c>
-      <c r="P30" s="6">
-        <f t="shared" si="90"/>
-        <v>-4.9521733866085493E-2</v>
-      </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="90"/>
-        <v>-2.5787601626016232E-2</v>
-      </c>
-      <c r="R30" s="6">
-        <f t="shared" si="90"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="V30" s="6">
-        <f t="shared" ref="V30:W30" si="96">+V5/U5-1</f>
-        <v>0.13589918256130784</v>
-      </c>
-      <c r="W30" s="6">
-        <f t="shared" si="96"/>
-        <v>7.6811594202898625E-2</v>
-      </c>
-      <c r="X30" s="6">
-        <f>+X5/W5-1</f>
-        <v>7.161089710864621E-2</v>
-      </c>
-      <c r="Y30" s="6">
-        <f t="shared" ref="Y30:AJ30" si="97">+Y5/X5-1</f>
-        <v>0.37293200519705505</v>
-      </c>
-      <c r="Z30" s="6">
-        <f t="shared" si="97"/>
-        <v>3.4036781174095365E-2</v>
-      </c>
-      <c r="AA30" s="6">
-        <f t="shared" si="97"/>
-        <v>-3.676784624771201E-2</v>
-      </c>
-      <c r="AB30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AL30" s="6">
+        <f t="shared" si="93"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AC30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AM30" s="6">
+        <f t="shared" si="93"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AD30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AN30" s="6">
+        <f t="shared" si="93"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AE30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AO30" s="6">
+        <f t="shared" si="93"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AF30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AP30" s="6">
+        <f t="shared" si="93"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AG30" s="6">
-        <f t="shared" si="97"/>
+      <c r="AQ30" s="6">
+        <f t="shared" si="93"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AH30" s="6">
-        <f t="shared" si="97"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AI30" s="6">
-        <f t="shared" si="97"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AJ30" s="6">
-        <f t="shared" si="97"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AM30" s="81" t="s">
+      <c r="AS30" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="AN30" s="83">
-        <f>+AN29/Main!L9</f>
-        <v>163.12745800309338</v>
-      </c>
-    </row>
-    <row r="31" spans="2:147" x14ac:dyDescent="0.2">
+      <c r="AT30" s="81">
+        <f>+AT29/Main!L9</f>
+        <v>173.06039856884982</v>
+      </c>
+    </row>
+    <row r="31" spans="2:153" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" ref="G31:R31" si="98">+G7/C7-1</f>
+        <f t="shared" ref="G31:R31" si="94">+G7/C7-1</f>
         <v>0.46426155580608786</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.29254488680718183</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.23293172690763053</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.22280491459394658</v>
       </c>
       <c r="K31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>4.8814290113951442E-2</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>-1.0569228446323464E-2</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>2.0876517619188739E-2</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>7.7809092023036319E-2</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>8.8386433710174739E-2</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.24248435830917137</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="94"/>
         <v>0.20942712110224804</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="98"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="V31" s="6">
-        <f t="shared" ref="V31:W31" si="99">+V7/U7-1</f>
+        <f t="shared" si="94"/>
+        <v>0.22714870395634379</v>
+      </c>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="AB31" s="6">
+        <f t="shared" ref="AB31:AC31" si="95">+AB7/AA7-1</f>
         <v>0.43934911242603558</v>
       </c>
-      <c r="W31" s="6">
-        <f t="shared" si="99"/>
+      <c r="AC31" s="6">
+        <f t="shared" si="95"/>
         <v>1.9143542309009933</v>
       </c>
-      <c r="X31" s="6">
-        <f>+X7/W7-1</f>
+      <c r="AD31" s="6">
+        <f>+AD7/AC7-1</f>
         <v>0.27606676854355228</v>
       </c>
-      <c r="Y31" s="6">
-        <f t="shared" ref="Y31:AJ31" si="100">+Y7/X7-1</f>
+      <c r="AE31" s="6">
+        <f t="shared" ref="AE31:AQ31" si="96">+AE7/AD7-1</f>
         <v>0.29114273870388274</v>
       </c>
-      <c r="Z31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AF31" s="6">
+        <f t="shared" si="96"/>
         <v>3.6494006849315141E-2</v>
       </c>
-      <c r="AA31" s="6">
-        <f t="shared" si="100"/>
-        <v>0.15538117363620718</v>
-      </c>
-      <c r="AB31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AG31" s="6">
+        <f t="shared" si="96"/>
+        <v>0.19387368783341929</v>
+      </c>
+      <c r="AH31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AC31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AI31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AD31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AJ31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AE31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AK31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AF31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AL31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AG31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AM31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AH31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AN31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AI31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AO31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AJ31" s="6">
-        <f t="shared" si="100"/>
+      <c r="AP31" s="6">
+        <f t="shared" si="96"/>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="AM31" s="81" t="s">
+      <c r="AQ31" s="6">
+        <f t="shared" si="96"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AS31" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="AN31" s="83">
+      <c r="AT31" s="81">
         <f>+Main!L8</f>
-        <v>147.97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:147" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>150.22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:153" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>215</v>
       </c>
@@ -8144,7 +8322,7 @@
         <v>0.4573280518545193</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32" si="101">+H9/D9-1</f>
+        <f t="shared" ref="H32" si="97">+H9/D9-1</f>
         <v>0.53907549052211512</v>
       </c>
       <c r="I32" s="6">
@@ -8152,110 +8330,120 @@
         <v>0.44889663182346107</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" ref="J32:R32" si="102">+J9/F9-1</f>
+        <f t="shared" ref="J32:R32" si="98">+J9/F9-1</f>
         <v>0.44635865309318712</v>
       </c>
       <c r="K32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.4383493946132937</v>
       </c>
       <c r="L32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.35609334485738975</v>
       </c>
       <c r="M32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.37635270541082155</v>
       </c>
       <c r="N32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.3201588160981772</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.28053599037965982</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.2796367112810707</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="102"/>
+        <f t="shared" si="98"/>
         <v>0.22466511357018049</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="102"/>
-        <v>0.27624915783227211</v>
-      </c>
-      <c r="V32" s="6">
-        <f t="shared" ref="V32:W32" si="103">+V9/U9-1</f>
+        <f t="shared" si="98"/>
+        <v>0.25659603554340404</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="AB32" s="6">
+        <f t="shared" ref="AB32:AC32" si="99">+AB9/AA9-1</f>
         <v>0.28852849551035376</v>
       </c>
-      <c r="W32" s="6">
-        <f t="shared" si="103"/>
+      <c r="AC32" s="6">
+        <f t="shared" si="99"/>
         <v>-0.36585365853658536</v>
       </c>
-      <c r="X32" s="6">
-        <f t="shared" ref="X32" si="104">+X9/W9-1</f>
+      <c r="AD32" s="6">
+        <f t="shared" ref="AD32" si="100">+AD9/AC9-1</f>
         <v>0.46434178066831122</v>
       </c>
-      <c r="Y32" s="6">
-        <f t="shared" ref="Y32:AJ32" si="105">+Y9/X9-1</f>
+      <c r="AE32" s="6">
+        <f t="shared" ref="AE32:AQ32" si="101">+AE9/AD9-1</f>
         <v>0.47070985527222597</v>
       </c>
-      <c r="Z32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AF32" s="6">
+        <f t="shared" si="101"/>
         <v>0.36832239925023424</v>
       </c>
-      <c r="AA32" s="6">
-        <f t="shared" si="105"/>
-        <v>0.26452673476191291</v>
-      </c>
-      <c r="AB32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AG32" s="6">
+        <f t="shared" si="101"/>
+        <v>0.25905631659056327</v>
+      </c>
+      <c r="AH32" s="6">
+        <f t="shared" si="101"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AC32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AI32" s="6">
+        <f t="shared" si="101"/>
         <v>0.25</v>
       </c>
-      <c r="AD32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AJ32" s="6">
+        <f t="shared" si="101"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AE32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AK32" s="6">
+        <f t="shared" si="101"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AF32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AL32" s="6">
+        <f t="shared" si="101"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AG32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AM32" s="6">
+        <f t="shared" si="101"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AH32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AN32" s="6">
+        <f t="shared" si="101"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AI32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AO32" s="6">
+        <f t="shared" si="101"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AJ32" s="6">
-        <f t="shared" si="105"/>
+      <c r="AP32" s="6">
+        <f t="shared" si="101"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="AM32" s="84" t="s">
+      <c r="AQ32" s="6">
+        <f t="shared" si="101"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="AS32" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AN32" s="85">
-        <f>+AN30/AN31-1</f>
-        <v>0.10243602083593562</v>
-      </c>
-    </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AT32" s="83">
+        <f>+AT30/AT31-1</f>
+        <v>0.15204632251930383</v>
+      </c>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>36</v>
       </c>
@@ -8264,7 +8452,7 @@
         <v>0.46666666666666656</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33" si="106">+H10/D10-1</f>
+        <f t="shared" ref="H33" si="102">+H10/D10-1</f>
         <v>0.29729729729729737</v>
       </c>
       <c r="I33" s="6">
@@ -8272,82 +8460,86 @@
         <v>2.2471910112359605E-2</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" ref="J33" si="107">+J10/F10-1</f>
+        <f t="shared" ref="J33" si="103">+J10/F10-1</f>
         <v>-7.6530612244897989E-2</v>
       </c>
       <c r="K33" s="6">
-        <f t="shared" ref="K33" si="108">+K10/G10-1</f>
+        <f t="shared" ref="K33" si="104">+K10/G10-1</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="L33" s="6">
-        <f t="shared" ref="L33:R33" si="109">+L10/H10-1</f>
+        <f t="shared" ref="L33:R33" si="105">+L10/H10-1</f>
         <v>5.2083333333332593E-3</v>
       </c>
       <c r="M33" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>0.14835164835164827</v>
       </c>
       <c r="N33" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>0.24861878453038666</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>-0.34545454545454546</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>0.47668393782383411</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="105"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="109"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="AM33" s="71"/>
-      <c r="AN33" s="71"/>
-    </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="105"/>
+        <v>1.9070796460176993</v>
+      </c>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>213</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:Q34" si="110">+G13/C13-1</f>
+        <f t="shared" ref="G34:Q34" si="106">+G13/C13-1</f>
         <v>0.26978189864081759</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>0.41362582870694764</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>0.30799829521238808</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>0.26487730061349701</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>0.22802140812347016</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>0.14782476074274609</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>0.12805474095796687</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>7.1359282163210969E-2</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>3.4224129193553887E-2</v>
       </c>
       <c r="P34" s="6">
@@ -8355,21 +8547,27 @@
         <v>6.0191336699441989E-2</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="106"/>
         <v>6.64676808524296E-2</v>
       </c>
       <c r="R34" s="6"/>
-      <c r="AM34" s="3" t="s">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="AS34" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="AN34" s="58">
-        <f>+Main!$L$13/Model!AB23</f>
-        <v>22.00753439910061</v>
-      </c>
-    </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AT34" s="58">
+        <f>+Main!$L$13/Model!AH23</f>
+        <v>22.013409486205074</v>
+      </c>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B35" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C35" s="65"/>
       <c r="D35" s="65"/>
@@ -8387,12 +8585,12 @@
       <c r="P35" s="66"/>
       <c r="Q35" s="66"/>
       <c r="R35" s="66"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
       <c r="Y35" s="65"/>
       <c r="Z35" s="65"/>
       <c r="AA35" s="65"/>
@@ -8404,16 +8602,23 @@
       <c r="AG35" s="65"/>
       <c r="AH35" s="65"/>
       <c r="AI35" s="65"/>
-      <c r="AJ35" s="67"/>
-      <c r="AM35" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN35" s="58">
-        <f>+Main!$L$13/Model!AC23</f>
-        <v>20.337477151079888</v>
-      </c>
-    </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="65"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="67"/>
+      <c r="AS35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT35" s="58">
+        <f>+Main!$L$13/Model!AI23</f>
+        <v>20.344017574863919</v>
+      </c>
+    </row>
+    <row r="36" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B36" s="68" t="s">
         <v>19</v>
       </c>
@@ -8462,77 +8667,83 @@
       <c r="Q36" s="69">
         <v>0.44</v>
       </c>
-      <c r="R36" s="70"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="V36" s="71"/>
-      <c r="W36" s="70">
-        <f>+W13/W$12</f>
+      <c r="R36" s="69">
+        <v>0.44</v>
+      </c>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="69"/>
+      <c r="AC36" s="6">
+        <f t="shared" ref="AC36:AK36" si="107">+AC13/AC$12</f>
         <v>0.44419456680897335</v>
       </c>
-      <c r="X36" s="70">
-        <f>+X13/X$12</f>
+      <c r="AD36" s="6">
+        <f t="shared" si="107"/>
         <v>0.46421625293792151</v>
       </c>
-      <c r="Y36" s="70">
-        <f>+Y13/Y$12</f>
+      <c r="AE36" s="6">
+        <f t="shared" si="107"/>
         <v>0.43060197099019165</v>
       </c>
-      <c r="Z36" s="70">
-        <f>+Z13/Z$12</f>
+      <c r="AF36" s="6">
+        <f t="shared" si="107"/>
         <v>0.44620557496216889</v>
       </c>
-      <c r="AA36" s="70">
-        <f>+AA13/AA$12</f>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AB36" s="70">
-        <f>+AB13/AB$12</f>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AC36" s="70">
-        <f>+AC13/AC$12</f>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AD36" s="70">
-        <f>+AD13/AD$12</f>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AE36" s="70">
-        <f>+AE13/AE$12</f>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AF36" s="70">
-        <f t="shared" ref="AF36:AJ36" si="111">+AF13/AF$12</f>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AG36" s="70">
-        <f t="shared" si="111"/>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AH36" s="70">
-        <f t="shared" si="111"/>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AI36" s="70">
-        <f t="shared" si="111"/>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AJ36" s="70">
-        <f t="shared" si="111"/>
-        <v>0.43316484681257522</v>
-      </c>
-      <c r="AM36" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN36" s="10">
+      <c r="AG36" s="6">
+        <f t="shared" si="107"/>
+        <v>0.4337495201597949</v>
+      </c>
+      <c r="AH36" s="6">
+        <f t="shared" si="107"/>
+        <v>0.43374952015979484</v>
+      </c>
+      <c r="AI36" s="6">
+        <f t="shared" si="107"/>
+        <v>0.43374952015979479</v>
+      </c>
+      <c r="AJ36" s="6">
+        <f t="shared" si="107"/>
+        <v>0.43374952015979479</v>
+      </c>
+      <c r="AK36" s="6">
+        <f t="shared" si="107"/>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AL36" s="6">
+        <f t="shared" ref="AL36:AP36" si="108">+AL13/AL$12</f>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AM36" s="6">
+        <f t="shared" si="108"/>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AN36" s="6">
+        <f t="shared" si="108"/>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AO36" s="6">
+        <f t="shared" si="108"/>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AP36" s="6">
+        <f t="shared" si="108"/>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AQ36" s="6">
+        <f t="shared" ref="AQ36" si="109">+AQ13/AQ$12</f>
+        <v>0.43374952015979473</v>
+      </c>
+      <c r="AS36" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT36" s="10">
         <v>156.31</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>20</v>
       </c>
@@ -8581,70 +8792,78 @@
       <c r="Q37" s="69">
         <v>0.16</v>
       </c>
-      <c r="R37" s="70"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="70">
-        <f>+W14/W$12</f>
+      <c r="R37" s="69">
+        <v>0.16</v>
+      </c>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="69"/>
+      <c r="X37" s="69"/>
+      <c r="AC37" s="6">
+        <f t="shared" ref="AC37:AK37" si="110">+AC14/AC$12</f>
         <v>0.16074683208016954</v>
       </c>
-      <c r="X37" s="70">
-        <f>+X14/X$12</f>
+      <c r="AD37" s="6">
+        <f t="shared" si="110"/>
         <v>0.15106258252203783</v>
       </c>
-      <c r="Y37" s="70">
-        <f>+Y14/Y$12</f>
+      <c r="AE37" s="6">
+        <f t="shared" si="110"/>
         <v>0.12250569599863374</v>
       </c>
-      <c r="Z37" s="70">
-        <f>+Z14/Z$12</f>
+      <c r="AF37" s="6">
+        <f t="shared" si="110"/>
         <v>0.13965690364734334</v>
       </c>
-      <c r="AA37" s="70">
-        <f>+AA14/AA$12</f>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AB37" s="70">
-        <f>+AB14/AB$12</f>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AC37" s="70">
-        <f>+AC14/AC$12</f>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AD37" s="70">
-        <f>+AD14/AD$12</f>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AE37" s="70">
-        <f>+AE14/AE$12</f>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AF37" s="70">
-        <f t="shared" ref="AF37:AJ37" si="112">+AF14/AF$12</f>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AG37" s="70">
-        <f t="shared" si="112"/>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AH37" s="70">
-        <f t="shared" si="112"/>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AI37" s="70">
-        <f t="shared" si="112"/>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AJ37" s="70">
-        <f t="shared" si="112"/>
-        <v>0.14645881671406569</v>
-      </c>
-      <c r="AN37" s="58"/>
-    </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AG37" s="6">
+        <f t="shared" si="110"/>
+        <v>0.14778102370247956</v>
+      </c>
+      <c r="AH37" s="6">
+        <f t="shared" si="110"/>
+        <v>0.14778102370247956</v>
+      </c>
+      <c r="AI37" s="6">
+        <f t="shared" si="110"/>
+        <v>0.14778102370247956</v>
+      </c>
+      <c r="AJ37" s="6">
+        <f t="shared" si="110"/>
+        <v>0.14778102370247956</v>
+      </c>
+      <c r="AK37" s="6">
+        <f t="shared" si="110"/>
+        <v>0.14778102370247956</v>
+      </c>
+      <c r="AL37" s="6">
+        <f t="shared" ref="AL37:AP37" si="111">+AL14/AL$12</f>
+        <v>0.14778102370247956</v>
+      </c>
+      <c r="AM37" s="6">
+        <f t="shared" si="111"/>
+        <v>0.14778102370247953</v>
+      </c>
+      <c r="AN37" s="6">
+        <f t="shared" si="111"/>
+        <v>0.14778102370247953</v>
+      </c>
+      <c r="AO37" s="6">
+        <f t="shared" si="111"/>
+        <v>0.14778102370247953</v>
+      </c>
+      <c r="AP37" s="6">
+        <f t="shared" si="111"/>
+        <v>0.14778102370247953</v>
+      </c>
+      <c r="AQ37" s="6">
+        <f t="shared" ref="AQ37" si="112">+AQ14/AQ$12</f>
+        <v>0.14778102370247953</v>
+      </c>
+      <c r="AT37" s="58"/>
+    </row>
+    <row r="38" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>21</v>
       </c>
@@ -8693,182 +8912,202 @@
       <c r="Q38" s="69">
         <v>0.11</v>
       </c>
-      <c r="R38" s="70"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="70">
-        <f>+W15/W$12</f>
+      <c r="R38" s="69">
+        <v>0.11</v>
+      </c>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="69"/>
+      <c r="AC38" s="6">
+        <f t="shared" ref="AC38:AK38" si="113">+AC15/AC$12</f>
         <v>0.11407600536275848</v>
       </c>
-      <c r="X38" s="70">
-        <f>+X15/X$12</f>
+      <c r="AD38" s="6">
+        <f t="shared" si="113"/>
         <v>9.8319700647027566E-2</v>
       </c>
-      <c r="Y38" s="70">
-        <f>+Y15/Y$12</f>
+      <c r="AE38" s="6">
+        <f t="shared" si="113"/>
         <v>8.8931325857699015E-2</v>
       </c>
-      <c r="Z38" s="70">
-        <f>+Z15/Z$12</f>
+      <c r="AF38" s="6">
+        <f t="shared" si="113"/>
         <v>9.3930758460733427E-2</v>
       </c>
-      <c r="AA38" s="70">
-        <f>+AA15/AA$12</f>
-        <v>9.219307866826898E-2</v>
-      </c>
-      <c r="AB38" s="70">
-        <f>+AB15/AB$12</f>
-        <v>9.219307866826898E-2</v>
-      </c>
-      <c r="AC38" s="70">
-        <f>+AC15/AC$12</f>
-        <v>9.219307866826898E-2</v>
-      </c>
-      <c r="AD38" s="70">
-        <f>+AD15/AD$12</f>
-        <v>9.219307866826898E-2</v>
-      </c>
-      <c r="AE38" s="70">
-        <f>+AE15/AE$12</f>
-        <v>9.219307866826898E-2</v>
-      </c>
-      <c r="AF38" s="70">
-        <f t="shared" ref="AF38:AJ38" si="113">+AF15/AF$12</f>
-        <v>9.2193078668268966E-2</v>
-      </c>
-      <c r="AG38" s="70">
+      <c r="AG38" s="6">
         <f t="shared" si="113"/>
-        <v>9.2193078668268952E-2</v>
-      </c>
-      <c r="AH38" s="70">
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AH38" s="6">
         <f t="shared" si="113"/>
-        <v>9.2193078668268952E-2</v>
-      </c>
-      <c r="AI38" s="70">
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AI38" s="6">
         <f t="shared" si="113"/>
-        <v>9.2193078668268952E-2</v>
-      </c>
-      <c r="AJ38" s="70">
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AJ38" s="6">
         <f t="shared" si="113"/>
-        <v>9.2193078668268952E-2</v>
-      </c>
-      <c r="AN38" s="58"/>
-    </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B39" s="72" t="s">
+        <v>9.0818298340240855E-2</v>
+      </c>
+      <c r="AK38" s="6">
+        <f t="shared" si="113"/>
+        <v>9.0818298340240855E-2</v>
+      </c>
+      <c r="AL38" s="6">
+        <f t="shared" ref="AL38:AP38" si="114">+AL15/AL$12</f>
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AM38" s="6">
+        <f t="shared" si="114"/>
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AN38" s="6">
+        <f t="shared" si="114"/>
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AO38" s="6">
+        <f t="shared" si="114"/>
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AP38" s="6">
+        <f t="shared" si="114"/>
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AQ38" s="6">
+        <f t="shared" ref="AQ38" si="115">+AQ15/AQ$12</f>
+        <v>9.0818298340240869E-2</v>
+      </c>
+      <c r="AT38" s="58"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B39" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="71">
         <v>0.06</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="71">
         <v>0.06</v>
       </c>
-      <c r="E39" s="73">
+      <c r="E39" s="71">
         <v>0.06</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F39" s="71">
         <v>0.06</v>
       </c>
-      <c r="G39" s="73">
+      <c r="G39" s="71">
         <v>0.06</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="71">
         <v>0.06</v>
       </c>
-      <c r="I39" s="73">
+      <c r="I39" s="71">
         <v>0.06</v>
       </c>
-      <c r="J39" s="73">
+      <c r="J39" s="71">
         <v>0.06</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="71">
         <v>0.06</v>
       </c>
-      <c r="L39" s="73">
+      <c r="L39" s="71">
         <v>0.06</v>
       </c>
-      <c r="M39" s="73">
+      <c r="M39" s="71">
         <v>0.06</v>
       </c>
-      <c r="N39" s="73">
+      <c r="N39" s="71">
         <v>0.06</v>
       </c>
-      <c r="O39" s="73">
+      <c r="O39" s="71">
         <v>0.06</v>
       </c>
-      <c r="P39" s="73">
+      <c r="P39" s="71">
         <v>0.06</v>
       </c>
-      <c r="Q39" s="73">
+      <c r="Q39" s="71">
         <v>0.06</v>
       </c>
-      <c r="R39" s="74"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="75"/>
-      <c r="U39" s="75"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="74">
-        <f>+W16/W$12</f>
+      <c r="R39" s="71">
+        <v>0.06</v>
+      </c>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="73"/>
+      <c r="AC39" s="72">
+        <f t="shared" ref="AC39:AK39" si="116">+AC16/AC$12</f>
         <v>5.9008878207306451E-2</v>
       </c>
-      <c r="X39" s="74">
-        <f>+X16/X$12</f>
+      <c r="AD39" s="72">
+        <f t="shared" si="116"/>
         <v>6.0549946035381066E-2</v>
       </c>
-      <c r="Y39" s="74">
-        <f>+Y16/Y$12</f>
+      <c r="AE39" s="72">
+        <f t="shared" si="116"/>
         <v>5.2438120301043716E-2</v>
       </c>
-      <c r="Z39" s="74">
-        <f>+Z16/Z$12</f>
+      <c r="AF39" s="72">
+        <f t="shared" si="116"/>
         <v>5.5594054505084221E-2</v>
       </c>
-      <c r="AA39" s="74">
-        <f>+AA16/AA$12</f>
-        <v>5.5129613357779085E-2</v>
-      </c>
-      <c r="AB39" s="74">
-        <f>+AB16/AB$12</f>
-        <v>5.5129613357779085E-2</v>
-      </c>
-      <c r="AC39" s="74">
-        <f>+AC16/AC$12</f>
-        <v>5.5129613357779085E-2</v>
-      </c>
-      <c r="AD39" s="74">
-        <f>+AD16/AD$12</f>
-        <v>5.5129613357779085E-2</v>
-      </c>
-      <c r="AE39" s="74">
-        <f>+AE16/AE$12</f>
-        <v>5.5129613357779085E-2</v>
-      </c>
-      <c r="AF39" s="74">
-        <f t="shared" ref="AF39:AJ39" si="114">+AF16/AF$12</f>
-        <v>5.5129613357779085E-2</v>
-      </c>
-      <c r="AG39" s="74">
-        <f t="shared" si="114"/>
-        <v>5.5129613357779092E-2</v>
-      </c>
-      <c r="AH39" s="74">
-        <f t="shared" si="114"/>
-        <v>5.5129613357779092E-2</v>
-      </c>
-      <c r="AI39" s="74">
-        <f t="shared" si="114"/>
-        <v>5.5129613357779092E-2</v>
-      </c>
-      <c r="AJ39" s="74">
-        <f t="shared" si="114"/>
-        <v>5.5129613357779092E-2</v>
-      </c>
-      <c r="AN39" s="58"/>
-    </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="AG39" s="72">
+        <f t="shared" si="116"/>
+        <v>5.3433053345218189E-2</v>
+      </c>
+      <c r="AH39" s="72">
+        <f t="shared" si="116"/>
+        <v>5.3433053345218189E-2</v>
+      </c>
+      <c r="AI39" s="72">
+        <f t="shared" si="116"/>
+        <v>5.3433053345218195E-2</v>
+      </c>
+      <c r="AJ39" s="72">
+        <f t="shared" si="116"/>
+        <v>5.3433053345218195E-2</v>
+      </c>
+      <c r="AK39" s="72">
+        <f t="shared" si="116"/>
+        <v>5.3433053345218189E-2</v>
+      </c>
+      <c r="AL39" s="72">
+        <f t="shared" ref="AL39:AP39" si="117">+AL16/AL$12</f>
+        <v>5.3433053345218182E-2</v>
+      </c>
+      <c r="AM39" s="72">
+        <f t="shared" si="117"/>
+        <v>5.3433053345218182E-2</v>
+      </c>
+      <c r="AN39" s="72">
+        <f t="shared" si="117"/>
+        <v>5.3433053345218182E-2</v>
+      </c>
+      <c r="AO39" s="72">
+        <f t="shared" si="117"/>
+        <v>5.3433053345218182E-2</v>
+      </c>
+      <c r="AP39" s="72">
+        <f t="shared" si="117"/>
+        <v>5.3433053345218182E-2</v>
+      </c>
+      <c r="AQ39" s="72">
+        <f t="shared" ref="AQ39" si="118">+AQ16/AQ$12</f>
+        <v>5.3433053345218182E-2</v>
+      </c>
+      <c r="AT39" s="58"/>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -8881,8 +9120,14 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
-    </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.2">
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -8895,8 +9140,14 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
-    </row>
-    <row r="42" spans="2:40" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="2:46" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>42</v>
       </c>
@@ -8905,182 +9156,192 @@
         <v>0.53881289632887097</v>
       </c>
       <c r="D42" s="12">
-        <f t="shared" ref="D42:L42" si="115">+(D12-D13)/D12</f>
+        <f t="shared" ref="D42:L42" si="119">+(D12-D13)/D12</f>
         <v>0.51554952085019712</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.54265479825872265</v>
       </c>
       <c r="F42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.54163590987380927</v>
       </c>
       <c r="G42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.56425136493473627</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.57616354234001288</v>
       </c>
       <c r="I42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.57583156730857832</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.56205774975107869</v>
       </c>
       <c r="K42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.5647909896928438</v>
       </c>
       <c r="L42" s="12">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.56799885197675248</v>
       </c>
       <c r="M42" s="12">
-        <f t="shared" ref="M42:N42" si="116">+(M12-M13)/M12</f>
+        <f t="shared" ref="M42:N42" si="120">+(M12-M13)/M12</f>
         <v>0.54903606785156023</v>
       </c>
       <c r="N42" s="12">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0.53526719966337055</v>
       </c>
       <c r="O42" s="12">
-        <f t="shared" ref="O42:P42" si="117">+(O12-O13)/O12</f>
+        <f t="shared" ref="O42:P42" si="121">+(O12-O13)/O12</f>
         <v>0.56135096794531936</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>0.5721945204010509</v>
       </c>
       <c r="Q42" s="12">
-        <f t="shared" ref="Q42:R42" si="118">+(Q12-Q13)/Q12</f>
+        <f t="shared" ref="Q42:R42" si="122">+(Q12-Q13)/Q12</f>
         <v>0.56672708069836886</v>
       </c>
       <c r="R42" s="12">
-        <f t="shared" si="118"/>
-        <v>0.56672708069836875</v>
-      </c>
+        <f t="shared" si="122"/>
+        <v>0.56465067778936395</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
-      <c r="W42" s="12">
-        <f t="shared" ref="W42:AI42" si="119">+(W12-W13)/W12</f>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12">
+        <f t="shared" ref="AC42:AO42" si="123">+(AC12-AC13)/AC12</f>
         <v>0.5558054331910266</v>
       </c>
-      <c r="X42" s="12">
-        <f t="shared" si="119"/>
+      <c r="AD42" s="12">
+        <f t="shared" si="123"/>
         <v>0.53578374706207854</v>
       </c>
-      <c r="Y42" s="12">
-        <f t="shared" si="119"/>
+      <c r="AE42" s="12">
+        <f t="shared" si="123"/>
         <v>0.5693980290098084</v>
       </c>
-      <c r="Z42" s="12">
-        <f t="shared" si="119"/>
+      <c r="AF42" s="12">
+        <f t="shared" si="123"/>
         <v>0.55379442503783116</v>
       </c>
-      <c r="AA42" s="60">
-        <f t="shared" si="119"/>
-        <v>0.56683515318742483</v>
-      </c>
-      <c r="AB42" s="60">
-        <f t="shared" si="119"/>
-        <v>0.56683515318742472</v>
-      </c>
-      <c r="AC42" s="60">
-        <f t="shared" si="119"/>
-        <v>0.56683515318742472</v>
-      </c>
-      <c r="AD42" s="60">
-        <f>+(AD12-AD13)/AD12</f>
-        <v>0.56683515318742472</v>
-      </c>
-      <c r="AE42" s="60">
-        <f>+(AE12-AE13)/AE12</f>
-        <v>0.56683515318742472</v>
-      </c>
-      <c r="AF42" s="60">
-        <f>+(AF12-AF13)/AF12</f>
-        <v>0.56683515318742483</v>
-      </c>
       <c r="AG42" s="60">
-        <f>+(AG12-AG13)/AG12</f>
-        <v>0.56683515318742472</v>
+        <f t="shared" si="123"/>
+        <v>0.56625047984020505</v>
       </c>
       <c r="AH42" s="60">
-        <f t="shared" si="119"/>
-        <v>0.56683515318742472</v>
+        <f t="shared" si="123"/>
+        <v>0.56625047984020516</v>
       </c>
       <c r="AI42" s="60">
-        <f t="shared" si="119"/>
-        <v>0.56683515318742472</v>
+        <f t="shared" si="123"/>
+        <v>0.56625047984020516</v>
       </c>
       <c r="AJ42" s="60">
-        <f t="shared" ref="AJ42" si="120">+(AJ12-AJ13)/AJ12</f>
-        <v>0.56683515318742472</v>
-      </c>
-    </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
+        <f>+(AJ12-AJ13)/AJ12</f>
+        <v>0.56625047984020516</v>
+      </c>
+      <c r="AK42" s="60">
+        <f>+(AK12-AK13)/AK12</f>
+        <v>0.56625047984020527</v>
+      </c>
+      <c r="AL42" s="60">
+        <f>+(AL12-AL13)/AL12</f>
+        <v>0.56625047984020527</v>
+      </c>
+      <c r="AM42" s="60">
+        <f>+(AM12-AM13)/AM12</f>
+        <v>0.56625047984020527</v>
+      </c>
+      <c r="AN42" s="60">
+        <f t="shared" si="123"/>
+        <v>0.56625047984020527</v>
+      </c>
+      <c r="AO42" s="60">
+        <f t="shared" si="123"/>
+        <v>0.56625047984020527</v>
+      </c>
+      <c r="AP42" s="60">
+        <f t="shared" ref="AP42:AQ42" si="124">+(AP12-AP13)/AP12</f>
+        <v>0.56625047984020516</v>
+      </c>
+      <c r="AQ42" s="60">
+        <f t="shared" si="124"/>
+        <v>0.56625047984020516</v>
+      </c>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:Q43" si="121">+C19/C12</f>
+        <f t="shared" ref="C43:P43" si="125">+C19/C12</f>
         <v>0.1938093734055735</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.1666710186176463</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.24284755159941956</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.27507118000632713</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.29715804317171057</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.312879767291532</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.32296753585798088</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.29054098904746101</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.29545220626075192</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.279156202913109</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.24800266311584554</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.23879654954765411</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.24954504420594092</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>0.29271888906761029</v>
       </c>
       <c r="Q43" s="6">
@@ -9089,123 +9350,133 @@
       </c>
       <c r="R43" s="6">
         <f>+R19/R12</f>
-        <v>0.27025643058265236</v>
-      </c>
-      <c r="W43" s="6">
-        <f>+W19/W12</f>
+        <v>0.27455683003128256</v>
+      </c>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="AC43" s="6">
+        <f>+AC19/AC12</f>
         <v>0.22197371754079218</v>
       </c>
-      <c r="X43" s="6">
-        <f t="shared" ref="X43:AJ43" si="122">+X19/X12</f>
+      <c r="AD43" s="6">
+        <f t="shared" ref="AD43:AP43" si="126">+AD19/AD12</f>
         <v>0.22585151785763202</v>
       </c>
-      <c r="Y43" s="6">
-        <f t="shared" si="122"/>
+      <c r="AE43" s="6">
+        <f t="shared" si="126"/>
         <v>0.3055228868524319</v>
       </c>
-      <c r="Z43" s="6">
-        <f t="shared" si="122"/>
+      <c r="AF43" s="6">
+        <f t="shared" si="126"/>
         <v>0.26461270842467011</v>
       </c>
-      <c r="AA43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731101</v>
-      </c>
-      <c r="AB43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731112</v>
-      </c>
-      <c r="AC43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731101</v>
-      </c>
-      <c r="AD43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731112</v>
-      </c>
-      <c r="AE43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731101</v>
-      </c>
-      <c r="AF43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731112</v>
-      </c>
       <c r="AG43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731106</v>
+        <f t="shared" si="126"/>
+        <v>0.27421810445226646</v>
       </c>
       <c r="AH43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731112</v>
+        <f t="shared" si="126"/>
+        <v>0.27421810445226658</v>
       </c>
       <c r="AI43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731101</v>
+        <f t="shared" si="126"/>
+        <v>0.27421810445226663</v>
       </c>
       <c r="AJ43" s="6">
-        <f t="shared" si="122"/>
-        <v>0.27305364444731106</v>
-      </c>
-    </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226652</v>
+      </c>
+      <c r="AK43" s="6">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226669</v>
+      </c>
+      <c r="AL43" s="6">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226663</v>
+      </c>
+      <c r="AM43" s="6">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226663</v>
+      </c>
+      <c r="AN43" s="6">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226674</v>
+      </c>
+      <c r="AO43" s="6">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226669</v>
+      </c>
+      <c r="AP43" s="6">
+        <f t="shared" si="126"/>
+        <v>0.27421810445226669</v>
+      </c>
+      <c r="AQ43" s="6">
+        <f t="shared" ref="AQ43" si="127">+AQ19/AQ12</f>
+        <v>0.27421810445226658</v>
+      </c>
+    </row>
+    <row r="44" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="6">
-        <f t="shared" ref="C44:Q44" si="123">+C23/C12</f>
+        <f t="shared" ref="C44:P44" si="128">+C23/C12</f>
         <v>0.16608761145800433</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.1817113612032274</v>
       </c>
       <c r="E44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.24358391267623936</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.26761924847973567</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.32414940159814876</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.29936974789915966</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.29079517184188702</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.2740391636242947</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.24166678919586537</v>
       </c>
       <c r="L44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.22963335007533903</v>
       </c>
       <c r="M44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.20132576854049672</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.17915001051967178</v>
       </c>
       <c r="O44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.21567054035851949</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="123"/>
+        <f t="shared" si="128"/>
         <v>0.2462066377137955</v>
       </c>
       <c r="Q44" s="6">
@@ -9214,66 +9485,76 @@
       </c>
       <c r="R44" s="6">
         <f>+R23/R12</f>
-        <v>0.24936755731218835</v>
-      </c>
-      <c r="W44" s="6">
-        <f>+W23/W12</f>
+        <v>0.23968253968253969</v>
+      </c>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="AC44" s="6">
+        <f>+AC23/AC12</f>
         <v>0.22266568637748135</v>
       </c>
-      <c r="X44" s="6">
-        <f t="shared" ref="X44:AJ44" si="124">+X23/X12</f>
+      <c r="AD44" s="6">
+        <f t="shared" ref="AD44:AP44" si="129">+AD23/AD12</f>
         <v>0.22061941520980458</v>
       </c>
-      <c r="Y44" s="6">
-        <f t="shared" si="124"/>
+      <c r="AE44" s="6">
+        <f t="shared" si="129"/>
         <v>0.29511677282377918</v>
       </c>
-      <c r="Z44" s="6">
-        <f t="shared" si="124"/>
+      <c r="AF44" s="6">
+        <f t="shared" si="129"/>
         <v>0.21203807153261961</v>
       </c>
-      <c r="AA44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.25009248126150119</v>
-      </c>
-      <c r="AB44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.24636260246189018</v>
-      </c>
-      <c r="AC44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.24959423605521949</v>
-      </c>
-      <c r="AD44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.25271838949593806</v>
-      </c>
-      <c r="AE44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.25580710826868192</v>
-      </c>
-      <c r="AF44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.25872994041415281</v>
-      </c>
       <c r="AG44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.26148192455167008</v>
+        <f t="shared" si="129"/>
+        <v>0.24265053969823747</v>
       </c>
       <c r="AH44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.26405859237685086</v>
+        <f t="shared" si="129"/>
+        <v>0.24557236915493852</v>
       </c>
       <c r="AI44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.26645609139967813</v>
+        <f t="shared" si="129"/>
+        <v>0.24891248279469991</v>
       </c>
       <c r="AJ44" s="6">
-        <f t="shared" si="124"/>
-        <v>0.26867131026312752</v>
-      </c>
-    </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="129"/>
+        <v>0.25213637989111598</v>
+      </c>
+      <c r="AK44" s="6">
+        <f t="shared" si="129"/>
+        <v>0.25531201809985427</v>
+      </c>
+      <c r="AL44" s="6">
+        <f t="shared" si="129"/>
+        <v>0.25832226059952035</v>
+      </c>
+      <c r="AM44" s="6">
+        <f t="shared" si="129"/>
+        <v>0.26116200483331764</v>
+      </c>
+      <c r="AN44" s="6">
+        <f t="shared" si="129"/>
+        <v>0.2638266066452184</v>
+      </c>
+      <c r="AO44" s="6">
+        <f t="shared" si="129"/>
+        <v>0.26631200193077248</v>
+      </c>
+      <c r="AP44" s="6">
+        <f t="shared" si="129"/>
+        <v>0.26861483204129899</v>
+      </c>
+      <c r="AQ44" s="6">
+        <f t="shared" ref="AQ44" si="130">+AQ23/AQ12</f>
+        <v>0.27073256869540857</v>
+      </c>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.2">
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -9290,7 +9571,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>86</v>
       </c>
@@ -9330,8 +9611,11 @@
       <c r="Q47" s="3">
         <v>30702</v>
       </c>
-    </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>24048</v>
+      </c>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>93</v>
       </c>
@@ -9371,109 +9655,116 @@
       <c r="Q48" s="3">
         <v>89233</v>
       </c>
-    </row>
-    <row r="49" spans="2:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>86868</v>
+      </c>
+    </row>
+    <row r="49" spans="2:43" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" ref="F49:M49" si="125">+SUM(F47:F48)</f>
+        <f t="shared" ref="F49:M49" si="131">+SUM(F47:F48)</f>
         <v>136694</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>135104</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>135863</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>142003</v>
       </c>
       <c r="J49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>139649</v>
       </c>
       <c r="K49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>133970</v>
       </c>
       <c r="L49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>124997</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>116259</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" ref="N49:Q49" si="126">+SUM(N47:N48)</f>
+        <f t="shared" ref="N49:P49" si="132">+SUM(N47:N48)</f>
         <v>113762</v>
       </c>
       <c r="O49" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>115102</v>
       </c>
       <c r="P49" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>118332</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" si="126"/>
+        <f>+SUM(Q47:Q48)</f>
         <v>119935</v>
       </c>
       <c r="R49" s="10">
-        <f>+Q49+R23</f>
-        <v>140279.41840355904</v>
-      </c>
-      <c r="Z49" s="10">
+        <f>+SUM(R47:R48)</f>
+        <v>110916</v>
+      </c>
+      <c r="AF49" s="10">
         <f>+R49</f>
-        <v>140279.41840355904</v>
-      </c>
-      <c r="AA49" s="10">
-        <f>+Z49+AA23</f>
-        <v>215974.42517518922</v>
-      </c>
-      <c r="AB49" s="10">
-        <f t="shared" ref="AB49:AJ49" si="127">+AA49+AB23</f>
-        <v>295303.55347914621</v>
-      </c>
-      <c r="AC49" s="10">
-        <f t="shared" si="127"/>
-        <v>381146.96989853715</v>
-      </c>
-      <c r="AD49" s="10">
-        <f t="shared" si="127"/>
-        <v>473743.06621285394</v>
-      </c>
-      <c r="AE49" s="10">
-        <f t="shared" si="127"/>
-        <v>573090.87101493462</v>
-      </c>
-      <c r="AF49" s="10">
-        <f t="shared" si="127"/>
-        <v>679782.79993330513</v>
+        <v>110916</v>
       </c>
       <c r="AG49" s="10">
-        <f t="shared" si="127"/>
-        <v>794478.92025537114</v>
+        <f>+AF49+AG23</f>
+        <v>185505.32</v>
       </c>
       <c r="AH49" s="10">
-        <f t="shared" si="127"/>
-        <v>917916.04378893354</v>
+        <f t="shared" ref="AH49:AQ49" si="133">+AG49+AH23</f>
+        <v>265911.86770489789</v>
       </c>
       <c r="AI49" s="10">
-        <f t="shared" si="127"/>
-        <v>1050918.1310954709</v>
+        <f t="shared" si="133"/>
+        <v>352916.42585013632</v>
       </c>
       <c r="AJ49" s="10">
-        <f t="shared" si="127"/>
-        <v>1194408.2011771933</v>
-      </c>
-    </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.2">
+        <f t="shared" si="133"/>
+        <v>446761.94851395546</v>
+      </c>
+      <c r="AK49" s="10">
+        <f t="shared" si="133"/>
+        <v>547452.2796595965</v>
+      </c>
+      <c r="AL49" s="10">
+        <f t="shared" si="133"/>
+        <v>655584.84856590512</v>
+      </c>
+      <c r="AM49" s="10">
+        <f t="shared" si="133"/>
+        <v>771824.98882548092</v>
+      </c>
+      <c r="AN49" s="10">
+        <f t="shared" si="133"/>
+        <v>896915.04345367604</v>
+      </c>
+      <c r="AO49" s="10">
+        <f t="shared" si="133"/>
+        <v>1031684.7819143328</v>
+      </c>
+      <c r="AP49" s="10">
+        <f t="shared" si="133"/>
+        <v>1177063.3231612605</v>
+      </c>
+      <c r="AQ49" s="10">
+        <f t="shared" si="133"/>
+        <v>1334092.7877749503</v>
+      </c>
+    </row>
+    <row r="50" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>88</v>
       </c>
@@ -9514,11 +9805,10 @@
         <v>41020</v>
       </c>
       <c r="R50" s="3">
-        <f>+R12*Q86/12</f>
-        <v>50613.924979446689</v>
-      </c>
-    </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.2">
+        <v>47964</v>
+      </c>
+    </row>
+    <row r="51" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>89</v>
       </c>
@@ -9556,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>90</v>
       </c>
@@ -9597,11 +9887,10 @@
         <v>2957</v>
       </c>
       <c r="R52" s="3">
-        <f>AVERAGE(M52:Q52)</f>
-        <v>2665.8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>91</v>
       </c>
@@ -9642,68 +9931,67 @@
         <v>12398</v>
       </c>
       <c r="R53" s="3">
-        <f>+AVERAGE(P53:Q53)</f>
-        <v>10909.5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="54" spans="2:43" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" ref="F54:L54" si="128">+SUM(F49:F53)</f>
+        <f t="shared" ref="F54:L54" si="134">+SUM(F49:F53)</f>
         <v>174296</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>172137</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>175697</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>184110</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>188143</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>177853</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>172371</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" ref="M54" si="129">+SUM(M49:M53)</f>
+        <f t="shared" ref="M54" si="135">+SUM(M49:M53)</f>
         <v>166109</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" ref="N54:R54" si="130">+SUM(N49:N53)</f>
+        <f t="shared" ref="N54:R54" si="136">+SUM(N49:N53)</f>
         <v>164795</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>161985</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>168788</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="130"/>
+        <f>+SUM(Q49:Q53)</f>
         <v>176310</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="130"/>
-        <v>204468.64338300572</v>
-      </c>
-    </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
+        <f>+SUM(R49:R53)</f>
+        <v>171530</v>
+      </c>
+    </row>
+    <row r="55" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
         <v>94</v>
       </c>
@@ -9744,11 +10032,10 @@
         <v>30907</v>
       </c>
       <c r="R55" s="3">
-        <f t="shared" ref="R55" si="131">AVERAGE(P55:Q55)</f>
-        <v>31065.5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
+        <v>31008</v>
+      </c>
+    </row>
+    <row r="56" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
         <v>95</v>
       </c>
@@ -9789,11 +10076,10 @@
         <v>10983</v>
       </c>
       <c r="R56" s="3">
-        <f t="shared" ref="R56:R61" si="132">AVERAGE(P56:Q56)</f>
-        <v>10170</v>
-      </c>
-    </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.2">
+        <v>12169</v>
+      </c>
+    </row>
+    <row r="57" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>96</v>
       </c>
@@ -9834,11 +10120,10 @@
         <v>125705</v>
       </c>
       <c r="R57" s="3">
-        <f t="shared" si="132"/>
-        <v>123456.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.2">
+        <v>134345</v>
+      </c>
+    </row>
+    <row r="58" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>97</v>
       </c>
@@ -9879,11 +10164,10 @@
         <v>14199</v>
       </c>
       <c r="R58" s="3">
-        <f t="shared" si="132"/>
-        <v>14334</v>
-      </c>
-    </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.2">
+        <v>14091</v>
+      </c>
+    </row>
+    <row r="59" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>98</v>
       </c>
@@ -9924,11 +10208,10 @@
         <v>1833</v>
       </c>
       <c r="R59" s="3">
-        <f t="shared" si="132"/>
-        <v>1899.5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>99</v>
       </c>
@@ -9969,11 +10252,10 @@
         <v>29146</v>
       </c>
       <c r="R60" s="3">
-        <f t="shared" si="132"/>
-        <v>29178</v>
-      </c>
-    </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.2">
+        <v>29198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>100</v>
       </c>
@@ -10014,68 +10296,67 @@
         <v>7628</v>
       </c>
       <c r="R61" s="3">
-        <f t="shared" si="132"/>
-        <v>7225</v>
-      </c>
-    </row>
-    <row r="62" spans="2:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="62" spans="2:43" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F62" s="10">
-        <f t="shared" ref="F62:L62" si="133">+SUM(F54:F61)</f>
+        <f t="shared" ref="F62:L62" si="137">+SUM(F54:F61)</f>
         <v>319616</v>
       </c>
       <c r="G62" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>327095</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>335387</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>347403</v>
       </c>
       <c r="J62" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>359268</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>357096</v>
       </c>
       <c r="L62" s="10">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>355185</v>
       </c>
       <c r="M62" s="10">
-        <f t="shared" ref="M62:N62" si="134">+SUM(M54:M61)</f>
+        <f t="shared" ref="M62:N62" si="138">+SUM(M54:M61)</f>
         <v>358255</v>
       </c>
       <c r="N62" s="10">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>365264</v>
       </c>
       <c r="O62" s="10">
-        <f t="shared" ref="O62:R62" si="135">+SUM(O54:O61)</f>
+        <f t="shared" ref="O62:R62" si="139">+SUM(O54:O61)</f>
         <v>369491</v>
       </c>
       <c r="P62" s="10">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>383044</v>
       </c>
       <c r="Q62" s="10">
-        <f t="shared" si="135"/>
+        <f>+SUM(Q54:Q61)</f>
         <v>396711</v>
       </c>
       <c r="R62" s="10">
-        <f t="shared" si="135"/>
-        <v>421797.14338300575</v>
-      </c>
-    </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
+        <f>+SUM(R54:R61)</f>
+        <v>402392</v>
+      </c>
+    </row>
+    <row r="64" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
         <v>102</v>
       </c>
@@ -10115,8 +10396,11 @@
       <c r="Q64" s="3">
         <v>5803</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>7493</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
         <v>103</v>
       </c>
@@ -10156,8 +10440,11 @@
       <c r="Q65" s="3">
         <v>12562</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>15140</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>104</v>
       </c>
@@ -10197,8 +10484,11 @@
       <c r="Q66" s="3">
         <v>55602</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>46168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
         <v>105</v>
       </c>
@@ -10238,8 +10528,11 @@
       <c r="Q67" s="3">
         <v>8025</v>
       </c>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>106</v>
       </c>
@@ -10279,8 +10572,11 @@
       <c r="Q68" s="3">
         <v>4303</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>107</v>
       </c>
@@ -10320,61 +10616,68 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F70" s="10">
-        <f t="shared" ref="F70:L70" si="136">+SUM(F64:F69)</f>
+        <f t="shared" ref="F70:L70" si="140">+SUM(F64:F69)</f>
         <v>56834</v>
       </c>
       <c r="G70" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>55453</v>
       </c>
       <c r="H70" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>55741</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>61782</v>
       </c>
       <c r="J70" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>64254</v>
       </c>
       <c r="K70" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>61948</v>
       </c>
       <c r="L70" s="10">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>61354</v>
       </c>
       <c r="M70" s="10">
-        <f t="shared" ref="M70:N70" si="137">+SUM(M64:M69)</f>
+        <f t="shared" ref="M70:N70" si="141">+SUM(M64:M69)</f>
         <v>65979</v>
       </c>
       <c r="N70" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>69300</v>
       </c>
       <c r="O70" s="10">
-        <f t="shared" ref="O70:P70" si="138">+SUM(O64:O69)</f>
+        <f t="shared" ref="O70:P70" si="142">+SUM(O64:O69)</f>
         <v>68854</v>
       </c>
       <c r="P70" s="10">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>77709</v>
       </c>
       <c r="Q70" s="10">
-        <f t="shared" ref="Q70" si="139">+SUM(Q64:Q69)</f>
+        <f t="shared" ref="Q70:R70" si="143">+SUM(Q64:Q69)</f>
         <v>86295</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="10">
+        <f t="shared" si="143"/>
+        <v>81814</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
         <v>109</v>
       </c>
@@ -10414,8 +10717,11 @@
       <c r="Q71" s="3">
         <v>13781</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>13253</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>106</v>
       </c>
@@ -10455,8 +10761,11 @@
       <c r="Q72" s="3">
         <v>884</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
         <v>107</v>
       </c>
@@ -10496,8 +10805,11 @@
       <c r="Q73" s="3">
         <v>8038</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="7" t="s">
         <v>95</v>
       </c>
@@ -10537,8 +10849,11 @@
       <c r="Q74" s="3">
         <v>528</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="7" t="s">
         <v>97</v>
       </c>
@@ -10578,8 +10893,11 @@
       <c r="Q75" s="3">
         <v>12550</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>12460</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
         <v>110</v>
       </c>
@@ -10619,61 +10937,68 @@
       <c r="Q76" s="3">
         <v>1433</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F77" s="10">
-        <f t="shared" ref="F77:L77" si="140">+SUM(F70:F76)</f>
+        <f t="shared" ref="F77:L77" si="144">+SUM(F70:F76)</f>
         <v>97072</v>
       </c>
       <c r="G77" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>97082</v>
       </c>
       <c r="H77" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>97822</v>
       </c>
       <c r="I77" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>102836</v>
       </c>
       <c r="J77" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>107633</v>
       </c>
       <c r="K77" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>103092</v>
       </c>
       <c r="L77" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>99766</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" ref="M77:N77" si="141">+SUM(M70:M76)</f>
+        <f t="shared" ref="M77:N77" si="145">+SUM(M70:M76)</f>
         <v>104629</v>
       </c>
       <c r="N77" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>109120</v>
       </c>
       <c r="O77" s="10">
-        <f t="shared" ref="O77:P77" si="142">+SUM(O70:O76)</f>
+        <f t="shared" ref="O77:P77" si="146">+SUM(O70:O76)</f>
         <v>108597</v>
       </c>
       <c r="P77" s="10">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>115903</v>
       </c>
       <c r="Q77" s="10">
-        <f t="shared" ref="Q77" si="143">+SUM(Q70:Q76)</f>
+        <f t="shared" ref="Q77:R77" si="147">+SUM(Q70:Q76)</f>
         <v>123509</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="10">
+        <f t="shared" si="147"/>
+        <v>119013</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
         <v>112</v>
       </c>
@@ -10713,8 +11038,11 @@
       <c r="Q78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="7" t="s">
         <v>113</v>
       </c>
@@ -10754,8 +11082,11 @@
       <c r="Q79" s="3">
         <v>74591</v>
       </c>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="3">
+        <v>76534</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
         <v>114</v>
       </c>
@@ -10795,8 +11126,11 @@
       <c r="Q80" s="3">
         <v>-7036</v>
       </c>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R80" s="3">
+        <v>-4402</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="7" t="s">
         <v>115</v>
       </c>
@@ -10836,140 +11170,151 @@
       <c r="Q81" s="3">
         <v>205647</v>
       </c>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>211247</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>116</v>
       </c>
       <c r="F82" s="3">
-        <f t="shared" ref="F82:L82" si="144">+SUM(F78:F81)</f>
+        <f t="shared" ref="F82:L82" si="148">+SUM(F78:F81)</f>
         <v>222544</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>230013</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>237565</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>244567</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>251635</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>254004</v>
       </c>
       <c r="L82" s="3">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>255419</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" ref="M82:N82" si="145">+SUM(M78:M81)</f>
+        <f t="shared" ref="M82:N82" si="149">+SUM(M78:M81)</f>
         <v>253626</v>
       </c>
       <c r="N82" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>256144</v>
       </c>
       <c r="O82" s="3">
-        <f t="shared" ref="O82:P82" si="146">+SUM(O78:O81)</f>
+        <f t="shared" ref="O82:P82" si="150">+SUM(O78:O81)</f>
         <v>260894</v>
       </c>
       <c r="P82" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>267141</v>
       </c>
       <c r="Q82" s="3">
-        <f t="shared" ref="Q82" si="147">+SUM(Q78:Q81)</f>
+        <f t="shared" ref="Q82:R82" si="151">+SUM(Q78:Q81)</f>
         <v>273202</v>
       </c>
-    </row>
-    <row r="83" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R82" s="3">
+        <f t="shared" si="151"/>
+        <v>283379</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F83" s="10">
-        <f t="shared" ref="F83:L83" si="148">+F77+F82</f>
+        <f t="shared" ref="F83:L83" si="152">+F77+F82</f>
         <v>319616</v>
       </c>
       <c r="G83" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>327095</v>
       </c>
       <c r="H83" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>335387</v>
       </c>
       <c r="I83" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>347403</v>
       </c>
       <c r="J83" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>359268</v>
       </c>
       <c r="K83" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>357096</v>
       </c>
       <c r="L83" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>355185</v>
       </c>
       <c r="M83" s="10">
-        <f t="shared" ref="M83:N83" si="149">+M77+M82</f>
+        <f t="shared" ref="M83:N83" si="153">+M77+M82</f>
         <v>358255</v>
       </c>
       <c r="N83" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>365264</v>
       </c>
       <c r="O83" s="10">
-        <f t="shared" ref="O83:P83" si="150">+O77+O82</f>
+        <f t="shared" ref="O83:P83" si="154">+O77+O82</f>
         <v>369491</v>
       </c>
       <c r="P83" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>383044</v>
       </c>
       <c r="Q83" s="10">
-        <f t="shared" ref="Q83" si="151">+Q77+Q82</f>
+        <f t="shared" ref="Q83:R83" si="155">+Q77+Q82</f>
         <v>396711</v>
       </c>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="10">
+        <f t="shared" si="155"/>
+        <v>402392</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="F84" s="3" t="str">
-        <f t="shared" ref="F84:L84" si="152">IF(F83=F62,"B","N")</f>
+        <f t="shared" ref="F84:L84" si="156">IF(F83=F62,"B","N")</f>
         <v>B</v>
       </c>
       <c r="G84" s="3" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>B</v>
       </c>
       <c r="H84" s="3" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>B</v>
       </c>
       <c r="I84" s="3" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>B</v>
       </c>
       <c r="J84" s="3" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>B</v>
       </c>
       <c r="K84" s="3" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>B</v>
       </c>
       <c r="L84" s="3" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>B</v>
       </c>
       <c r="M84" s="3" t="str">
@@ -10992,8 +11337,12 @@
         <f>IF(Q83=Q62,"B","N")</f>
         <v>B</v>
       </c>
-    </row>
-    <row r="85" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R84" s="3" t="str">
+        <f>IF(R83=R62,"B","N")</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="17" t="s">
         <v>118</v>
       </c>
@@ -11018,72 +11367,76 @@
         <v>0.28619230234267889</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" ref="K85:Q85" si="153">+SUM(F23:I23)/K82</f>
+        <f t="shared" ref="K85:R85" si="157">+SUM(F23:I23)/K82</f>
         <v>0.27801924379143633</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.29767949917586395</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.29389337055349213</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.28115435067774375</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.25677094912109899</v>
       </c>
       <c r="P85" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.22449567831220216</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>0.21444572148080907</v>
       </c>
-    </row>
-    <row r="86" spans="2:18" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R85" s="6">
+        <f t="shared" si="157"/>
+        <v>0.2150935672720985</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="14" t="s">
         <v>209</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" ref="F86:N86" si="154">SUM(C12:F12)/AVERAGE(E50:F50)</f>
+        <f t="shared" ref="F86:N86" si="158">SUM(C12:F12)/AVERAGE(E50:F50)</f>
         <v>5.9012932428063367</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>6.6744264965386177</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>7.3454721291247731</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>7.2472505832096221</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>7.0247713050946814</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>7.3056332509086976</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>7.9005538985939499</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>8.0141185159934096</v>
       </c>
       <c r="N86" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>7.5468214261890472</v>
       </c>
       <c r="O86" s="5">
@@ -11100,47 +11453,53 @@
       </c>
       <c r="R86" s="5">
         <f>SUM(O12:R12)/AVERAGE(Q50:R50)</f>
-        <v>6.6060263741279428</v>
-      </c>
-    </row>
-    <row r="87" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6.9089723995324999</v>
+      </c>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
+    </row>
+    <row r="87" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="17" t="s">
         <v>210</v>
       </c>
       <c r="F87" s="53">
-        <f t="shared" ref="F87:N87" si="155">SUM(C13:F13)/AVERAGE(E52:F52)</f>
+        <f t="shared" ref="F87:N87" si="159">SUM(C13:F13)/AVERAGE(E52:F52)</f>
         <v>116.39010989010988</v>
       </c>
       <c r="G87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>111.20420792079207</v>
       </c>
       <c r="H87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>108.66518105849582</v>
       </c>
       <c r="I87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>95.222883295194507</v>
       </c>
       <c r="J87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>90.636437908496731</v>
       </c>
       <c r="K87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>91.717211500590778</v>
       </c>
       <c r="L87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>71.849507315616606</v>
       </c>
       <c r="M87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>48.22780373831776</v>
       </c>
       <c r="N87" s="53">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>43.324064538276694</v>
       </c>
       <c r="O87" s="53">
@@ -11157,47 +11516,53 @@
       </c>
       <c r="R87" s="53">
         <f>SUM(O13:R13)/AVERAGE(Q52:R52)</f>
-        <v>46.633408610179387</v>
-      </c>
-    </row>
-    <row r="88" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90.180588434223878</v>
+      </c>
+      <c r="S87" s="53"/>
+      <c r="T87" s="53"/>
+      <c r="U87" s="53"/>
+      <c r="V87" s="53"/>
+      <c r="W87" s="53"/>
+      <c r="X87" s="53"/>
+    </row>
+    <row r="88" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="17" t="s">
         <v>211</v>
       </c>
       <c r="F88" s="53">
-        <f t="shared" ref="F88:N88" si="156">+F65/F13/365</f>
+        <f t="shared" ref="F88:N88" si="160">+F65/F13/365</f>
         <v>1.1645936633330532E-3</v>
       </c>
       <c r="G88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>9.519647130835188E-4</v>
       </c>
       <c r="H88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>1.0538130996447768E-3</v>
       </c>
       <c r="I88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>1.2071418758707018E-3</v>
       </c>
       <c r="J88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>1.1535120284503623E-3</v>
       </c>
       <c r="K88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>9.073797846743248E-4</v>
       </c>
       <c r="L88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>9.8762645659430871E-4</v>
       </c>
       <c r="M88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>1.0873436053275088E-3</v>
       </c>
       <c r="N88" s="53">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>1.0874561912831409E-3</v>
       </c>
       <c r="O88" s="53">
@@ -11212,14 +11577,18 @@
         <f>+Q65/Q13/365</f>
         <v>1.0357350012388088E-3</v>
       </c>
-    </row>
-    <row r="89" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R88" s="53">
+        <f>+R65/R13/365</f>
+        <v>1.1039108996618635E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="17"/>
     </row>
-    <row r="90" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="17"/>
     </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="7" t="s">
         <v>120</v>
       </c>
@@ -11264,8 +11633,11 @@
       <c r="Q93" s="3">
         <v>30656</v>
       </c>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>18915</v>
+      </c>
+    </row>
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
         <v>121</v>
       </c>
@@ -11310,45 +11682,48 @@
       <c r="Q94" s="3">
         <v>-8055</v>
       </c>
-    </row>
-    <row r="95" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-11019</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F95" s="10">
-        <f t="shared" ref="F95:N95" si="157">+F93+F94</f>
+        <f t="shared" ref="F95:N95" si="161">+F93+F94</f>
         <v>42843</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>13347</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>16394</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>18720</v>
       </c>
       <c r="J95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>18551</v>
       </c>
       <c r="K95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>15320</v>
       </c>
       <c r="L95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>12594</v>
       </c>
       <c r="M95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>16077</v>
       </c>
       <c r="N95" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>16019</v>
       </c>
       <c r="O95" s="10">
@@ -11363,8 +11738,12 @@
         <f>+Q93+Q94</f>
         <v>22601</v>
       </c>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R95" s="10">
+        <f>+R93+R94</f>
+        <v>7896</v>
+      </c>
+    </row>
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
         <v>123</v>
       </c>
@@ -11405,128 +11784,139 @@
       <c r="Q96" s="3">
         <v>5743</v>
       </c>
-    </row>
-    <row r="97" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="8" t="s">
         <v>124</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" ref="G97:K97" si="158">+G95-G96</f>
+        <f t="shared" ref="G97:K97" si="162">+G95-G96</f>
         <v>9602</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>12591</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>14846</v>
       </c>
       <c r="J97" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>14597</v>
       </c>
       <c r="K97" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>10816</v>
       </c>
       <c r="L97" s="10">
-        <f>+L95-L96</f>
+        <f t="shared" ref="L97:R97" si="163">+L95-L96</f>
         <v>7812</v>
       </c>
       <c r="M97" s="10">
-        <f>+M95-M96</f>
+        <f t="shared" si="163"/>
         <v>11101</v>
       </c>
       <c r="N97" s="10">
-        <f>+N95-N96</f>
+        <f t="shared" si="163"/>
         <v>10919</v>
       </c>
       <c r="O97" s="10">
-        <f>+O95-O96</f>
+        <f t="shared" si="163"/>
         <v>11936</v>
       </c>
       <c r="P97" s="10">
-        <f>+P95-P96</f>
+        <f t="shared" si="163"/>
         <v>16004</v>
       </c>
       <c r="Q97" s="10">
-        <f>+Q95-Q96</f>
+        <f t="shared" si="163"/>
         <v>16858</v>
       </c>
-    </row>
-    <row r="98" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R97" s="10">
+        <f t="shared" si="163"/>
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99" s="7" t="s">
         <v>212</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" ref="G99:Q99" si="159">+G23</f>
+        <f t="shared" ref="G99:R99" si="164">+G23</f>
         <v>17930</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>18525</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>18936</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>20642</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>16436</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>16002</v>
       </c>
       <c r="M99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>13910</v>
       </c>
       <c r="N99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>13624</v>
       </c>
       <c r="O99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>15051</v>
       </c>
       <c r="P99" s="3">
-        <f t="shared" si="159"/>
+        <f t="shared" si="164"/>
         <v>18368</v>
       </c>
       <c r="Q99" s="3">
-        <f t="shared" si="159"/>
+        <f>+Q23</f>
         <v>19689</v>
       </c>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <f>+R23</f>
+        <v>20687</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" ref="I102:L102" si="160">SUM(F95:I95)</f>
+        <f t="shared" ref="I102:L102" si="165">SUM(F95:I95)</f>
         <v>91304</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>67012</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>68985</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="160"/>
+        <f t="shared" si="165"/>
         <v>65185</v>
       </c>
       <c r="M102" s="3">
@@ -11549,25 +11939,29 @@
         <f>SUM(N95:Q95)</f>
         <v>77618</v>
       </c>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="10">
+        <f>SUM(O95:R95)</f>
+        <v>69495</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>190</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" ref="I103:L103" si="161">SUM(F97:I97)</f>
+        <f t="shared" ref="I103:L103" si="166">SUM(F97:I97)</f>
         <v>37039</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>51636</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>52850</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="161"/>
+        <f t="shared" si="166"/>
         <v>48071</v>
       </c>
       <c r="M103" s="3">
@@ -11590,25 +11984,29 @@
         <f>SUM(N97:Q97)</f>
         <v>55717</v>
       </c>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="3">
+        <f>SUM(O97:R97)</f>
+        <v>47035</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
         <v>189</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" ref="I104:L104" si="162">SUM(F99:I99)</f>
+        <f t="shared" ref="I104:L104" si="167">SUM(F99:I99)</f>
         <v>55391</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>76033</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>74539</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>72016</v>
       </c>
       <c r="M104" s="3">
@@ -11631,8 +12029,12 @@
         <f>SUM(N99:Q99)</f>
         <v>66732</v>
       </c>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="3">
+        <f>SUM(O99:R99)</f>
+        <v>73795</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
         <v>191</v>
       </c>
@@ -11670,32 +12072,32 @@
         <v>182381</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
         <v>192</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" ref="G109:L109" si="163">+G108-C108</f>
+        <f t="shared" ref="G109:L109" si="168">+G108-C108</f>
         <v>3995</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>144056</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>150028</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>21199</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>159911</v>
       </c>
       <c r="L109" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>29958</v>
       </c>
       <c r="M109" s="3">
@@ -11715,44 +12117,44 @@
         <v>-4398</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
         <v>193</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" ref="D110:L110" si="164">+D108-C108</f>
+        <f t="shared" ref="D110:L110" si="169">+D108-C108</f>
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>135301</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>-131306</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>140061</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>5972</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>6472</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>7406</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>10108</v>
       </c>
       <c r="M110" s="3">
@@ -11777,27 +12179,27 @@
         <v>195</v>
       </c>
       <c r="G113" s="51">
-        <f t="shared" ref="G113:L113" si="165">+G12/G108</f>
+        <f t="shared" ref="G113:L113" si="170">+G12/G108</f>
         <v>13.845807259073842</v>
       </c>
       <c r="H113" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>0.42955517298828233</v>
       </c>
       <c r="I113" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>0.43403897939051378</v>
       </c>
       <c r="J113" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>0.48130990415335462</v>
       </c>
       <c r="K113" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>0.41493905043134477</v>
       </c>
       <c r="L113" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>0.40045628512648407</v>
       </c>
       <c r="M113" s="51">
@@ -11822,39 +12224,39 @@
         <v>196</v>
       </c>
       <c r="H114" s="48">
-        <f t="shared" ref="H114:Q114" si="166">SUM(E12:H12)/H108</f>
+        <f t="shared" ref="H114:Q114" si="171">SUM(E12:H12)/H108</f>
         <v>1.5290234353307046</v>
       </c>
       <c r="I114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.5944357053350042</v>
       </c>
       <c r="J114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.6462428115015975</v>
       </c>
       <c r="K114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.64932339267629</v>
       </c>
       <c r="L114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.5983713954049674</v>
       </c>
       <c r="M114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.5104106992756146</v>
       </c>
       <c r="O114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.4923732768429718</v>
       </c>
       <c r="P114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.592597278297891</v>
       </c>
       <c r="Q114" s="48">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>1.6291828644431163</v>
       </c>
     </row>
@@ -11896,15 +12298,15 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G27:R35 G40:R41 G36:P39 R36:R39">
+  <conditionalFormatting sqref="G27:X35 G36:P39 G40:X41">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="F13:L16 N13:O16 AA6:AJ6 AA8:AJ8 AA7 V10:AA10 Q6:R6 AA12:AA16 F18:L29 N18:O27 AA18:AA19 AA21:AA23" formula="1"/>
-    <ignoredError sqref="F86:O86 F87:N87" formulaRange="1"/>
+    <ignoredError sqref="F13:L16 N13:O16 AG6:AP6 AG8:AP8 AB10:AF10 Q6:R6 AG12:AG16 F18:L29 N18:O27 AG18:AG19 AG21:AG23" formula="1"/>
+    <ignoredError sqref="F86:K86 F87:K87 L87:N87 L86:O86 O87:R87 P86:R86" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -11919,7 +12321,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -11962,7 +12364,7 @@
       </c>
       <c r="Q1" s="26">
         <f ca="1">TODAY()</f>
-        <v>45312</v>
+        <v>45332</v>
       </c>
     </row>
     <row r="2" spans="2:38" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12052,11 +12454,11 @@
       </c>
       <c r="K3" s="41">
         <f ca="1">(J3-$Q$1)/365</f>
-        <v>9.5890410958904104E-2</v>
+        <v>4.1095890410958902E-2</v>
       </c>
       <c r="L3" s="41">
         <f t="shared" ref="L3:L9" ca="1" si="1">+K3*2</f>
-        <v>0.19178082191780821</v>
+        <v>8.2191780821917804E-2</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>143</v>
@@ -12124,11 +12526,11 @@
       </c>
       <c r="K4" s="41">
         <f t="shared" ref="K4:K9" ca="1" si="5">(J4-$Q$1)/365</f>
-        <v>2.5671232876712327</v>
+        <v>2.5123287671232877</v>
       </c>
       <c r="L4" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1342465753424653</v>
+        <v>5.0246575342465754</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>143</v>
@@ -12194,11 +12596,11 @@
       </c>
       <c r="K5" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5671232876712329</v>
+        <v>1.5123287671232877</v>
       </c>
       <c r="L5" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1342465753424658</v>
+        <v>3.0246575342465754</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>143</v>
@@ -12257,11 +12659,11 @@
       </c>
       <c r="K6" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5671232876712327</v>
+        <v>3.5123287671232877</v>
       </c>
       <c r="L6" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>7.1342465753424653</v>
+        <v>7.0246575342465754</v>
       </c>
       <c r="M6" s="23" t="s">
         <v>143</v>
@@ -12322,11 +12724,11 @@
       </c>
       <c r="K7" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>6.5698630136986305</v>
+        <v>6.515068493150685</v>
       </c>
       <c r="L7" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>13.139726027397261</v>
+        <v>13.03013698630137</v>
       </c>
       <c r="M7" s="23" t="s">
         <v>143</v>
@@ -12396,11 +12798,11 @@
       </c>
       <c r="K8" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>16.578082191780823</v>
+        <v>16.523287671232875</v>
       </c>
       <c r="L8" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>33.156164383561645</v>
+        <v>33.046575342465751</v>
       </c>
       <c r="M8" s="23" t="s">
         <v>143</v>
@@ -12470,11 +12872,11 @@
       </c>
       <c r="K9" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>26.583561643835615</v>
+        <v>26.528767123287672</v>
       </c>
       <c r="L9" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>53.167123287671231</v>
+        <v>53.057534246575344</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>143</v>
@@ -12736,7 +13138,7 @@
       </c>
       <c r="C8" s="2">
         <f ca="1">Bonds!L3</f>
-        <v>0.19178082191780821</v>
+        <v>8.2191780821917804E-2</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -12941,7 +13343,7 @@
       </c>
       <c r="C9" s="2">
         <f ca="1">Bonds!L4</f>
-        <v>5.1342465753424653</v>
+        <v>5.0246575342465754</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -13174,7 +13576,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">Bonds!$L$5</f>
-        <v>3.1342465753424658</v>
+        <v>3.0246575342465754</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -13497,7 +13899,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">+Bonds!L6</f>
-        <v>7.1342465753424653</v>
+        <v>7.0246575342465754</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -13856,7 +14258,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">Bonds!L7</f>
-        <v>13.139726027397261</v>
+        <v>13.03013698630137</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -14470,7 +14872,7 @@
       </c>
       <c r="C10" s="37">
         <f ca="1">Bonds!L8</f>
-        <v>33.156164383561645</v>
+        <v>33.046575342465751</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>

--- a/GOOG.xlsx
+++ b/GOOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameelbrannon/Library/CloudStorage/Dropbox/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231F71A1-2F42-8E44-A788-0C2A541721AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA781029-CACD-C94E-9C8E-374AFCA6E447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="2020" windowWidth="43900" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="820" windowWidth="43900" windowHeight="24660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1982,7 +1982,7 @@
   <dimension ref="B2:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>150.22</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="L10" s="10">
         <f>+L8*L9</f>
-        <v>1867685.26</v>
+        <v>1741863.2999999998</v>
       </c>
       <c r="M10" s="62"/>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="L13" s="10">
         <f>+L10-L11+L12</f>
-        <v>1770022.26</v>
+        <v>1644200.2999999998</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="C10" s="44">
         <f ca="1">+Bonds!L9</f>
-        <v>53.057534246575344</v>
+        <v>52.964383561643835</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="E1" s="30">
         <f ca="1">Bonds!L3</f>
-        <v>8.2191780821917804E-2</v>
+        <v>-1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="2" spans="2:32" x14ac:dyDescent="0.2">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E3" s="30">
         <f ca="1">Bonds!L3</f>
-        <v>8.2191780821917804E-2</v>
+        <v>-1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="E5" s="19">
         <f ca="1">E1*(1-1/(1+E2)^E3)/E2+E4/(1+E2)^E3</f>
-        <v>996.00445826476903</v>
+        <v>1000.5349469240022</v>
       </c>
       <c r="I5" s="19">
         <f>13*2</f>
@@ -4349,10 +4349,10 @@
   <dimension ref="B2:EW116"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS49" sqref="AS49"/>
+      <selection pane="bottomRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6954,7 +6954,7 @@
         <v>157029.46461368987</v>
       </c>
       <c r="AR23" s="10">
-        <f t="shared" ref="AQ23:DB23" si="73">+AQ23*(1+$AT$27)</f>
+        <f t="shared" ref="AR23:DB23" si="73">+AQ23*(1+$AT$27)</f>
         <v>158599.75925982677</v>
       </c>
       <c r="AS23" s="10">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="AT31" s="81">
         <f>+Main!L8</f>
-        <v>150.22</v>
+        <v>140.1</v>
       </c>
     </row>
     <row r="32" spans="2:153" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="AT32" s="83">
         <f>+AT30/AT31-1</f>
-        <v>0.15204632251930383</v>
+        <v>0.23526337308243983</v>
       </c>
     </row>
     <row r="33" spans="2:46" x14ac:dyDescent="0.2">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AT34" s="58">
         <f>+Main!$L$13/Model!AH23</f>
-        <v>22.013409486205074</v>
+        <v>20.448587172706642</v>
       </c>
     </row>
     <row r="35" spans="2:46" x14ac:dyDescent="0.2">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="AT35" s="58">
         <f>+Main!$L$13/Model!AI23</f>
-        <v>20.344017574863919</v>
+        <v>18.89786391714448</v>
       </c>
     </row>
     <row r="36" spans="2:46" x14ac:dyDescent="0.2">
@@ -9971,7 +9971,7 @@
         <v>166109</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" ref="N54:R54" si="136">+SUM(N49:N53)</f>
+        <f t="shared" ref="N54:P54" si="136">+SUM(N49:N53)</f>
         <v>164795</v>
       </c>
       <c r="O54" s="10">
@@ -10340,7 +10340,7 @@
         <v>365264</v>
       </c>
       <c r="O62" s="10">
-        <f t="shared" ref="O62:R62" si="139">+SUM(O54:O61)</f>
+        <f t="shared" ref="O62:P62" si="139">+SUM(O54:O61)</f>
         <v>369491</v>
       </c>
       <c r="P62" s="10">
@@ -11318,27 +11318,27 @@
         <v>B</v>
       </c>
       <c r="M84" s="3" t="str">
-        <f>IF(M83=M62,"B","N")</f>
+        <f t="shared" ref="M84:R84" si="157">IF(M83=M62,"B","N")</f>
         <v>B</v>
       </c>
       <c r="N84" s="3" t="str">
-        <f>IF(N83=N62,"B","N")</f>
+        <f t="shared" si="157"/>
         <v>B</v>
       </c>
       <c r="O84" s="3" t="str">
-        <f>IF(O83=O62,"B","N")</f>
+        <f t="shared" si="157"/>
         <v>B</v>
       </c>
       <c r="P84" s="3" t="str">
-        <f>IF(P83=P62,"B","N")</f>
+        <f t="shared" si="157"/>
         <v>B</v>
       </c>
       <c r="Q84" s="3" t="str">
-        <f>IF(Q83=Q62,"B","N")</f>
+        <f t="shared" si="157"/>
         <v>B</v>
       </c>
       <c r="R84" s="3" t="str">
-        <f>IF(R83=R62,"B","N")</f>
+        <f t="shared" si="157"/>
         <v>B</v>
       </c>
     </row>
@@ -11367,35 +11367,35 @@
         <v>0.28619230234267889</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" ref="K85:R85" si="157">+SUM(F23:I23)/K82</f>
+        <f t="shared" ref="K85:R85" si="158">+SUM(F23:I23)/K82</f>
         <v>0.27801924379143633</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.29767949917586395</v>
       </c>
       <c r="M85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.29389337055349213</v>
       </c>
       <c r="N85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.28115435067774375</v>
       </c>
       <c r="O85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.25677094912109899</v>
       </c>
       <c r="P85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.22449567831220216</v>
       </c>
       <c r="Q85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.21444572148080907</v>
       </c>
       <c r="R85" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.2150935672720985</v>
       </c>
     </row>
@@ -11404,39 +11404,39 @@
         <v>209</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" ref="F86:N86" si="158">SUM(C12:F12)/AVERAGE(E50:F50)</f>
+        <f t="shared" ref="F86:N86" si="159">SUM(C12:F12)/AVERAGE(E50:F50)</f>
         <v>5.9012932428063367</v>
       </c>
       <c r="G86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>6.6744264965386177</v>
       </c>
       <c r="H86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.3454721291247731</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.2472505832096221</v>
       </c>
       <c r="J86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.0247713050946814</v>
       </c>
       <c r="K86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.3056332509086976</v>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.9005538985939499</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>8.0141185159934096</v>
       </c>
       <c r="N86" s="5">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.5468214261890472</v>
       </c>
       <c r="O86" s="5">
@@ -11467,39 +11467,39 @@
         <v>210</v>
       </c>
       <c r="F87" s="53">
-        <f t="shared" ref="F87:N87" si="159">SUM(C13:F13)/AVERAGE(E52:F52)</f>
+        <f t="shared" ref="F87:N87" si="160">SUM(C13:F13)/AVERAGE(E52:F52)</f>
         <v>116.39010989010988</v>
       </c>
       <c r="G87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>111.20420792079207</v>
       </c>
       <c r="H87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>108.66518105849582</v>
       </c>
       <c r="I87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>95.222883295194507</v>
       </c>
       <c r="J87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>90.636437908496731</v>
       </c>
       <c r="K87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>91.717211500590778</v>
       </c>
       <c r="L87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>71.849507315616606</v>
       </c>
       <c r="M87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>48.22780373831776</v>
       </c>
       <c r="N87" s="53">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>43.324064538276694</v>
       </c>
       <c r="O87" s="53">
@@ -11530,39 +11530,39 @@
         <v>211</v>
       </c>
       <c r="F88" s="53">
-        <f t="shared" ref="F88:N88" si="160">+F65/F13/365</f>
+        <f t="shared" ref="F88:N88" si="161">+F65/F13/365</f>
         <v>1.1645936633330532E-3</v>
       </c>
       <c r="G88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>9.519647130835188E-4</v>
       </c>
       <c r="H88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.0538130996447768E-3</v>
       </c>
       <c r="I88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.2071418758707018E-3</v>
       </c>
       <c r="J88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.1535120284503623E-3</v>
       </c>
       <c r="K88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>9.073797846743248E-4</v>
       </c>
       <c r="L88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>9.8762645659430871E-4</v>
       </c>
       <c r="M88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.0873436053275088E-3</v>
       </c>
       <c r="N88" s="53">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.0874561912831409E-3</v>
       </c>
       <c r="O88" s="53">
@@ -11691,39 +11691,39 @@
         <v>122</v>
       </c>
       <c r="F95" s="10">
-        <f t="shared" ref="F95:N95" si="161">+F93+F94</f>
+        <f t="shared" ref="F95:N95" si="162">+F93+F94</f>
         <v>42843</v>
       </c>
       <c r="G95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>13347</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>16394</v>
       </c>
       <c r="I95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>18720</v>
       </c>
       <c r="J95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>18551</v>
       </c>
       <c r="K95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>15320</v>
       </c>
       <c r="L95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>12594</v>
       </c>
       <c r="M95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>16077</v>
       </c>
       <c r="N95" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>16019</v>
       </c>
       <c r="O95" s="10">
@@ -11793,51 +11793,51 @@
         <v>124</v>
       </c>
       <c r="G97" s="10">
-        <f t="shared" ref="G97:K97" si="162">+G95-G96</f>
+        <f t="shared" ref="G97:K97" si="163">+G95-G96</f>
         <v>9602</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>12591</v>
       </c>
       <c r="I97" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>14846</v>
       </c>
       <c r="J97" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>14597</v>
       </c>
       <c r="K97" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>10816</v>
       </c>
       <c r="L97" s="10">
-        <f t="shared" ref="L97:R97" si="163">+L95-L96</f>
+        <f t="shared" ref="L97:R97" si="164">+L95-L96</f>
         <v>7812</v>
       </c>
       <c r="M97" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>11101</v>
       </c>
       <c r="N97" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>10919</v>
       </c>
       <c r="O97" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>11936</v>
       </c>
       <c r="P97" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>16004</v>
       </c>
       <c r="Q97" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>16858</v>
       </c>
       <c r="R97" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>2237</v>
       </c>
     </row>
@@ -11851,43 +11851,43 @@
         <v>212</v>
       </c>
       <c r="G99" s="3">
-        <f t="shared" ref="G99:R99" si="164">+G23</f>
+        <f t="shared" ref="G99:P99" si="165">+G23</f>
         <v>17930</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>18525</v>
       </c>
       <c r="I99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>18936</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>20642</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>16436</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>16002</v>
       </c>
       <c r="M99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>13910</v>
       </c>
       <c r="N99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>13624</v>
       </c>
       <c r="O99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>15051</v>
       </c>
       <c r="P99" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>18368</v>
       </c>
       <c r="Q99" s="3">
@@ -11904,43 +11904,43 @@
         <v>188</v>
       </c>
       <c r="I102" s="3">
-        <f t="shared" ref="I102:L102" si="165">SUM(F95:I95)</f>
+        <f t="shared" ref="I102:L102" si="166">SUM(F95:I95)</f>
         <v>91304</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>67012</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>68985</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="165"/>
+        <f t="shared" si="166"/>
         <v>65185</v>
       </c>
       <c r="M102" s="3">
-        <f>SUM(J95:M95)</f>
+        <f t="shared" ref="M102:R102" si="167">SUM(J95:M95)</f>
         <v>62542</v>
       </c>
       <c r="N102" s="3">
-        <f>SUM(K95:N95)</f>
+        <f t="shared" si="167"/>
         <v>60010</v>
       </c>
       <c r="O102" s="3">
-        <f>SUM(L95:O95)</f>
+        <f t="shared" si="167"/>
         <v>61910</v>
       </c>
       <c r="P102" s="10">
-        <f>SUM(M95:P95)</f>
+        <f t="shared" si="167"/>
         <v>71094</v>
       </c>
       <c r="Q102" s="10">
-        <f>SUM(N95:Q95)</f>
+        <f t="shared" si="167"/>
         <v>77618</v>
       </c>
       <c r="R102" s="10">
-        <f>SUM(O95:R95)</f>
+        <f t="shared" si="167"/>
         <v>69495</v>
       </c>
     </row>
@@ -11949,43 +11949,43 @@
         <v>190</v>
       </c>
       <c r="I103" s="3">
-        <f t="shared" ref="I103:L103" si="166">SUM(F97:I97)</f>
+        <f t="shared" ref="I103:L103" si="168">SUM(F97:I97)</f>
         <v>37039</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>51636</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>52850</v>
       </c>
       <c r="L103" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>48071</v>
       </c>
       <c r="M103" s="3">
-        <f>SUM(J97:M97)</f>
+        <f t="shared" ref="M103:R103" si="169">SUM(J97:M97)</f>
         <v>44326</v>
       </c>
       <c r="N103" s="3">
-        <f>SUM(K97:N97)</f>
+        <f t="shared" si="169"/>
         <v>40648</v>
       </c>
       <c r="O103" s="3">
-        <f>SUM(L97:O97)</f>
+        <f t="shared" si="169"/>
         <v>41768</v>
       </c>
       <c r="P103" s="3">
-        <f>SUM(M97:P97)</f>
+        <f t="shared" si="169"/>
         <v>49960</v>
       </c>
       <c r="Q103" s="3">
-        <f>SUM(N97:Q97)</f>
+        <f t="shared" si="169"/>
         <v>55717</v>
       </c>
       <c r="R103" s="3">
-        <f>SUM(O97:R97)</f>
+        <f t="shared" si="169"/>
         <v>47035</v>
       </c>
     </row>
@@ -11994,43 +11994,43 @@
         <v>189</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" ref="I104:L104" si="167">SUM(F99:I99)</f>
+        <f t="shared" ref="I104:L104" si="170">SUM(F99:I99)</f>
         <v>55391</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>76033</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>74539</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>72016</v>
       </c>
       <c r="M104" s="3">
-        <f>SUM(J99:M99)</f>
+        <f t="shared" ref="M104:R104" si="171">SUM(J99:M99)</f>
         <v>66990</v>
       </c>
       <c r="N104" s="3">
-        <f>SUM(K99:N99)</f>
+        <f t="shared" si="171"/>
         <v>59972</v>
       </c>
       <c r="O104" s="3">
-        <f>SUM(L99:O99)</f>
+        <f t="shared" si="171"/>
         <v>58587</v>
       </c>
       <c r="P104" s="3">
-        <f>SUM(M99:P99)</f>
+        <f t="shared" si="171"/>
         <v>60953</v>
       </c>
       <c r="Q104" s="3">
-        <f>SUM(N99:Q99)</f>
+        <f t="shared" si="171"/>
         <v>66732</v>
       </c>
       <c r="R104" s="3">
-        <f>SUM(O99:R99)</f>
+        <f t="shared" si="171"/>
         <v>73795</v>
       </c>
     </row>
@@ -12077,27 +12077,27 @@
         <v>192</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" ref="G109:L109" si="168">+G108-C108</f>
+        <f t="shared" ref="G109:L109" si="172">+G108-C108</f>
         <v>3995</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>144056</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>150028</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>21199</v>
       </c>
       <c r="K109" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>159911</v>
       </c>
       <c r="L109" s="3">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>29958</v>
       </c>
       <c r="M109" s="3">
@@ -12122,39 +12122,39 @@
         <v>193</v>
       </c>
       <c r="D110" s="3">
-        <f t="shared" ref="D110:L110" si="169">+D108-C108</f>
+        <f t="shared" ref="D110:L110" si="173">+D108-C108</f>
         <v>0</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>0</v>
       </c>
       <c r="F110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>135301</v>
       </c>
       <c r="G110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>-131306</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>140061</v>
       </c>
       <c r="I110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>5972</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>6472</v>
       </c>
       <c r="K110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>7406</v>
       </c>
       <c r="L110" s="3">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>10108</v>
       </c>
       <c r="M110" s="3">
@@ -12179,27 +12179,27 @@
         <v>195</v>
       </c>
       <c r="G113" s="51">
-        <f t="shared" ref="G113:L113" si="170">+G12/G108</f>
+        <f t="shared" ref="G113:L113" si="174">+G12/G108</f>
         <v>13.845807259073842</v>
       </c>
       <c r="H113" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.42955517298828233</v>
       </c>
       <c r="I113" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.43403897939051378</v>
       </c>
       <c r="J113" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.48130990415335462</v>
       </c>
       <c r="K113" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.41493905043134477</v>
       </c>
       <c r="L113" s="51">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>0.40045628512648407</v>
       </c>
       <c r="M113" s="51">
@@ -12224,39 +12224,39 @@
         <v>196</v>
       </c>
       <c r="H114" s="48">
-        <f t="shared" ref="H114:Q114" si="171">SUM(E12:H12)/H108</f>
+        <f t="shared" ref="H114:Q114" si="175">SUM(E12:H12)/H108</f>
         <v>1.5290234353307046</v>
       </c>
       <c r="I114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.5944357053350042</v>
       </c>
       <c r="J114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.6462428115015975</v>
       </c>
       <c r="K114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.64932339267629</v>
       </c>
       <c r="L114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.5983713954049674</v>
       </c>
       <c r="M114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.5104106992756146</v>
       </c>
       <c r="O114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.4923732768429718</v>
       </c>
       <c r="P114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.592597278297891</v>
       </c>
       <c r="Q114" s="48">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>1.6291828644431163</v>
       </c>
     </row>
@@ -12364,7 +12364,7 @@
       </c>
       <c r="Q1" s="26">
         <f ca="1">TODAY()</f>
-        <v>45332</v>
+        <v>45349</v>
       </c>
     </row>
     <row r="2" spans="2:38" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12454,11 +12454,11 @@
       </c>
       <c r="K3" s="41">
         <f ca="1">(J3-$Q$1)/365</f>
-        <v>4.1095890410958902E-2</v>
+        <v>-5.4794520547945206E-3</v>
       </c>
       <c r="L3" s="41">
         <f t="shared" ref="L3:L9" ca="1" si="1">+K3*2</f>
-        <v>8.2191780821917804E-2</v>
+        <v>-1.0958904109589041E-2</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>143</v>
@@ -12526,11 +12526,11 @@
       </c>
       <c r="K4" s="41">
         <f t="shared" ref="K4:K9" ca="1" si="5">(J4-$Q$1)/365</f>
-        <v>2.5123287671232877</v>
+        <v>2.4657534246575343</v>
       </c>
       <c r="L4" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0246575342465754</v>
+        <v>4.9315068493150687</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>143</v>
@@ -12596,11 +12596,11 @@
       </c>
       <c r="K5" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5123287671232877</v>
+        <v>1.4657534246575343</v>
       </c>
       <c r="L5" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0246575342465754</v>
+        <v>2.9315068493150687</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>143</v>
@@ -12659,11 +12659,11 @@
       </c>
       <c r="K6" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5123287671232877</v>
+        <v>3.4657534246575343</v>
       </c>
       <c r="L6" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0246575342465754</v>
+        <v>6.9315068493150687</v>
       </c>
       <c r="M6" s="23" t="s">
         <v>143</v>
@@ -12724,11 +12724,11 @@
       </c>
       <c r="K7" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>6.515068493150685</v>
+        <v>6.4684931506849317</v>
       </c>
       <c r="L7" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>13.03013698630137</v>
+        <v>12.936986301369863</v>
       </c>
       <c r="M7" s="23" t="s">
         <v>143</v>
@@ -12798,11 +12798,11 @@
       </c>
       <c r="K8" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>16.523287671232875</v>
+        <v>16.476712328767125</v>
       </c>
       <c r="L8" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>33.046575342465751</v>
+        <v>32.953424657534249</v>
       </c>
       <c r="M8" s="23" t="s">
         <v>143</v>
@@ -12872,11 +12872,11 @@
       </c>
       <c r="K9" s="41">
         <f t="shared" ca="1" si="5"/>
-        <v>26.528767123287672</v>
+        <v>26.482191780821918</v>
       </c>
       <c r="L9" s="41">
         <f t="shared" ca="1" si="1"/>
-        <v>53.057534246575344</v>
+        <v>52.964383561643835</v>
       </c>
       <c r="M9" s="23" t="s">
         <v>143</v>
@@ -13138,7 +13138,7 @@
       </c>
       <c r="C8" s="2">
         <f ca="1">Bonds!L3</f>
-        <v>8.2191780821917804E-2</v>
+        <v>-1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="C9" s="2">
         <f ca="1">Bonds!L4</f>
-        <v>5.0246575342465754</v>
+        <v>4.9315068493150687</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">Bonds!$L$5</f>
-        <v>3.0246575342465754</v>
+        <v>2.9315068493150687</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -13899,7 +13899,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">+Bonds!L6</f>
-        <v>7.0246575342465754</v>
+        <v>6.9315068493150687</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="C9" s="37">
         <f ca="1">Bonds!L7</f>
-        <v>13.03013698630137</v>
+        <v>12.936986301369863</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="C10" s="37">
         <f ca="1">Bonds!L8</f>
-        <v>33.046575342465751</v>
+        <v>32.953424657534249</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
